--- a/BugTracking_Complete.xlsx
+++ b/BugTracking_Complete.xlsx
@@ -1633,9 +1633,10 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="11">
-        <f>SUM('Bugs'[BusinessImpact])</f>
-        <v/>
+      <c r="D2" s="11" t="inlineStr">
+        <is>
+          <t>=SUM('Bugs'[BusinessImpact])</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1657,9 +1658,10 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="11">
-        <f>AVERAGE('Bugs'[BusinessImpact])</f>
-        <v/>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[BusinessImpact])</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1681,9 +1683,10 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[BusinessImpact] &gt; 10000)</f>
-        <v/>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[BusinessImpact] &gt; 10000)</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1705,13 +1708,14 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="11">
-        <f>SWITCH(TRUE(),
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>=SWITCH(TRUE(),
         [V23_Security_Bugs] &gt; 10, "High",
         [V23_Security_Bugs] &gt; 5, "Medium",
         "Low"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1733,9 +1737,10 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Compliance")</f>
-        <v/>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Compliance")</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1757,9 +1762,10 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Data Loss")</f>
-        <v/>
+      <c r="D7" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Data Loss")</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1781,13 +1787,14 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="11">
-        <f>CALCULATE(
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         raw_data!D:D = "Critical",
         'Bugs'[BusinessImpact] &gt; 0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1809,9 +1816,10 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="11">
-        <f>[J18_Project_Cost_of_Quality]</f>
-        <v/>
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>=[J18_Project_Cost_of_Quality]</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1833,12 +1841,13 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="11">
-        <f>AVERAGEX(
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         VALUES(raw_data!D:D),
         CALCULATE(AVERAGE('Bugs'[BusinessImpact]))
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1860,9 +1869,10 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="11">
-        <f>SUM('Bugs'[BusinessImpact])</f>
-        <v/>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>=SUM('Bugs'[BusinessImpact])</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1884,12 +1894,13 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="11">
-        <f>AVERAGEX(
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         VALUES('Bugs'[ModuleName]),
         CALCULATE(SUM('Bugs'[BusinessImpact]))
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1911,12 +1922,13 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="11">
-        <f>CALCULATE(
+      <c r="D13" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
         raw_data!D:D IN {"Critical", "High"}
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1938,12 +1950,13 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="11">
-        <f>CALCULATE(
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
         'Bugs'[Tags] CONTAINS "Production"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1965,12 +1978,13 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="11">
-        <f>CALCULATE(
+      <c r="D15" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
         raw_data!I:I = TRUE
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1992,11 +2006,12 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="11">
-        <f>([B15_Total_Business_Impact] * 0.4) +
+      <c r="D16" s="11" t="inlineStr">
+        <is>
+          <t>=([B15_Total_Business_Impact] * 0.4) +
     ([B19_Escaped_Bug_Impact] * 0.35) +
-    ([B17_High_Severity_Impact] * 0.25)</f>
-        <v/>
+    ([B17_High_Severity_Impact] * 0.25)</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2018,9 +2033,10 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="11">
-        <f>AVERAGE('Bugs'[TotalEffortHrs]) * 100</f>
-        <v/>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[TotalEffortHrs]) * 100</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2042,12 +2058,13 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="11">
-        <f>CALCULATE(
+      <c r="D18" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
         'Bugs'[Category] = "Security"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2069,12 +2086,13 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="11">
-        <f>CALCULATE(
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
         'Bugs'[Category] = "Performance"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2096,12 +2114,13 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="11">
-        <f>CALCULATE(
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[TotalEffortHrs]),
         'Bugs'[Category] = "Compliance"
-    ) * 100</f>
-        <v/>
+    ) * 100</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2123,12 +2142,13 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="11">
-        <f>CALCULATE(
+      <c r="D21" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
         ALLEXCEPT('Bugs', raw_data!E:E)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2150,9 +2170,10 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="11">
-        <f>[V22_Customer_Reported_Bugs]</f>
-        <v/>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>=[V22_Customer_Reported_Bugs]</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2174,9 +2195,10 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="11">
-        <f>DIVIDE([C01_Customer_Reported_Bugs], [V01_Total_Bugs], 0)</f>
-        <v/>
+      <c r="D23" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE([C01_Customer_Reported_Bugs], [V01_Total_Bugs], 0)</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2198,12 +2220,13 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="11">
-        <f>AVERAGEX(
+      <c r="D24" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE),
         'Bugs'[ResponseTimeHrs]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2225,12 +2248,13 @@
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="11">
-        <f>AVERAGEX(
+      <c r="D25" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE),
         'Bugs'[LeadTimeHrs]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2252,13 +2276,14 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="11">
-        <f>CALCULATE(
+      <c r="D26" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         raw_data!I:I = TRUE,
         raw_data!D:D = "Critical"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2280,13 +2305,14 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" s="11">
-        <f>CALCULATE(
+      <c r="D27" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         raw_data!I:I = TRUE,
         raw_data!D:D = "High"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2308,9 +2334,10 @@
       <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="11">
-        <f>1 - ([C02_Customer_Bug_Rate] * 0.4 + [Q01_Escape_Rate] * 0.6)</f>
-        <v/>
+      <c r="D28" s="11" t="inlineStr">
+        <is>
+          <t>=1 - ([C02_Customer_Bug_Rate] * 0.4 + [Q01_Escape_Rate] * 0.6)</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2332,11 +2359,12 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="11">
-        <f>([C05_Customer_Critical_Bugs] * 10) +
+      <c r="D29" s="11" t="inlineStr">
+        <is>
+          <t>=([C05_Customer_Critical_Bugs] * 10) +
     ([C06_Customer_High_Bugs] * 5) +
-    ([C01_Customer_Reported_Bugs] * 1)</f>
-        <v/>
+    ([C01_Customer_Reported_Bugs] * 1)</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2358,9 +2386,10 @@
       <c r="C30" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="11">
-        <f>Complex formula (see DAX reference)</f>
-        <v/>
+      <c r="D30" s="11" t="inlineStr">
+        <is>
+          <t>=Complex formula (see DAX reference)</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2382,13 +2411,14 @@
       <c r="C31" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="11">
-        <f>DIVIDE(
+      <c r="D31" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!AM:AM &gt; 0, raw_data!I:I = TRUE),
         [C01_Customer_Reported_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2410,12 +2440,13 @@
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="11">
-        <f>AVERAGEX(
+      <c r="D32" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE),
         'Bugs'[TotalEffortHrs]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2437,13 +2468,14 @@
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33" s="11">
-        <f>DIVIDE(
+      <c r="D33" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!E:E = "P0", raw_data!I:I = TRUE),
         [C01_Customer_Reported_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2465,11 +2497,12 @@
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="11">
-        <f>([C07_Customer_Satisfaction_Index] * 0.4) +
+      <c r="D34" s="11" t="inlineStr">
+        <is>
+          <t>=([C07_Customer_Satisfaction_Index] * 0.4) +
     ((1 - [C10_Customer_Reopen_Rate]) * 0.3) +
-    ([C09_SLA_Compliance_Rate] * 0.3)</f>
-        <v/>
+    ([C09_SLA_Compliance_Rate] * 0.3)</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2491,13 +2524,14 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" s="11">
-        <f>DIVIDE(
+      <c r="D35" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}, raw_data!I:I = TRUE),
         [C01_Customer_Reported_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2519,13 +2553,14 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" s="11">
-        <f>CALCULATE(
+      <c r="D36" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         raw_data!F:F NOT IN {"Resolved", "Done", "Closed"},
         raw_data!I:I = TRUE
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2547,12 +2582,13 @@
       <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="D37" s="11">
-        <f>AVERAGEX(
+      <c r="D37" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE),
         'Bugs'[WaitTimeHrs]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2574,9 +2610,10 @@
       <c r="C38" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="11">
-        <f>Complex formula (see DAX reference)</f>
-        <v/>
+      <c r="D38" s="11" t="inlineStr">
+        <is>
+          <t>=Complex formula (see DAX reference)</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2598,12 +2635,13 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" s="11">
-        <f>AVERAGEX(
+      <c r="D39" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE &amp;&amp; raw_data!E:E = "P0"),
         'Bugs'[ResponseTimeHrs]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2625,9 +2663,10 @@
       <c r="C40" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="11">
-        <f>COUNTIF(raw_data!BR:BR,"By Design")</f>
-        <v/>
+      <c r="D40" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"By Design")</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2649,9 +2688,10 @@
       <c r="C41" t="n">
         <v>4</v>
       </c>
-      <c r="D41" s="11">
-        <f>COUNTIF(raw_data!BR:BR,"Cannot Reproduce")</f>
-        <v/>
+      <c r="D41" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Cannot Reproduce")</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2673,9 +2713,10 @@
       <c r="C42" t="n">
         <v>21</v>
       </c>
-      <c r="D42" s="11">
-        <f>COUNTIF(raw_data!BR:BR,"Completed")</f>
-        <v/>
+      <c r="D42" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Completed")</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2697,9 +2738,10 @@
       <c r="C43" t="n">
         <v>4</v>
       </c>
-      <c r="D43" s="11">
-        <f>COUNTIF(raw_data!BR:BR,"Duplicate")</f>
-        <v/>
+      <c r="D43" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Duplicate")</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2721,9 +2763,10 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="11">
-        <f>COUNTIF(raw_data!BR:BR,"Invalid")</f>
-        <v/>
+      <c r="D44" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Invalid")</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2745,9 +2788,10 @@
       <c r="C45" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="11">
-        <f>COUNTIF(raw_data!BR:BR,"Obsolete")</f>
-        <v/>
+      <c r="D45" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Obsolete")</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2769,9 +2813,10 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="11">
-        <f>COUNTIF(raw_data!BR:BR,"Won't Fix")</f>
-        <v/>
+      <c r="D46" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Won't Fix")</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2793,13 +2838,14 @@
       <c r="C47" t="n">
         <v>0</v>
       </c>
-      <c r="D47" s="11">
-        <f>DIVIDE(
+      <c r="D47" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         COUNTA(raw_data!A:A)-1,
         CALCULATE(COUNTA(raw_data!A:A)-1, ALL('Bugs'[CloseReason])),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2821,9 +2867,10 @@
       <c r="C48" t="n">
         <v>12.90322580645161</v>
       </c>
-      <c r="D48" s="11">
-        <f>CR02_Cannot_Reproduce_Count/V09_Closed_Bugs*100</f>
-        <v/>
+      <c r="D48" s="11" t="inlineStr">
+        <is>
+          <t>=CR02_Cannot_Reproduce_Count/V09_Closed_Bugs*100</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2845,9 +2892,10 @@
       <c r="C49" t="n">
         <v>12.90322580645161</v>
       </c>
-      <c r="D49" s="11">
-        <f>CR04_Duplicate_Count/V09_Closed_Bugs*100</f>
-        <v/>
+      <c r="D49" s="11" t="inlineStr">
+        <is>
+          <t>=CR04_Duplicate_Count/V09_Closed_Bugs*100</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2869,13 +2917,14 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="11">
-        <f>DIVIDE(
+      <c r="D50" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [CR05_Invalid_Count],
         [V09_Closed_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2897,9 +2946,10 @@
       <c r="C51" t="n">
         <v>67.74193548387096</v>
       </c>
-      <c r="D51" s="11">
-        <f>CR03_Completed_Count/V09_Closed_Bugs*100</f>
-        <v/>
+      <c r="D51" s="11" t="inlineStr">
+        <is>
+          <t>=CR03_Completed_Count/V09_Closed_Bugs*100</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2921,13 +2971,14 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" s="11">
-        <f>DIVIDE(
+      <c r="D52" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [CR01_By_Design_Count],
         [V09_Closed_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2949,13 +3000,14 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" s="11">
-        <f>DIVIDE(
+      <c r="D53" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [CR07_Wont_Fix_Count],
         [V09_Closed_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2977,13 +3029,14 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" s="11">
-        <f>DIVIDE(
+      <c r="D54" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [CR03_Completed_Count],
         [V09_Closed_Bugs] - [CR04_Duplicate_Count] - [CR05_Invalid_Count],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3005,9 +3058,10 @@
       <c r="C55" t="n">
         <v>4680.708123076106</v>
       </c>
-      <c r="D55" s="11">
-        <f>SUM(raw_data!BA:BA)</f>
-        <v/>
+      <c r="D55" s="11" t="inlineStr">
+        <is>
+          <t>=SUM(raw_data!BA:BA)</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3029,9 +3083,10 @@
       <c r="C56" t="n">
         <v>46.80708123076106</v>
       </c>
-      <c r="D56" s="11">
-        <f>AVERAGE(raw_data!BA:BA)</f>
-        <v/>
+      <c r="D56" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BA:BA)</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3053,9 +3108,10 @@
       <c r="C57" t="n">
         <v>46.55906400149468</v>
       </c>
-      <c r="D57" s="11">
-        <f>MEDIAN(raw_data!BA:BA)</f>
-        <v/>
+      <c r="D57" s="11" t="inlineStr">
+        <is>
+          <t>=MEDIAN(raw_data!BA:BA)</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3077,9 +3133,10 @@
       <c r="C58" t="n">
         <v>2063.355320835314</v>
       </c>
-      <c r="D58" s="11">
-        <f>SUM(raw_data!AX:AX)</f>
-        <v/>
+      <c r="D58" s="11" t="inlineStr">
+        <is>
+          <t>=SUM(raw_data!AX:AX)</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3101,9 +3158,10 @@
       <c r="C59" t="n">
         <v>943.477047758079</v>
       </c>
-      <c r="D59" s="11">
-        <f>SUM(raw_data!AZ:AZ)</f>
-        <v/>
+      <c r="D59" s="11" t="inlineStr">
+        <is>
+          <t>=SUM(raw_data!AZ:AZ)</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3125,9 +3183,10 @@
       <c r="C60" t="n">
         <v>424.2621741689522</v>
       </c>
-      <c r="D60" s="11">
-        <f>SUM(raw_data!AW:AW)</f>
-        <v/>
+      <c r="D60" s="11" t="inlineStr">
+        <is>
+          <t>=SUM(raw_data!AW:AW)</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3149,9 +3208,10 @@
       <c r="C61" t="n">
         <v>1045.48169488181</v>
       </c>
-      <c r="D61" s="11">
-        <f>SUM(raw_data!AY:AY)</f>
-        <v/>
+      <c r="D61" s="11" t="inlineStr">
+        <is>
+          <t>=SUM(raw_data!AY:AY)</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3173,9 +3233,10 @@
       <c r="C62" t="n">
         <v>0</v>
       </c>
-      <c r="D62" s="11">
-        <f>SUM('Bugs'[ReopenEffortHrs])</f>
-        <v/>
+      <c r="D62" s="11" t="inlineStr">
+        <is>
+          <t>=SUM('Bugs'[ReopenEffortHrs])</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3197,9 +3258,10 @@
       <c r="C63" t="n">
         <v>20.63355320835315</v>
       </c>
-      <c r="D63" s="11">
-        <f>AVERAGE(raw_data!AX:AX)</f>
-        <v/>
+      <c r="D63" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AX:AX)</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3221,9 +3283,10 @@
       <c r="C64" t="n">
         <v>9.434770477580791</v>
       </c>
-      <c r="D64" s="11">
-        <f>AVERAGE(raw_data!AZ:AZ)</f>
-        <v/>
+      <c r="D64" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AZ:AZ)</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3245,9 +3308,10 @@
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" s="11">
-        <f>AVERAGE('Bugs'[AnalysisEffortHrs])</f>
-        <v/>
+      <c r="D65" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[AnalysisEffortHrs])</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3269,9 +3333,10 @@
       <c r="C66" t="n">
         <v>0</v>
       </c>
-      <c r="D66" s="11">
-        <f>AVERAGE('Bugs'[FixEffortHrs])</f>
-        <v/>
+      <c r="D66" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[FixEffortHrs])</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3293,9 +3358,10 @@
       <c r="C67" t="n">
         <v>44.08211891407793</v>
       </c>
-      <c r="D67" s="11">
-        <f>E04_Total_Dev_Effort/E01_Total_Effort*100</f>
-        <v/>
+      <c r="D67" s="11" t="inlineStr">
+        <is>
+          <t>=E04_Total_Dev_Effort/E01_Total_Effort*100</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3317,9 +3383,10 @@
       <c r="C68" t="n">
         <v>20.15671609829064</v>
       </c>
-      <c r="D68" s="11">
-        <f>E05_Total_Test_Effort/E01_Total_Effort*100</f>
-        <v/>
+      <c r="D68" s="11" t="inlineStr">
+        <is>
+          <t>=E05_Total_Test_Effort/E01_Total_Effort*100</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3341,9 +3408,10 @@
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" s="11">
-        <f>DIVIDE([E06_Total_Analysis_Effort], [E01_Total_Effort], 0)</f>
-        <v/>
+      <c r="D69" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE([E06_Total_Analysis_Effort], [E01_Total_Effort], 0)</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3365,9 +3433,10 @@
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70" s="11">
-        <f>DIVIDE([E07_Total_Fix_Effort], [E01_Total_Effort], 0)</f>
-        <v/>
+      <c r="D70" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE([E07_Total_Fix_Effort], [E01_Total_Effort], 0)</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3389,9 +3458,10 @@
       <c r="C71" t="n">
         <v>0</v>
       </c>
-      <c r="D71" s="11">
-        <f>DIVIDE([E08_Total_Reopen_Effort], [E01_Total_Effort], 0)</f>
-        <v/>
+      <c r="D71" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE([E08_Total_Reopen_Effort], [E01_Total_Effort], 0)</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3413,12 +3483,13 @@
       <c r="C72" t="n">
         <v>0</v>
       </c>
-      <c r="D72" s="11">
-        <f>CALCULATE(
+      <c r="D72" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[TotalEffortHrs]),
         raw_data!D:D = "Critical"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3440,12 +3511,13 @@
       <c r="C73" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="11">
-        <f>CALCULATE(
+      <c r="D73" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[TotalEffortHrs]),
         raw_data!D:D = "High"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3467,12 +3539,13 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
-      <c r="D74" s="11">
-        <f>CALCULATE(
+      <c r="D74" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[TotalEffortHrs]),
         raw_data!I:I = TRUE
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3494,12 +3567,13 @@
       <c r="C75" t="n">
         <v>0</v>
       </c>
-      <c r="D75" s="11">
-        <f>AVERAGEX(
+      <c r="D75" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         'Bugs',
         'Bugs'[TotalEffortHrs] - 'Bugs'[EstimatedEffortHrs]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3521,13 +3595,14 @@
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76" s="11">
-        <f>DIVIDE(
+      <c r="D76" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [E21_Effort_Variance],
         AVERAGE('Bugs'[EstimatedEffortHrs]),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3549,9 +3624,10 @@
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77" s="11">
-        <f>1 - ABS([E22_Effort_Variance_Pct])</f>
-        <v/>
+      <c r="D77" s="11" t="inlineStr">
+        <is>
+          <t>=1 - ABS([E22_Effort_Variance_Pct])</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3573,13 +3649,14 @@
       <c r="C78" t="n">
         <v>0</v>
       </c>
-      <c r="D78" s="11">
-        <f>DIVIDE(
+      <c r="D78" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [E18_Critical_Bugs_Effort],
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!D:D = "Critical"),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3601,13 +3678,14 @@
       <c r="C79" t="n">
         <v>0</v>
       </c>
-      <c r="D79" s="11">
-        <f>DIVIDE(
+      <c r="D79" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [E19_High_Bugs_Effort],
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!D:D = "High"),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3629,9 +3707,10 @@
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" s="11">
-        <f>[E08_Total_Reopen_Effort]</f>
-        <v/>
+      <c r="D80" s="11" t="inlineStr">
+        <is>
+          <t>=[E08_Total_Reopen_Effort]</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3653,9 +3732,10 @@
       <c r="C81" t="n">
         <v>100</v>
       </c>
-      <c r="D81" s="11">
-        <f>V01_Total_Bugs</f>
-        <v/>
+      <c r="D81" s="11" t="inlineStr">
+        <is>
+          <t>=V01_Total_Bugs</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3677,9 +3757,10 @@
       <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D82" s="11">
-        <f>[Q14_Bug_Density]</f>
-        <v/>
+      <c r="D82" s="11" t="inlineStr">
+        <is>
+          <t>=[Q14_Bug_Density]</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3701,9 +3782,10 @@
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83" s="11">
-        <f>[J02_Project_Bug_Density]</f>
-        <v/>
+      <c r="D83" s="11" t="inlineStr">
+        <is>
+          <t>=[J02_Project_Bug_Density]</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3725,9 +3807,10 @@
       <c r="C84" t="n">
         <v>0</v>
       </c>
-      <c r="D84" s="11">
-        <f>[Q15_Critical_Bug_Density]</f>
-        <v/>
+      <c r="D84" s="11" t="inlineStr">
+        <is>
+          <t>=[Q15_Critical_Bug_Density]</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3749,9 +3832,10 @@
       <c r="C85" t="n">
         <v>0</v>
       </c>
-      <c r="D85" s="11">
-        <f>Q01_Escape_Rate</f>
-        <v/>
+      <c r="D85" s="11" t="inlineStr">
+        <is>
+          <t>=Q01_Escape_Rate</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3773,9 +3857,10 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" s="11">
-        <f>[Q03_Reopen_Rate]</f>
-        <v/>
+      <c r="D86" s="11" t="inlineStr">
+        <is>
+          <t>=[Q03_Reopen_Rate]</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3797,9 +3882,10 @@
       <c r="C87" t="n">
         <v>0</v>
       </c>
-      <c r="D87" s="11">
-        <f>Q13_Quality_Index</f>
-        <v/>
+      <c r="D87" s="11" t="inlineStr">
+        <is>
+          <t>=Q13_Quality_Index</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3821,9 +3907,10 @@
       <c r="C88" t="n">
         <v>209.4193548387097</v>
       </c>
-      <c r="D88" s="11">
-        <f>T01_Avg_Lead_Time</f>
-        <v/>
+      <c r="D88" s="11" t="inlineStr">
+        <is>
+          <t>=T01_Avg_Lead_Time</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3845,9 +3932,10 @@
       <c r="C89" t="n">
         <v>0</v>
       </c>
-      <c r="D89" s="11">
-        <f>[T03_Avg_Cycle_Time]</f>
-        <v/>
+      <c r="D89" s="11" t="inlineStr">
+        <is>
+          <t>=[T03_Avg_Cycle_Time]</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3869,9 +3957,10 @@
       <c r="C90" t="n">
         <v>0</v>
       </c>
-      <c r="D90" s="11">
-        <f>[E01_Total_Effort]</f>
-        <v/>
+      <c r="D90" s="11" t="inlineStr">
+        <is>
+          <t>=[E01_Total_Effort]</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3893,12 +3982,13 @@
       <c r="C91" t="n">
         <v>0</v>
       </c>
-      <c r="D91" s="11">
-        <f>AVERAGEX(
+      <c r="D91" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         'Bugs',
         DATEDIFF('Bugs'[DueDate], 'Bugs'[ClosedDate], DAY)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3920,9 +4010,10 @@
       <c r="C92" t="n">
         <v>0</v>
       </c>
-      <c r="D92" s="11">
-        <f>[E21_Effort_Variance]</f>
-        <v/>
+      <c r="D92" s="11" t="inlineStr">
+        <is>
+          <t>=[E21_Effort_Variance]</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3944,9 +4035,10 @@
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93" s="11">
-        <f>Complex formula (see DAX reference)</f>
-        <v/>
+      <c r="D93" s="11" t="inlineStr">
+        <is>
+          <t>=Complex formula (see DAX reference)</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3968,9 +4060,10 @@
       <c r="C94" t="n">
         <v>0</v>
       </c>
-      <c r="D94" s="11">
-        <f>[V12_Escaped_Bugs]</f>
-        <v/>
+      <c r="D94" s="11" t="inlineStr">
+        <is>
+          <t>=[V12_Escaped_Bugs]</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3992,9 +4085,10 @@
       <c r="C95" t="n">
         <v>0</v>
       </c>
-      <c r="D95" s="11">
-        <f>[V13_Regression_Bugs]</f>
-        <v/>
+      <c r="D95" s="11" t="inlineStr">
+        <is>
+          <t>=[V13_Regression_Bugs]</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4016,11 +4110,12 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96" s="11">
-        <f>([J07_Project_Quality_Index] * 0.4) +
+      <c r="D96" s="11" t="inlineStr">
+        <is>
+          <t>=([J07_Project_Quality_Index] * 0.4) +
     ([J13_Project_On_Time_Delivery_Rate] * 0.3) +
-    ((1 - [J05_Project_Escape_Rate]) * 0.3)</f>
-        <v/>
+    ((1 - [J05_Project_Escape_Rate]) * 0.3)</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4042,13 +4137,14 @@
       <c r="C97" t="n">
         <v>0</v>
       </c>
-      <c r="D97" s="11">
-        <f>DIVIDE(
+      <c r="D97" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [S02_Sprint_Completed_Bugs],
         [J10_Project_Total_Effort],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4070,9 +4166,10 @@
       <c r="C98" t="n">
         <v>0</v>
       </c>
-      <c r="D98" s="11">
-        <f>[E08_Total_Reopen_Effort] + [E20_Escaped_Bugs_Effort]</f>
-        <v/>
+      <c r="D98" s="11" t="inlineStr">
+        <is>
+          <t>=[E08_Total_Reopen_Effort] + [E20_Escaped_Bugs_Effort]</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4094,9 +4191,10 @@
       <c r="C99" t="n">
         <v>0</v>
       </c>
-      <c r="D99" s="11">
-        <f>DIVIDE([E08_Total_Reopen_Effort], [E01_Total_Effort], 0)</f>
-        <v/>
+      <c r="D99" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE([E08_Total_Reopen_Effort], [E01_Total_Effort], 0)</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4118,9 +4216,10 @@
       <c r="C100" t="n">
         <v>0</v>
       </c>
-      <c r="D100" s="11">
-        <f>1 - [J19_Project_Rework_Rate]</f>
-        <v/>
+      <c r="D100" s="11" t="inlineStr">
+        <is>
+          <t>=1 - [J19_Project_Rework_Rate]</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4142,9 +4241,10 @@
       <c r="C101" t="n">
         <v>12.5</v>
       </c>
-      <c r="D101" s="11">
-        <f>V01_Total_Bugs/COUNTA(UNIQUE(raw_data!W:W))</f>
-        <v/>
+      <c r="D101" s="11" t="inlineStr">
+        <is>
+          <t>=V01_Total_Bugs/COUNTA(UNIQUE(raw_data!W:W))</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4166,13 +4266,14 @@
       <c r="C102" t="n">
         <v>0</v>
       </c>
-      <c r="D102" s="11">
-        <f>DIVIDE(
+      <c r="D102" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}),
         DISTINCTCOUNT('Bugs'[AssigneeName]),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4194,13 +4295,14 @@
       <c r="C103" t="n">
         <v>0</v>
       </c>
-      <c r="D103" s="11">
-        <f>DIVIDE(
+      <c r="D103" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!AM:AM &gt; 0),
         COUNTA(raw_data!A:A)-1,
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4222,9 +4324,10 @@
       <c r="C104" t="n">
         <v>0</v>
       </c>
-      <c r="D104" s="11">
-        <f>AVERAGE('Bugs'[FixEffortHrs])</f>
-        <v/>
+      <c r="D104" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[FixEffortHrs])</t>
+        </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4246,9 +4349,10 @@
       <c r="C105" t="n">
         <v>0</v>
       </c>
-      <c r="D105" s="11">
-        <f>SUM('Bugs'[TotalEffortHrs])</f>
-        <v/>
+      <c r="D105" s="11" t="inlineStr">
+        <is>
+          <t>=SUM('Bugs'[TotalEffortHrs])</t>
+        </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4270,13 +4374,14 @@
       <c r="C106" t="n">
         <v>0</v>
       </c>
-      <c r="D106" s="11">
-        <f>DIVIDE(
+      <c r="D106" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}),
         [P05_Developer_Workload_Hours],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4298,11 +4403,12 @@
       <c r="C107" t="n">
         <v>0</v>
       </c>
-      <c r="D107" s="11">
-        <f>([P06_Developer_Efficiency] * 0.4) +
+      <c r="D107" s="11" t="inlineStr">
+        <is>
+          <t>=([P06_Developer_Efficiency] * 0.4) +
     ((1 - [P03_Reopen_Rate_by_Developer]) * 0.3) +
-    ([P02_Avg_Resolution_Rate] * 0.3)</f>
-        <v/>
+    ([P02_Avg_Resolution_Rate] * 0.3)</t>
+        </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4324,13 +4430,14 @@
       <c r="C108" t="n">
         <v>0</v>
       </c>
-      <c r="D108" s="11">
-        <f>DIVIDE(
+      <c r="D108" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsDuplicate] = FALSE &amp;&amp; 'Bugs'[CloseReason] != "Invalid"),
         COUNTA(raw_data!A:A)-1,
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4352,13 +4459,14 @@
       <c r="C109" t="n">
         <v>0</v>
       </c>
-      <c r="D109" s="11">
-        <f>DIVIDE(
+      <c r="D109" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RetestFailCount] &gt; 0),
         CALCULATE(COUNTA(raw_data!A:A)-1, NOT(ISBLANK('Bugs'[VerifierName]))),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4380,9 +4488,10 @@
       <c r="C110" t="n">
         <v>25</v>
       </c>
-      <c r="D110" s="11">
-        <f>V01_Total_Bugs/COUNTA(UNIQUE(raw_data!L:L))</f>
-        <v/>
+      <c r="D110" s="11" t="inlineStr">
+        <is>
+          <t>=V01_Total_Bugs/COUNTA(UNIQUE(raw_data!L:L))</t>
+        </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4404,9 +4513,10 @@
       <c r="C111" t="n">
         <v>0</v>
       </c>
-      <c r="D111" s="11">
-        <f>[T01_Avg_Lead_Time]</f>
-        <v/>
+      <c r="D111" s="11" t="inlineStr">
+        <is>
+          <t>=[T01_Avg_Lead_Time]</t>
+        </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4428,11 +4538,12 @@
       <c r="C112" t="n">
         <v>0</v>
       </c>
-      <c r="D112" s="11">
-        <f>([Q05_Fix_Success_Rate] * 0.35) +
+      <c r="D112" s="11" t="inlineStr">
+        <is>
+          <t>=([Q05_Fix_Success_Rate] * 0.35) +
     ((1 - [Q01_Escape_Rate]) * 0.35) +
-    ([Q12_Testing_Effectiveness] * 0.30)</f>
-        <v/>
+    ([Q12_Testing_Effectiveness] * 0.30)</t>
+        </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4454,9 +4565,10 @@
       <c r="C113" t="n">
         <v>17</v>
       </c>
-      <c r="D113" s="11">
-        <f>V12_Escaped_Bugs/V01_Total_Bugs*100</f>
-        <v/>
+      <c r="D113" s="11" t="inlineStr">
+        <is>
+          <t>=V12_Escaped_Bugs/V01_Total_Bugs*100</t>
+        </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4478,9 +4590,10 @@
       <c r="C114" t="n">
         <v>25</v>
       </c>
-      <c r="D114" s="11">
-        <f>V13_Regression_Bugs/V01_Total_Bugs*100</f>
-        <v/>
+      <c r="D114" s="11" t="inlineStr">
+        <is>
+          <t>=V13_Regression_Bugs/V01_Total_Bugs*100</t>
+        </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4502,9 +4615,10 @@
       <c r="C115" t="n">
         <v>77.41935483870968</v>
       </c>
-      <c r="D115" s="11">
-        <f>V10_Reopened_Bugs/V09_Closed_Bugs*100</f>
-        <v/>
+      <c r="D115" s="11" t="inlineStr">
+        <is>
+          <t>=V10_Reopened_Bugs/V09_Closed_Bugs*100</t>
+        </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4526,9 +4640,10 @@
       <c r="C116" t="n">
         <v>0</v>
       </c>
-      <c r="D116" s="11">
-        <f>DIVIDE([V11_Multi_Reopened_Bugs], [V09_Closed_Bugs], 0)</f>
-        <v/>
+      <c r="D116" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE([V11_Multi_Reopened_Bugs], [V09_Closed_Bugs], 0)</t>
+        </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4550,9 +4665,10 @@
       <c r="C117" t="n">
         <v>22.58064516129032</v>
       </c>
-      <c r="D117" s="11">
-        <f>(1-Q03_Reopen_Rate/100)*100</f>
-        <v/>
+      <c r="D117" s="11" t="inlineStr">
+        <is>
+          <t>=(1-Q03_Reopen_Rate/100)*100</t>
+        </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4574,13 +4690,14 @@
       <c r="C118" t="n">
         <v>0</v>
       </c>
-      <c r="D118" s="11">
-        <f>DIVIDE(
+      <c r="D118" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[FixAttempts] = 1),
         CALCULATE(COUNTA(raw_data!A:A)-1, NOT(ISBLANK('Bugs'[FixAttempts]))),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4602,9 +4719,10 @@
       <c r="C119" t="n">
         <v>7.000000000000001</v>
       </c>
-      <c r="D119" s="11">
-        <f>V35_Duplicate_Bugs/V01_Total_Bugs*100</f>
-        <v/>
+      <c r="D119" s="11" t="inlineStr">
+        <is>
+          <t>=V35_Duplicate_Bugs/V01_Total_Bugs*100</t>
+        </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4626,9 +4744,10 @@
       <c r="C120" t="n">
         <v>13</v>
       </c>
-      <c r="D120" s="11">
-        <f>V14_Critical_Bugs/V01_Total_Bugs*100</f>
-        <v/>
+      <c r="D120" s="11" t="inlineStr">
+        <is>
+          <t>=V14_Critical_Bugs/V01_Total_Bugs*100</t>
+        </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4650,9 +4769,10 @@
       <c r="C121" t="n">
         <v>0</v>
       </c>
-      <c r="D121" s="11">
-        <f>DIVIDE([V15_High_Severity_Bugs], [V01_Total_Bugs], 0)</f>
-        <v/>
+      <c r="D121" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE([V15_High_Severity_Bugs], [V01_Total_Bugs], 0)</t>
+        </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4674,9 +4794,10 @@
       <c r="C122" t="n">
         <v>83</v>
       </c>
-      <c r="D122" s="11">
-        <f>(V01_Total_Bugs-V12_Escaped_Bugs)/V01_Total_Bugs*100</f>
-        <v/>
+      <c r="D122" s="11" t="inlineStr">
+        <is>
+          <t>=(V01_Total_Bugs-V12_Escaped_Bugs)/V01_Total_Bugs*100</t>
+        </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4698,9 +4819,10 @@
       <c r="C123" t="n">
         <v>0</v>
       </c>
-      <c r="D123" s="11">
-        <f>[Q10_Defect_Detection_Effectiveness_DDE]</f>
-        <v/>
+      <c r="D123" s="11" t="inlineStr">
+        <is>
+          <t>=[Q10_Defect_Detection_Effectiveness_DDE]</t>
+        </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4722,13 +4844,14 @@
       <c r="C124" t="n">
         <v>0</v>
       </c>
-      <c r="D124" s="11">
-        <f>DIVIDE(
+      <c r="D124" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}),
         [V01_Total_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4750,9 +4873,10 @@
       <c r="C125" t="n">
         <v>0</v>
       </c>
-      <c r="D125" s="11">
-        <f>(Q05_Fix_Success_Rate*0.4+Q10_Defect_Detection_Effectiveness_DDE*0.3+(100-Q01_Escape_Rate)*0.3)</f>
-        <v/>
+      <c r="D125" s="11" t="inlineStr">
+        <is>
+          <t>=(Q05_Fix_Success_Rate*0.4+Q10_Defect_Detection_Effectiveness_DDE*0.3+(100-Q01_Escape_Rate)*0.3)</t>
+        </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4774,13 +4898,14 @@
       <c r="C126" t="n">
         <v>0</v>
       </c>
-      <c r="D126" s="11">
-        <f>DIVIDE(
+      <c r="D126" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [V01_Total_Bugs],
         1000,
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4802,13 +4927,14 @@
       <c r="C127" t="n">
         <v>0</v>
       </c>
-      <c r="D127" s="11">
-        <f>DIVIDE(
+      <c r="D127" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [V14_Critical_Bugs],
         1000,
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4830,9 +4956,10 @@
       <c r="C128" t="n">
         <v>0</v>
       </c>
-      <c r="D128" s="11">
-        <f>DIVIDE([V23_Security_Bugs], [V01_Total_Bugs], 0)</f>
-        <v/>
+      <c r="D128" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE([V23_Security_Bugs], [V01_Total_Bugs], 0)</t>
+        </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4854,9 +4981,10 @@
       <c r="C129" t="n">
         <v>0</v>
       </c>
-      <c r="D129" s="11">
-        <f>DIVIDE([V24_Performance_Bugs], [V01_Total_Bugs], 0)</f>
-        <v/>
+      <c r="D129" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE([V24_Performance_Bugs], [V01_Total_Bugs], 0)</t>
+        </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4878,13 +5006,14 @@
       <c r="C130" t="n">
         <v>0</v>
       </c>
-      <c r="D130" s="11">
-        <f>DIVIDE(
+      <c r="D130" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [V13_Regression_Bugs],
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4906,13 +5035,14 @@
       <c r="C131" t="n">
         <v>0</v>
       </c>
-      <c r="D131" s="11">
-        <f>DIVIDE(
+      <c r="D131" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, NOT(ISBLANK('Bugs'[RootCause]))),
         [V01_Total_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4934,13 +5064,14 @@
       <c r="C132" t="n">
         <v>0</v>
       </c>
-      <c r="D132" s="11">
-        <f>DIVIDE(
+      <c r="D132" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [V12_Escaped_Bugs],
         [V01_Total_Bugs] - [V12_Escaped_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4962,13 +5093,14 @@
       <c r="C133" t="n">
         <v>0</v>
       </c>
-      <c r="D133" s="11">
-        <f>DIVIDE(
+      <c r="D133" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, NOT(ISBLANK('Bugs'[TestCaseID]))),
         [V01_Total_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4990,9 +5122,10 @@
       <c r="C134" t="n">
         <v>0</v>
       </c>
-      <c r="D134" s="11">
-        <f>AVERAGE(raw_data!AM:AM)</f>
-        <v/>
+      <c r="D134" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AM:AM)</t>
+        </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5014,9 +5147,10 @@
       <c r="C135" t="n">
         <v>0</v>
       </c>
-      <c r="D135" s="11">
-        <f>AVERAGE('Bugs'[RiskScore])</f>
-        <v/>
+      <c r="D135" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[RiskScore])</t>
+        </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5038,9 +5172,10 @@
       <c r="C136" t="n">
         <v>0</v>
       </c>
-      <c r="D136" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &gt; 7)</f>
-        <v/>
+      <c r="D136" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &gt; 7)</t>
+        </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5062,9 +5197,10 @@
       <c r="C137" t="n">
         <v>0</v>
       </c>
-      <c r="D137" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &gt;= 4 &amp;&amp; 'Bugs'[RiskScore] &lt;= 7)</f>
-        <v/>
+      <c r="D137" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &gt;= 4 &amp;&amp; 'Bugs'[RiskScore] &lt;= 7)</t>
+        </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5086,9 +5222,10 @@
       <c r="C138" t="n">
         <v>0</v>
       </c>
-      <c r="D138" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &lt; 4)</f>
-        <v/>
+      <c r="D138" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &lt; 4)</t>
+        </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5110,13 +5247,14 @@
       <c r="C139" t="n">
         <v>0</v>
       </c>
-      <c r="D139" s="11">
-        <f>DIVIDE(
+      <c r="D139" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         COUNTA(raw_data!A:A)-1,
         CALCULATE(COUNTA(raw_data!A:A)-1, ALL('Bugs'[RiskScore])),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5138,13 +5276,14 @@
       <c r="C140" t="n">
         <v>0</v>
       </c>
-      <c r="D140" s="11">
-        <f>CALCULATE(
+      <c r="D140" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         'Bugs'[RiskScore] &gt; 8,
         raw_data!D:D = "Critical"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5166,12 +5305,13 @@
       <c r="C141" t="n">
         <v>0</v>
       </c>
-      <c r="D141" s="11">
-        <f>CALCULATE(
+      <c r="D141" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         'Bugs'[EscapeProbability] &gt; 0.7
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5193,12 +5333,13 @@
       <c r="C142" t="n">
         <v>0</v>
       </c>
-      <c r="D142" s="11">
-        <f>CALCULATE(
+      <c r="D142" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         'Bugs'[RecurrenceProbability] &gt; 0.5
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5220,12 +5361,13 @@
       <c r="C143" t="n">
         <v>0</v>
       </c>
-      <c r="D143" s="11">
-        <f>SUMX(
+      <c r="D143" s="11" t="inlineStr">
+        <is>
+          <t>=SUMX(
         FILTER('Bugs', raw_data!F:F = "Open"),
         'Bugs'[RiskScore]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5247,11 +5389,12 @@
       <c r="C144" t="n">
         <v>0</v>
       </c>
-      <c r="D144" s="11">
-        <f>VAR ActualEscapes = [V12_Escaped_Bugs]
+      <c r="D144" s="11" t="inlineStr">
+        <is>
+          <t>=VAR ActualEscapes = [V12_Escaped_Bugs]
     VAR PredictedEscapes = [R07_Predicted_Escapes]
-    RETURN DIVIDE(ABS(ActualEscapes - PredictedEscapes), ActualEscapes, 0)</f>
-        <v/>
+    RETURN DIVIDE(ABS(ActualEscapes - PredictedEscapes), ActualEscapes, 0)</t>
+        </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5273,12 +5416,13 @@
       <c r="C145" t="n">
         <v>0</v>
       </c>
-      <c r="D145" s="11">
-        <f>AVERAGEX(
+      <c r="D145" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         VALUES('Bugs'[ModuleName]),
         CALCULATE(AVERAGE('Bugs'[RiskScore]))
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5300,12 +5444,13 @@
       <c r="C146" t="n">
         <v>0</v>
       </c>
-      <c r="D146" s="11">
-        <f>AVERAGEX(
+      <c r="D146" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         VALUES('Bugs'[TeamName]),
         CALCULATE(AVERAGE('Bugs'[RiskScore]))
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5327,11 +5472,12 @@
       <c r="C147" t="n">
         <v>0</v>
       </c>
-      <c r="D147" s="11">
-        <f>VAR CurrentRisk = [R01_Overall_Risk_Score]
+      <c r="D147" s="11" t="inlineStr">
+        <is>
+          <t>=VAR CurrentRisk = [R01_Overall_Risk_Score]
     VAR PreviousRisk = CALCULATE([R01_Overall_Risk_Score], DATEADD('Date'[Date], -1, MONTH))
-    RETURN CurrentRisk - PreviousRisk</f>
-        <v/>
+    RETURN CurrentRisk - PreviousRisk</t>
+        </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5353,13 +5499,14 @@
       <c r="C148" t="n">
         <v>0</v>
       </c>
-      <c r="D148" s="11">
-        <f>CALCULATE(
+      <c r="D148" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         'Bugs'[RiskScore] &gt; 7,
         raw_data!D:D = "Critical"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5381,13 +5528,14 @@
       <c r="C149" t="n">
         <v>0</v>
       </c>
-      <c r="D149" s="11">
-        <f>DIVIDE(
+      <c r="D149" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [R16_High_Risk_Critical_Bugs],
         [V01_Total_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5409,9 +5557,10 @@
       <c r="C150" t="n">
         <v>0</v>
       </c>
-      <c r="D150" s="11">
-        <f>Complex formula (see DAX reference)</f>
-        <v/>
+      <c r="D150" s="11" t="inlineStr">
+        <is>
+          <t>=Complex formula (see DAX reference)</t>
+        </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5433,9 +5582,10 @@
       <c r="C151" t="n">
         <v>0</v>
       </c>
-      <c r="D151" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsAnomaly] = TRUE)</f>
-        <v/>
+      <c r="D151" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsAnomaly] = TRUE)</t>
+        </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5457,12 +5607,13 @@
       <c r="C152" t="n">
         <v>0</v>
       </c>
-      <c r="D152" s="11">
-        <f>([R01_Overall_Risk_Score] * 0.3) +
+      <c r="D152" s="11" t="inlineStr">
+        <is>
+          <t>=([R01_Overall_Risk_Score] * 0.3) +
     ([V14_Critical_Bugs] * 0.25) +
     ([V12_Escaped_Bugs] * 0.25) +
-    ([T18_Avg_Age_Days] * 0.20)</f>
-        <v/>
+    ([T18_Avg_Age_Days] * 0.20)</t>
+        </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5484,12 +5635,13 @@
       <c r="C153" t="n">
         <v>0</v>
       </c>
-      <c r="D153" s="11">
-        <f>AVERAGEX(
+      <c r="D153" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', 'Bugs'[RiskScore] &gt; 7),
         'Bugs'[AgeDays]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5511,11 +5663,12 @@
       <c r="C154" t="n">
         <v>0</v>
       </c>
-      <c r="D154" s="11">
-        <f>VAR CurrentVelocity = [S01_Sprint_Velocity]
+      <c r="D154" s="11" t="inlineStr">
+        <is>
+          <t>=VAR CurrentVelocity = [S01_Sprint_Velocity]
     VAR RiskFactor = [R01_Overall_Risk_Score] / 10
-    RETURN CurrentVelocity * (1 - RiskFactor)</f>
-        <v/>
+    RETURN CurrentVelocity * (1 - RiskFactor)</t>
+        </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5537,11 +5690,12 @@
       <c r="C155" t="n">
         <v>0</v>
       </c>
-      <c r="D155" s="11">
-        <f>VAR AvgBugsPerSprint = AVERAGEX(VALUES('Sprint'[SprintID]), [S09_Sprint_Inflow])
+      <c r="D155" s="11" t="inlineStr">
+        <is>
+          <t>=VAR AvgBugsPerSprint = AVERAGEX(VALUES('Sprint'[SprintID]), [S09_Sprint_Inflow])
     VAR Trend = [TR04_Bug_Trend_7Days]
-    RETURN AvgBugsPerSprint * (1 + Trend)</f>
-        <v/>
+    RETURN AvgBugsPerSprint * (1 + Trend)</t>
+        </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5563,13 +5717,14 @@
       <c r="C156" t="n">
         <v>0</v>
       </c>
-      <c r="D156" s="11">
-        <f>DIVIDE(
+      <c r="D156" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [R02_High_Risk_Bugs],
         CALCULATE([R02_High_Risk_Bugs], DATEADD('Date'[Date], -7, DAY)),
         0
-    ) - 1</f>
-        <v/>
+    ) - 1</t>
+        </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5591,12 +5746,13 @@
       <c r="C157" t="n">
         <v>0</v>
       </c>
-      <c r="D157" s="11">
-        <f>CALCULATE(
+      <c r="D157" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[RiskScore]),
         'Bugs'[IsBlocking] = TRUE
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5618,9 +5774,10 @@
       <c r="C158" t="n">
         <v>20</v>
       </c>
-      <c r="D158" s="11">
-        <f>V01_Total_Bugs/COUNTA(UNIQUE(raw_data!P:P))</f>
-        <v/>
+      <c r="D158" s="11" t="inlineStr">
+        <is>
+          <t>=V01_Total_Bugs/COUNTA(UNIQUE(raw_data!P:P))</t>
+        </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5642,9 +5799,10 @@
       <c r="C159" t="n">
         <v>51</v>
       </c>
-      <c r="D159" s="11">
-        <f>COUNTIFS(raw_data!F:F,"Done")+COUNTIFS(raw_data!F:F,"Closed")</f>
-        <v/>
+      <c r="D159" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIFS(raw_data!F:F,"Done")+COUNTIFS(raw_data!F:F,"Closed")</t>
+        </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -5666,12 +5824,13 @@
       <c r="C160" t="n">
         <v>0</v>
       </c>
-      <c r="D160" s="11">
-        <f>CALCULATE(
+      <c r="D160" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         raw_data!F:F NOT IN {"Resolved", "Done", "Closed"}
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -5693,9 +5852,10 @@
       <c r="C161" t="n">
         <v>0</v>
       </c>
-      <c r="D161" s="11">
-        <f>DIVIDE([S03_Sprint_Carryover], [S01_Sprint_Velocity], 0)</f>
-        <v/>
+      <c r="D161" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE([S03_Sprint_Carryover], [S01_Sprint_Velocity], 0)</t>
+        </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -5717,9 +5877,10 @@
       <c r="C162" t="n">
         <v>51</v>
       </c>
-      <c r="D162" s="11">
-        <f>S02_Sprint_Completed_Bugs/V01_Total_Bugs*100</f>
-        <v/>
+      <c r="D162" s="11" t="inlineStr">
+        <is>
+          <t>=S02_Sprint_Completed_Bugs/V01_Total_Bugs*100</t>
+        </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -5741,9 +5902,10 @@
       <c r="C163" t="n">
         <v>0</v>
       </c>
-      <c r="D163" s="11">
-        <f>[T03_Avg_Cycle_Time]</f>
-        <v/>
+      <c r="D163" s="11" t="inlineStr">
+        <is>
+          <t>=[T03_Avg_Cycle_Time]</t>
+        </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5765,13 +5927,14 @@
       <c r="C164" t="n">
         <v>0</v>
       </c>
-      <c r="D164" s="11">
-        <f>CALCULATE(
+      <c r="D164" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         'Bugs'[CreatedDate] &gt;= EARLIER('Sprint'[StartDate]) &amp;&amp;
         'Bugs'[CreatedDate] &lt;= EARLIER('Sprint'[EndDate])
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5793,9 +5956,10 @@
       <c r="C165" t="n">
         <v>0</v>
       </c>
-      <c r="D165" s="11">
-        <f>[S02_Sprint_Completed_Bugs]</f>
-        <v/>
+      <c r="D165" s="11" t="inlineStr">
+        <is>
+          <t>=[S02_Sprint_Completed_Bugs]</t>
+        </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -5817,9 +5981,10 @@
       <c r="C166" t="n">
         <v>0</v>
       </c>
-      <c r="D166" s="11">
-        <f>[S03_Sprint_Carryover]</f>
-        <v/>
+      <c r="D166" s="11" t="inlineStr">
+        <is>
+          <t>=[S03_Sprint_Carryover]</t>
+        </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -5841,9 +6006,10 @@
       <c r="C167" t="n">
         <v>0</v>
       </c>
-      <c r="D167" s="11">
-        <f>ABS([S09_Sprint_Inflow] - [S01_Sprint_Velocity])</f>
-        <v/>
+      <c r="D167" s="11" t="inlineStr">
+        <is>
+          <t>=ABS([S09_Sprint_Inflow] - [S01_Sprint_Velocity])</t>
+        </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -5865,13 +6031,14 @@
       <c r="C168" t="n">
         <v>0</v>
       </c>
-      <c r="D168" s="11">
-        <f>DIVIDE(
+      <c r="D168" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [S01_Sprint_Velocity] - [S12_Sprint_Scope_Change],
         [S01_Sprint_Velocity],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -5893,9 +6060,10 @@
       <c r="C169" t="n">
         <v>0</v>
       </c>
-      <c r="D169" s="11">
-        <f>[S02_Sprint_Completed_Bugs]</f>
-        <v/>
+      <c r="D169" s="11" t="inlineStr">
+        <is>
+          <t>=[S02_Sprint_Completed_Bugs]</t>
+        </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -5917,9 +6085,10 @@
       <c r="C170" t="n">
         <v>0</v>
       </c>
-      <c r="D170" s="11">
-        <f>[T01_Avg_Lead_Time]</f>
-        <v/>
+      <c r="D170" s="11" t="inlineStr">
+        <is>
+          <t>=[T01_Avg_Lead_Time]</t>
+        </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -5941,9 +6110,10 @@
       <c r="C171" t="n">
         <v>0</v>
       </c>
-      <c r="D171" s="11">
-        <f>[S05_Sprint_Completion_Rate]</f>
-        <v/>
+      <c r="D171" s="11" t="inlineStr">
+        <is>
+          <t>=[S05_Sprint_Completion_Rate]</t>
+        </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -5965,9 +6135,10 @@
       <c r="C172" t="n">
         <v>0</v>
       </c>
-      <c r="D172" s="11">
-        <f>[Q13_Quality_Index]</f>
-        <v/>
+      <c r="D172" s="11" t="inlineStr">
+        <is>
+          <t>=[Q13_Quality_Index]</t>
+        </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -5989,9 +6160,10 @@
       <c r="C173" t="n">
         <v>0</v>
       </c>
-      <c r="D173" s="11">
-        <f>[Q14_Bug_Density]</f>
-        <v/>
+      <c r="D173" s="11" t="inlineStr">
+        <is>
+          <t>=[Q14_Bug_Density]</t>
+        </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6013,9 +6185,10 @@
       <c r="C174" t="n">
         <v>12.27906976744186</v>
       </c>
-      <c r="D174" s="11">
-        <f>AVERAGE(raw_data!AQ:AQ)</f>
-        <v/>
+      <c r="D174" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AQ:AQ)</t>
+        </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6037,9 +6210,10 @@
       <c r="C175" t="n">
         <v>10</v>
       </c>
-      <c r="D175" s="11">
-        <f>MEDIAN(raw_data!AQ:AQ)</f>
-        <v/>
+      <c r="D175" s="11" t="inlineStr">
+        <is>
+          <t>=MEDIAN(raw_data!AQ:AQ)</t>
+        </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -6061,9 +6235,10 @@
       <c r="C176" t="n">
         <v>24</v>
       </c>
-      <c r="D176" s="11">
-        <f>MAX(raw_data!AQ:AQ)</f>
-        <v/>
+      <c r="D176" s="11" t="inlineStr">
+        <is>
+          <t>=MAX(raw_data!AQ:AQ)</t>
+        </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -6085,9 +6260,10 @@
       <c r="C177" t="n">
         <v>0</v>
       </c>
-      <c r="D177" s="11">
-        <f>COUNTIFS(raw_data!F:F,"Triage",raw_data!AQ:AQ,"&gt;24")</f>
-        <v/>
+      <c r="D177" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIFS(raw_data!F:F,"Triage",raw_data!AQ:AQ,"&gt;24")</t>
+        </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -6109,9 +6285,10 @@
       <c r="C178" t="n">
         <v>38.3974358974359</v>
       </c>
-      <c r="D178" s="11">
-        <f>AVERAGE(raw_data!AR:AR)</f>
-        <v/>
+      <c r="D178" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AR:AR)</t>
+        </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -6133,9 +6310,10 @@
       <c r="C179" t="n">
         <v>66.3015873015873</v>
       </c>
-      <c r="D179" s="11">
-        <f>AVERAGE(raw_data!AS:AS)</f>
-        <v/>
+      <c r="D179" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AS:AS)</t>
+        </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -6157,9 +6335,10 @@
       <c r="C180" t="n">
         <v>67</v>
       </c>
-      <c r="D180" s="11">
-        <f>MEDIAN(raw_data!AS:AS)</f>
-        <v/>
+      <c r="D180" s="11" t="inlineStr">
+        <is>
+          <t>=MEDIAN(raw_data!AS:AS)</t>
+        </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -6181,9 +6360,10 @@
       <c r="C181" t="n">
         <v>29.9</v>
       </c>
-      <c r="D181" s="11">
-        <f>AVERAGE(raw_data!AT:AT)</f>
-        <v/>
+      <c r="D181" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AT:AT)</t>
+        </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -6205,9 +6385,10 @@
       <c r="C182" t="n">
         <v>33.5</v>
       </c>
-      <c r="D182" s="11">
-        <f>MEDIAN(raw_data!AT:AT)</f>
-        <v/>
+      <c r="D182" s="11" t="inlineStr">
+        <is>
+          <t>=MEDIAN(raw_data!AT:AT)</t>
+        </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -6229,9 +6410,10 @@
       <c r="C183" t="n">
         <v>0</v>
       </c>
-      <c r="D183" s="11">
-        <f>COUNTIFS(raw_data!F:F,"Ready for Retest",raw_data!AT:AT,"&gt;48")</f>
-        <v/>
+      <c r="D183" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIFS(raw_data!F:F,"Ready for Retest",raw_data!AT:AT,"&gt;48")</t>
+        </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -6253,9 +6435,10 @@
       <c r="C184" t="n">
         <v>6.27</v>
       </c>
-      <c r="D184" s="11">
-        <f>AVERAGE(raw_data!AP:AP)</f>
-        <v/>
+      <c r="D184" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AP:AP)</t>
+        </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -6277,9 +6460,10 @@
       <c r="C185" t="n">
         <v>23</v>
       </c>
-      <c r="D185" s="11">
-        <f>COUNTIF(raw_data!AP:AP,"&gt;8")</f>
-        <v/>
+      <c r="D185" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!AP:AP,"&gt;8")</t>
+        </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -6301,9 +6485,10 @@
       <c r="C186" t="n">
         <v>26</v>
       </c>
-      <c r="D186" s="11">
-        <f>COUNTIF(raw_data!AP:AP,"&lt;=4")</f>
-        <v/>
+      <c r="D186" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!AP:AP,"&lt;=4")</t>
+        </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -6325,9 +6510,10 @@
       <c r="C187" t="n">
         <v>12.79069767441861</v>
       </c>
-      <c r="D187" s="11">
-        <f>COUNTIFS(raw_data!AQ:AQ,"&lt;=4")/COUNTA(raw_data!AQ:AQ)*100</f>
-        <v/>
+      <c r="D187" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIFS(raw_data!AQ:AQ,"&lt;=4")/COUNTA(raw_data!AQ:AQ)*100</t>
+        </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -6349,9 +6535,10 @@
       <c r="C188" t="n">
         <v>209.6774193548387</v>
       </c>
-      <c r="D188" s="11">
-        <f>COUNTIF(raw_data!BW:BW,0)/V09_Closed_Bugs*100</f>
-        <v/>
+      <c r="D188" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BW:BW,0)/V09_Closed_Bugs*100</t>
+        </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -6373,13 +6560,14 @@
       <c r="C189" t="n">
         <v>0</v>
       </c>
-      <c r="D189" s="11">
-        <f>DIVIDE(
+      <c r="D189" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [V45_Completed_Bugs],
         [V45_Completed_Bugs] + CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RetestFailCount] &gt; 0),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -6401,13 +6589,14 @@
       <c r="C190" t="n">
         <v>0</v>
       </c>
-      <c r="D190" s="11">
-        <f>DIVIDE(
+      <c r="D190" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[PreviousState] &gt; raw_data!F:F),
         COUNTA(raw_data!A:A)-1,
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -6429,12 +6618,13 @@
       <c r="C191" t="n">
         <v>0</v>
       </c>
-      <c r="D191" s="11">
-        <f>AVERAGEX(
+      <c r="D191" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[TriageDate]))),
         DATEDIFF('Bugs'[CreatedDate], 'Bugs'[TriageDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -6456,12 +6646,13 @@
       <c r="C192" t="n">
         <v>0</v>
       </c>
-      <c r="D192" s="11">
-        <f>AVERAGEX(
+      <c r="D192" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[TriageDate])) &amp;&amp; raw_data!F:F != "Triage"),
         DATEDIFF('Bugs'[TriageDate], 'Bugs'[AssignedDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -6483,12 +6674,13 @@
       <c r="C193" t="n">
         <v>0</v>
       </c>
-      <c r="D193" s="11">
-        <f>AVERAGEX(
+      <c r="D193" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[InProgressDate]))),
         DATEDIFF('Bugs'[AssignedDate], 'Bugs'[InProgressDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -6510,12 +6702,13 @@
       <c r="C194" t="n">
         <v>0</v>
       </c>
-      <c r="D194" s="11">
-        <f>AVERAGEX(
+      <c r="D194" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[ReadyForRetestDate]))),
         DATEDIFF('Bugs'[InProgressDate], 'Bugs'[ReadyForRetestDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -6537,12 +6730,13 @@
       <c r="C195" t="n">
         <v>0</v>
       </c>
-      <c r="D195" s="11">
-        <f>AVERAGEX(
+      <c r="D195" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[DoneDate]))),
         DATEDIFF('Bugs'[ReadyForRetestDate], 'Bugs'[DoneDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -6564,12 +6758,13 @@
       <c r="C196" t="n">
         <v>0</v>
       </c>
-      <c r="D196" s="11">
-        <f>AVERAGEX(
+      <c r="D196" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[ClosedDate])) &amp;&amp; NOT(ISBLANK('Bugs'[DoneDate]))),
         DATEDIFF('Bugs'[DoneDate], 'Bugs'[ClosedDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -6591,9 +6786,10 @@
       <c r="C197" t="n">
         <v>0</v>
       </c>
-      <c r="D197" s="11">
-        <f>Complex formula (see DAX reference)</f>
-        <v/>
+      <c r="D197" s="11" t="inlineStr">
+        <is>
+          <t>=Complex formula (see DAX reference)</t>
+        </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -6615,13 +6811,14 @@
       <c r="C198" t="n">
         <v>0</v>
       </c>
-      <c r="D198" s="11">
-        <f>DIVIDE(
+      <c r="D198" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [SF06_Avg_InProgress_Duration],
         [SF05_Avg_Active_Duration] + [SF06_Avg_InProgress_Duration] + [SF08_Avg_ReadyForRetest_Duration],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -6643,13 +6840,14 @@
       <c r="C199" t="n">
         <v>0</v>
       </c>
-      <c r="D199" s="11">
-        <f>DIVIDE(
+      <c r="D199" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         SUM('Bugs'[StateTransitionCount]),
         DISTINCTCOUNT('Bugs'[BugID]),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -6671,12 +6869,13 @@
       <c r="C200" t="n">
         <v>0</v>
       </c>
-      <c r="D200" s="11">
-        <f>CALCULATE(
+      <c r="D200" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         ALLEXCEPT('Bugs', raw_data!F:F)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -6698,13 +6897,14 @@
       <c r="C201" t="n">
         <v>0</v>
       </c>
-      <c r="D201" s="11">
-        <f>DIVIDE(
+      <c r="D201" s="11" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [SF27_Bugs_by_Current_State],
         [V01_Total_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -6726,13 +6926,14 @@
       <c r="C202" t="n">
         <v>0</v>
       </c>
-      <c r="D202" s="11">
-        <f>CALCULATE(
+      <c r="D202" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         raw_data!F:F = "Triage",
         raw_data!D:D = "Critical"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -6754,12 +6955,13 @@
       <c r="C203" t="n">
         <v>0</v>
       </c>
-      <c r="D203" s="11">
-        <f>AVERAGEX(
+      <c r="D203" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[InProgressDate]))),
         DATEDIFF('Bugs'[CreatedDate], 'Bugs'[InProgressDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -6781,9 +6983,10 @@
       <c r="C204" t="n">
         <v>209.4193548387097</v>
       </c>
-      <c r="D204" s="11">
-        <f>AVERAGE(raw_data!BD:BD)</f>
-        <v/>
+      <c r="D204" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BD:BD)</t>
+        </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -6805,9 +7008,10 @@
       <c r="C205" t="n">
         <v>200</v>
       </c>
-      <c r="D205" s="11">
-        <f>MEDIAN(raw_data!BD:BD)</f>
-        <v/>
+      <c r="D205" s="11" t="inlineStr">
+        <is>
+          <t>=MEDIAN(raw_data!BD:BD)</t>
+        </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -6829,9 +7033,10 @@
       <c r="C206" t="n">
         <v>134.741935483871</v>
       </c>
-      <c r="D206" s="11">
-        <f>AVERAGE(raw_data!BE:BE)</f>
-        <v/>
+      <c r="D206" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BE:BE)</t>
+        </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -6853,9 +7058,10 @@
       <c r="C207" t="n">
         <v>133</v>
       </c>
-      <c r="D207" s="11">
-        <f>MEDIAN(raw_data!BE:BE)</f>
-        <v/>
+      <c r="D207" s="11" t="inlineStr">
+        <is>
+          <t>=MEDIAN(raw_data!BE:BE)</t>
+        </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -6877,9 +7083,10 @@
       <c r="C208" t="n">
         <v>155.5</v>
       </c>
-      <c r="D208" s="11">
-        <f>PERCENTILE(raw_data!BE:BE,0.75)</f>
-        <v/>
+      <c r="D208" s="11" t="inlineStr">
+        <is>
+          <t>=PERCENTILE(raw_data!BE:BE,0.75)</t>
+        </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -6901,9 +7108,10 @@
       <c r="C209" t="n">
         <v>0</v>
       </c>
-      <c r="D209" s="11">
-        <f>PERCENTILEX.INC('Bugs', 'Bugs'[CycleTimeHrs], 0.90)</f>
-        <v/>
+      <c r="D209" s="11" t="inlineStr">
+        <is>
+          <t>=PERCENTILEX.INC('Bugs', 'Bugs'[CycleTimeHrs], 0.90)</t>
+        </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -6925,9 +7133,10 @@
       <c r="C210" t="n">
         <v>0</v>
       </c>
-      <c r="D210" s="11">
-        <f>PERCENTILEX.INC('Bugs', 'Bugs'[LeadTimeHrs], 0.95)</f>
-        <v/>
+      <c r="D210" s="11" t="inlineStr">
+        <is>
+          <t>=PERCENTILEX.INC('Bugs', 'Bugs'[LeadTimeHrs], 0.95)</t>
+        </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -6949,9 +7158,10 @@
       <c r="C211" t="n">
         <v>315</v>
       </c>
-      <c r="D211" s="11">
-        <f>MAX(raw_data!BD:BD)</f>
-        <v/>
+      <c r="D211" s="11" t="inlineStr">
+        <is>
+          <t>=MAX(raw_data!BD:BD)</t>
+        </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -6973,9 +7183,10 @@
       <c r="C212" t="n">
         <v>0</v>
       </c>
-      <c r="D212" s="11">
-        <f>MAX('Bugs'[CycleTimeHrs])</f>
-        <v/>
+      <c r="D212" s="11" t="inlineStr">
+        <is>
+          <t>=MAX('Bugs'[CycleTimeHrs])</t>
+        </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -6997,9 +7208,10 @@
       <c r="C213" t="n">
         <v>104</v>
       </c>
-      <c r="D213" s="11">
-        <f>MIN(raw_data!BD:BD)</f>
-        <v/>
+      <c r="D213" s="11" t="inlineStr">
+        <is>
+          <t>=MIN(raw_data!BD:BD)</t>
+        </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -7021,12 +7233,13 @@
       <c r="C214" t="n">
         <v>0</v>
       </c>
-      <c r="D214" s="11">
-        <f>AVERAGEX(
+      <c r="D214" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[ResolvedDate]))),
         DATEDIFF('Bugs'[CreatedDate], 'Bugs'[ResolvedDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -7048,12 +7261,13 @@
       <c r="C215" t="n">
         <v>0</v>
       </c>
-      <c r="D215" s="11">
-        <f>AVERAGEX(
+      <c r="D215" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[ClosedDate]))),
         DATEDIFF('Bugs'[CreatedDate], 'Bugs'[ClosedDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -7075,9 +7289,10 @@
       <c r="C216" t="n">
         <v>35.01162790697674</v>
       </c>
-      <c r="D216" s="11">
-        <f>AVERAGE(raw_data!BF:BF)</f>
-        <v/>
+      <c r="D216" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BF:BF)</t>
+        </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -7099,9 +7314,10 @@
       <c r="C217" t="n">
         <v>0</v>
       </c>
-      <c r="D217" s="11">
-        <f>AVERAGE('Bugs'[FixEffortHrs])</f>
-        <v/>
+      <c r="D217" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[FixEffortHrs])</t>
+        </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -7123,12 +7339,13 @@
       <c r="C218" t="n">
         <v>0</v>
       </c>
-      <c r="D218" s="11">
-        <f>AVERAGEX(
+      <c r="D218" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[VerifiedDate])) &amp;&amp; NOT(ISBLANK('Bugs'[ResolvedDate]))),
         DATEDIFF('Bugs'[ResolvedDate], 'Bugs'[VerifiedDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -7150,9 +7367,10 @@
       <c r="C219" t="n">
         <v>58.45</v>
       </c>
-      <c r="D219" s="11">
-        <f>AVERAGE(raw_data!BG:BG)</f>
-        <v/>
+      <c r="D219" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BG:BG)</t>
+        </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -7174,9 +7392,10 @@
       <c r="C220" t="n">
         <v>41.77</v>
       </c>
-      <c r="D220" s="11">
-        <f>AVERAGE(raw_data!BH:BH)</f>
-        <v/>
+      <c r="D220" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BH:BH)</t>
+        </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -7198,9 +7417,10 @@
       <c r="C221" t="n">
         <v>636.6807912721745</v>
       </c>
-      <c r="D221" s="11">
-        <f>AVERAGE(raw_data!BI:BI)</f>
-        <v/>
+      <c r="D221" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BI:BI)</t>
+        </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -7222,9 +7442,10 @@
       <c r="C222" t="n">
         <v>100</v>
       </c>
-      <c r="D222" s="11">
-        <f>COUNTIF(raw_data!BI:BI,"&gt;7")</f>
-        <v/>
+      <c r="D222" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BI:BI,"&gt;7")</t>
+        </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -7246,9 +7467,10 @@
       <c r="C223" t="n">
         <v>100</v>
       </c>
-      <c r="D223" s="11">
-        <f>COUNTIF(raw_data!BI:BI,"&gt;14")</f>
-        <v/>
+      <c r="D223" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BI:BI,"&gt;14")</t>
+        </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -7270,9 +7492,10 @@
       <c r="C224" t="n">
         <v>100</v>
       </c>
-      <c r="D224" s="11">
-        <f>COUNTIF(raw_data!BI:BI,"&gt;30")</f>
-        <v/>
+      <c r="D224" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BI:BI,"&gt;30")</t>
+        </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -7294,9 +7517,10 @@
       <c r="C225" t="n">
         <v>100</v>
       </c>
-      <c r="D225" s="11">
-        <f>COUNTIF(raw_data!BI:BI,"&gt;60")</f>
-        <v/>
+      <c r="D225" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BI:BI,"&gt;60")</t>
+        </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -7318,9 +7542,10 @@
       <c r="C226" t="n">
         <v>0</v>
       </c>
-      <c r="D226" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[AgeDays] &gt; 90)</f>
-        <v/>
+      <c r="D226" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[AgeDays] &gt; 90)</t>
+        </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -7342,12 +7567,13 @@
       <c r="C227" t="n">
         <v>0</v>
       </c>
-      <c r="D227" s="11">
-        <f>AVERAGEX(
+      <c r="D227" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!AM:AM &gt; 0),
         DATEDIFF('Bugs'[ClosedDate], 'Bugs'[FirstReopenDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -7369,12 +7595,13 @@
       <c r="C228" t="n">
         <v>0</v>
       </c>
-      <c r="D228" s="11">
-        <f>AVERAGEX(
+      <c r="D228" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!F:F = "Open"),
         DATEDIFF('Bugs'[CreatedDate], TODAY(), DAY)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -7396,9 +7623,10 @@
       <c r="C229" t="n">
         <v>19.94562538508934</v>
       </c>
-      <c r="D229" s="11">
-        <f>T17_Avg_Active_Work_Time/T01_Avg_Lead_Time*100</f>
-        <v/>
+      <c r="D229" s="11" t="inlineStr">
+        <is>
+          <t>=T17_Avg_Active_Work_Time/T01_Avg_Lead_Time*100</t>
+        </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -7420,12 +7648,13 @@
       <c r="C230" t="n">
         <v>0</v>
       </c>
-      <c r="D230" s="11">
-        <f>AVERAGEX(
+      <c r="D230" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         'Bugs',
         DATEDIFF('Bugs'[LastModifiedDate], TODAY(), DAY)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -7447,9 +7676,10 @@
       <c r="C231" t="n">
         <v>0</v>
       </c>
-      <c r="D231" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, DATEDIFF('Bugs'[LastModifiedDate], TODAY(), DAY) &gt; 30)</f>
-        <v/>
+      <c r="D231" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, DATEDIFF('Bugs'[LastModifiedDate], TODAY(), DAY) &gt; 30)</t>
+        </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -7471,9 +7701,10 @@
       <c r="C232" t="n">
         <v>0</v>
       </c>
-      <c r="D232" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, DATEDIFF('Bugs'[LastModifiedDate], TODAY(), DAY) &lt;= 7)</f>
-        <v/>
+      <c r="D232" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, DATEDIFF('Bugs'[LastModifiedDate], TODAY(), DAY) &lt;= 7)</t>
+        </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -7495,9 +7726,10 @@
       <c r="C233" t="n">
         <v>0</v>
       </c>
-      <c r="D233" s="11">
-        <f>0</f>
-        <v/>
+      <c r="D233" s="11" t="inlineStr">
+        <is>
+          <t>=0</t>
+        </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -7519,9 +7751,10 @@
       <c r="C234" t="n">
         <v>0</v>
       </c>
-      <c r="D234" s="11">
-        <f>0</f>
-        <v/>
+      <c r="D234" s="11" t="inlineStr">
+        <is>
+          <t>=0</t>
+        </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -7543,11 +7776,12 @@
       <c r="C235" t="n">
         <v>0</v>
       </c>
-      <c r="D235" s="11">
-        <f>VAR Current = [Q01_Escape_Rate]
+      <c r="D235" s="11" t="inlineStr">
+        <is>
+          <t>=VAR Current = [Q01_Escape_Rate]
     VAR Previous = CALCULATE([Q01_Escape_Rate], DATEADD('Date'[Date], -1, MONTH))
-    RETURN Current - Previous</f>
-        <v/>
+    RETURN Current - Previous</t>
+        </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -7569,9 +7803,10 @@
       <c r="C236" t="n">
         <v>0</v>
       </c>
-      <c r="D236" s="11">
-        <f>0</f>
-        <v/>
+      <c r="D236" s="11" t="inlineStr">
+        <is>
+          <t>=0</t>
+        </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -7593,14 +7828,15 @@
       <c r="C237" t="n">
         <v>0</v>
       </c>
-      <c r="D237" s="11">
-        <f>CALCULATE(
+      <c r="D237" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         AVERAGEX(
             DATESINPERIOD('Date'[Date], MAX('Date'[Date]), -7, DAY),
             [V01_Total_Bugs]
         )
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -7622,14 +7858,15 @@
       <c r="C238" t="n">
         <v>0</v>
       </c>
-      <c r="D238" s="11">
-        <f>CALCULATE(
+      <c r="D238" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         AVERAGEX(
             DATESINPERIOD('Date'[Date], MAX('Date'[Date]), -30, DAY),
             [V01_Total_Bugs]
         )
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -7651,11 +7888,12 @@
       <c r="C239" t="n">
         <v>0</v>
       </c>
-      <c r="D239" s="11">
-        <f>VAR Current = [V14_Critical_Bugs]
+      <c r="D239" s="11" t="inlineStr">
+        <is>
+          <t>=VAR Current = [V14_Critical_Bugs]
     VAR Previous = CALCULATE([V14_Critical_Bugs], DATEADD('Date'[Date], -1, MONTH))
-    RETURN DIVIDE(Current - Previous, Previous, 0)</f>
-        <v/>
+    RETURN DIVIDE(Current - Previous, Previous, 0)</t>
+        </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -7677,11 +7915,12 @@
       <c r="C240" t="n">
         <v>0</v>
       </c>
-      <c r="D240" s="11">
-        <f>VAR Current = [Q03_Reopen_Rate]
+      <c r="D240" s="11" t="inlineStr">
+        <is>
+          <t>=VAR Current = [Q03_Reopen_Rate]
     VAR Previous = CALCULATE([Q03_Reopen_Rate], DATEADD('Date'[Date], -1, MONTH))
-    RETURN Current - Previous</f>
-        <v/>
+    RETURN Current - Previous</t>
+        </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -7703,11 +7942,12 @@
       <c r="C241" t="n">
         <v>0</v>
       </c>
-      <c r="D241" s="11">
-        <f>VAR Current = [T01_Avg_Lead_Time]
+      <c r="D241" s="11" t="inlineStr">
+        <is>
+          <t>=VAR Current = [T01_Avg_Lead_Time]
     VAR Previous = CALCULATE([T01_Avg_Lead_Time], DATEADD('Date'[Date], -1, MONTH))
-    RETURN DIVIDE(Current - Previous, Previous, 0)</f>
-        <v/>
+    RETURN DIVIDE(Current - Previous, Previous, 0)</t>
+        </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -7729,11 +7969,12 @@
       <c r="C242" t="n">
         <v>0</v>
       </c>
-      <c r="D242" s="11">
-        <f>VAR Current = [S01_Sprint_Velocity]
+      <c r="D242" s="11" t="inlineStr">
+        <is>
+          <t>=VAR Current = [S01_Sprint_Velocity]
     VAR Previous = CALCULATE([S01_Sprint_Velocity], DATEADD('Date'[Date], -1, MONTH))
-    RETURN DIVIDE(Current - Previous, Previous, 0)</f>
-        <v/>
+    RETURN DIVIDE(Current - Previous, Previous, 0)</t>
+        </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -7755,11 +7996,12 @@
       <c r="C243" t="n">
         <v>0</v>
       </c>
-      <c r="D243" s="11">
-        <f>VAR Current = [E01_Total_Effort]
+      <c r="D243" s="11" t="inlineStr">
+        <is>
+          <t>=VAR Current = [E01_Total_Effort]
     VAR Previous = CALCULATE([E01_Total_Effort], DATEADD('Date'[Date], -1, MONTH))
-    RETURN DIVIDE(Current - Previous, Previous, 0)</f>
-        <v/>
+    RETURN DIVIDE(Current - Previous, Previous, 0)</t>
+        </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -7781,12 +8023,13 @@
       <c r="C244" t="n">
         <v>0</v>
       </c>
-      <c r="D244" s="11">
-        <f>AVERAGEX(
+      <c r="D244" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         VALUES('Bugs'[ModuleName]),
         CALCULATE([V01_Total_Bugs])
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -7808,12 +8051,13 @@
       <c r="C245" t="n">
         <v>0</v>
       </c>
-      <c r="D245" s="11">
-        <f>AVERAGEX(
+      <c r="D245" s="11" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         VALUES('Bugs'[TeamName]),
         CALCULATE([V01_Total_Bugs])
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -7835,9 +8079,10 @@
       <c r="C246" t="n">
         <v>0</v>
       </c>
-      <c r="D246" s="11">
-        <f>Complex formula (see DAX reference)</f>
-        <v/>
+      <c r="D246" s="11" t="inlineStr">
+        <is>
+          <t>=Complex formula (see DAX reference)</t>
+        </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -7859,11 +8104,12 @@
       <c r="C247" t="n">
         <v>0</v>
       </c>
-      <c r="D247" s="11">
-        <f>VAR CurrentQuarter = [V01_Total_Bugs]
+      <c r="D247" s="11" t="inlineStr">
+        <is>
+          <t>=VAR CurrentQuarter = [V01_Total_Bugs]
     VAR PreviousQuarter = CALCULATE([V01_Total_Bugs], DATEADD('Date'[Date], -1, QUARTER))
-    RETURN DIVIDE(CurrentQuarter - PreviousQuarter, PreviousQuarter, 0)</f>
-        <v/>
+    RETURN DIVIDE(CurrentQuarter - PreviousQuarter, PreviousQuarter, 0)</t>
+        </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -7885,9 +8131,10 @@
       <c r="C248" t="n">
         <v>100</v>
       </c>
-      <c r="D248" s="11">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D248" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -7909,9 +8156,10 @@
       <c r="C249" t="n">
         <v>40</v>
       </c>
-      <c r="D249" s="11">
-        <f>COUNTIFS(raw_data!F:F,"Open",raw_data!F:F,"Triage",raw_data!F:F,"Active",raw_data!F:F,"In Progress",raw_data!F:F,"Ready for Retest")</f>
-        <v/>
+      <c r="D249" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIFS(raw_data!F:F,"Open",raw_data!F:F,"Triage",raw_data!F:F,"Active",raw_data!F:F,"In Progress",raw_data!F:F,"Ready for Retest")</t>
+        </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -7933,9 +8181,10 @@
       <c r="C250" t="n">
         <v>7</v>
       </c>
-      <c r="D250" s="11">
-        <f>COUNTIF(raw_data!F:F,"Triage")</f>
-        <v/>
+      <c r="D250" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"Triage")</t>
+        </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -7957,9 +8206,10 @@
       <c r="C251" t="n">
         <v>8</v>
       </c>
-      <c r="D251" s="11">
-        <f>COUNTIF(raw_data!F:F,"Active")</f>
-        <v/>
+      <c r="D251" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"Active")</t>
+        </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -7981,9 +8231,10 @@
       <c r="C252" t="n">
         <v>15</v>
       </c>
-      <c r="D252" s="11">
-        <f>COUNTIF(raw_data!F:F,"In Progress")</f>
-        <v/>
+      <c r="D252" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"In Progress")</t>
+        </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -8005,9 +8256,10 @@
       <c r="C253" t="n">
         <v>3</v>
       </c>
-      <c r="D253" s="11">
-        <f>COUNTIF(raw_data!F:F,"Ready for Retest")</f>
-        <v/>
+      <c r="D253" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"Ready for Retest")</t>
+        </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -8029,9 +8281,10 @@
       <c r="C254" t="n">
         <v>9</v>
       </c>
-      <c r="D254" s="11">
-        <f>COUNTIF(raw_data!F:F,"Resolved")</f>
-        <v/>
+      <c r="D254" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"Resolved")</t>
+        </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -8053,9 +8306,10 @@
       <c r="C255" t="n">
         <v>20</v>
       </c>
-      <c r="D255" s="11">
-        <f>COUNTIF(raw_data!F:F,"Done")</f>
-        <v/>
+      <c r="D255" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"Done")</t>
+        </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -8077,9 +8331,10 @@
       <c r="C256" t="n">
         <v>31</v>
       </c>
-      <c r="D256" s="11">
-        <f>COUNTIF(raw_data!F:F,"Closed")</f>
-        <v/>
+      <c r="D256" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"Closed")</t>
+        </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -8101,9 +8356,10 @@
       <c r="C257" t="n">
         <v>24</v>
       </c>
-      <c r="D257" s="11">
-        <f>COUNTIF(raw_data!AM:AM,"&gt;0")</f>
-        <v/>
+      <c r="D257" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!AM:AM,"&gt;0")</t>
+        </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -8125,9 +8381,10 @@
       <c r="C258" t="n">
         <v>14</v>
       </c>
-      <c r="D258" s="11">
-        <f>COUNTIF(raw_data!AM:AM,"&gt;1")</f>
-        <v/>
+      <c r="D258" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!AM:AM,"&gt;1")</t>
+        </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -8149,9 +8406,10 @@
       <c r="C259" t="n">
         <v>17</v>
       </c>
-      <c r="D259" s="11">
-        <f>COUNTIF(raw_data!I:I,TRUE)</f>
-        <v/>
+      <c r="D259" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!I:I,TRUE)</t>
+        </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -8173,9 +8431,10 @@
       <c r="C260" t="n">
         <v>25</v>
       </c>
-      <c r="D260" s="11">
-        <f>COUNTIF(raw_data!H:H,TRUE)</f>
-        <v/>
+      <c r="D260" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!H:H,TRUE)</t>
+        </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -8197,9 +8456,10 @@
       <c r="C261" t="n">
         <v>13</v>
       </c>
-      <c r="D261" s="11">
-        <f>COUNTIF(raw_data!D:D,"Critical")</f>
-        <v/>
+      <c r="D261" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!D:D,"Critical")</t>
+        </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -8221,9 +8481,10 @@
       <c r="C262" t="n">
         <v>28</v>
       </c>
-      <c r="D262" s="11">
-        <f>COUNTIF(raw_data!D:D,"High")</f>
-        <v/>
+      <c r="D262" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!D:D,"High")</t>
+        </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -8245,9 +8506,10 @@
       <c r="C263" t="n">
         <v>35</v>
       </c>
-      <c r="D263" s="11">
-        <f>COUNTIF(raw_data!D:D,"Medium")</f>
-        <v/>
+      <c r="D263" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!D:D,"Medium")</t>
+        </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -8269,9 +8531,10 @@
       <c r="C264" t="n">
         <v>24</v>
       </c>
-      <c r="D264" s="11">
-        <f>COUNTIF(raw_data!D:D,"Low")</f>
-        <v/>
+      <c r="D264" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!D:D,"Low")</t>
+        </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -8293,9 +8556,10 @@
       <c r="C265" t="n">
         <v>5</v>
       </c>
-      <c r="D265" s="11">
-        <f>COUNTIF(raw_data!E:E,"P0")</f>
-        <v/>
+      <c r="D265" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!E:E,"P0")</t>
+        </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -8317,9 +8581,10 @@
       <c r="C266" t="n">
         <v>22</v>
       </c>
-      <c r="D266" s="11">
-        <f>COUNTIF(raw_data!E:E,"P1")</f>
-        <v/>
+      <c r="D266" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!E:E,"P1")</t>
+        </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -8341,9 +8606,10 @@
       <c r="C267" t="n">
         <v>43</v>
       </c>
-      <c r="D267" s="11">
-        <f>COUNTIF(raw_data!E:E,"P2")</f>
-        <v/>
+      <c r="D267" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!E:E,"P2")</t>
+        </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -8365,9 +8631,10 @@
       <c r="C268" t="n">
         <v>0</v>
       </c>
-      <c r="D268" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsBlocking] = TRUE)</f>
-        <v/>
+      <c r="D268" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsBlocking] = TRUE)</t>
+        </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -8389,9 +8656,10 @@
       <c r="C269" t="n">
         <v>17</v>
       </c>
-      <c r="D269" s="11">
-        <f>V12_Escaped_Bugs</f>
-        <v/>
+      <c r="D269" s="11" t="inlineStr">
+        <is>
+          <t>=V12_Escaped_Bugs</t>
+        </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -8413,9 +8681,10 @@
       <c r="C270" t="n">
         <v>18</v>
       </c>
-      <c r="D270" s="11">
-        <f>COUNTIF(raw_data!G:G,"Security")</f>
-        <v/>
+      <c r="D270" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!G:G,"Security")</t>
+        </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -8437,9 +8706,10 @@
       <c r="C271" t="n">
         <v>12</v>
       </c>
-      <c r="D271" s="11">
-        <f>COUNTIF(raw_data!G:G,"Performance")</f>
-        <v/>
+      <c r="D271" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!G:G,"Performance")</t>
+        </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -8461,9 +8731,10 @@
       <c r="C272" t="n">
         <v>15</v>
       </c>
-      <c r="D272" s="11">
-        <f>COUNTIF(raw_data!G:G,"UI")</f>
-        <v/>
+      <c r="D272" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!G:G,"UI")</t>
+        </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -8485,9 +8756,10 @@
       <c r="C273" t="n">
         <v>0</v>
       </c>
-      <c r="D273" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Functional")</f>
-        <v/>
+      <c r="D273" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Functional")</t>
+        </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -8509,9 +8781,10 @@
       <c r="C274" t="n">
         <v>0</v>
       </c>
-      <c r="D274" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Data")</f>
-        <v/>
+      <c r="D274" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Data")</t>
+        </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -8533,9 +8806,10 @@
       <c r="C275" t="n">
         <v>0</v>
       </c>
-      <c r="D275" s="11">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D275" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -8557,9 +8831,10 @@
       <c r="C276" t="n">
         <v>0</v>
       </c>
-      <c r="D276" s="11">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D276" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -8581,9 +8856,10 @@
       <c r="C277" t="n">
         <v>0</v>
       </c>
-      <c r="D277" s="11">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D277" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -8605,9 +8881,10 @@
       <c r="C278" t="n">
         <v>0</v>
       </c>
-      <c r="D278" s="11">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D278" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -8629,9 +8906,10 @@
       <c r="C279" t="n">
         <v>0</v>
       </c>
-      <c r="D279" s="11">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D279" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -8653,9 +8931,10 @@
       <c r="C280" t="n">
         <v>0</v>
       </c>
-      <c r="D280" s="11">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D280" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -8677,9 +8956,10 @@
       <c r="C281" t="n">
         <v>0</v>
       </c>
-      <c r="D281" s="11">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D281" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -8701,9 +8981,10 @@
       <c r="C282" t="n">
         <v>7</v>
       </c>
-      <c r="D282" s="11">
-        <f>COUNTIF(raw_data!BT:BT,TRUE)</f>
-        <v/>
+      <c r="D282" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BT:BT,TRUE)</t>
+        </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -8725,9 +9006,10 @@
       <c r="C283" t="n">
         <v>0</v>
       </c>
-      <c r="D283" s="11">
-        <f>COUNTIF(raw_data!BR:BR,"Won't Fix")</f>
-        <v/>
+      <c r="D283" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Won't Fix")</t>
+        </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -8749,9 +9031,10 @@
       <c r="C284" t="n">
         <v>4</v>
       </c>
-      <c r="D284" s="11">
-        <f>COUNTIF(raw_data!BR:BR,"Cannot Reproduce")</f>
-        <v/>
+      <c r="D284" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Cannot Reproduce")</t>
+        </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -8773,9 +9056,10 @@
       <c r="C285" t="n">
         <v>44</v>
       </c>
-      <c r="D285" s="11">
-        <f>COUNTIF(raw_data!BQ:BQ,"Fixed")</f>
-        <v/>
+      <c r="D285" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BQ:BQ,"Fixed")</t>
+        </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -8797,9 +9081,10 @@
       <c r="C286" t="n">
         <v>0</v>
       </c>
-      <c r="D286" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Tags] CONTAINS "Production")</f>
-        <v/>
+      <c r="D286" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Tags] CONTAINS "Production")</t>
+        </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -8821,9 +9106,10 @@
       <c r="C287" t="n">
         <v>0</v>
       </c>
-      <c r="D287" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Tags] CONTAINS "QA")</f>
-        <v/>
+      <c r="D287" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Tags] CONTAINS "QA")</t>
+        </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -8845,9 +9131,10 @@
       <c r="C288" t="n">
         <v>0</v>
       </c>
-      <c r="D288" s="11">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F = "Open")</f>
-        <v/>
+      <c r="D288" s="11" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F = "Open")</t>
+        </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -8869,9 +9156,10 @@
       <c r="C289" t="n">
         <v>0</v>
       </c>
-      <c r="D289" s="11">
-        <f>[V41_Backlog_Bugs]</f>
-        <v/>
+      <c r="D289" s="11" t="inlineStr">
+        <is>
+          <t>=[V41_Backlog_Bugs]</t>
+        </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -8893,9 +9181,10 @@
       <c r="C290" t="n">
         <v>0</v>
       </c>
-      <c r="D290" s="11">
-        <f>COUNTIF(raw_data!BR:BR,"Invalid")</f>
-        <v/>
+      <c r="D290" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Invalid")</t>
+        </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -8917,9 +9206,10 @@
       <c r="C291" t="n">
         <v>1</v>
       </c>
-      <c r="D291" s="11">
-        <f>COUNTIF(raw_data!BR:BR,"Obsolete")</f>
-        <v/>
+      <c r="D291" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Obsolete")</t>
+        </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -8941,9 +9231,10 @@
       <c r="C292" t="n">
         <v>21</v>
       </c>
-      <c r="D292" s="11">
-        <f>COUNTIF(raw_data!BR:BR,"Completed")</f>
-        <v/>
+      <c r="D292" s="11" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Completed")</t>
+        </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -39033,9 +39324,10 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2">
-        <f>SUM('Bugs'[BusinessImpact])</f>
-        <v/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>=SUM('Bugs'[BusinessImpact])</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -39057,9 +39349,10 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3">
-        <f>AVERAGE('Bugs'[BusinessImpact])</f>
-        <v/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[BusinessImpact])</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -39081,9 +39374,10 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[BusinessImpact] &gt; 10000)</f>
-        <v/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[BusinessImpact] &gt; 10000)</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -39105,13 +39399,14 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5">
-        <f>SWITCH(TRUE(),
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>=SWITCH(TRUE(),
         [V23_Security_Bugs] &gt; 10, "High",
         [V23_Security_Bugs] &gt; 5, "Medium",
         "Low"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -39133,9 +39428,10 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Compliance")</f>
-        <v/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Compliance")</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -39157,9 +39453,10 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Data Loss")</f>
-        <v/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Data Loss")</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -39181,13 +39478,14 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8">
-        <f>CALCULATE(
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         raw_data!D:D = "Critical",
         'Bugs'[BusinessImpact] &gt; 0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -39209,9 +39507,10 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9">
-        <f>[J18_Project_Cost_of_Quality]</f>
-        <v/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>=[J18_Project_Cost_of_Quality]</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -39233,12 +39532,13 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10">
-        <f>AVERAGEX(
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         VALUES(raw_data!D:D),
         CALCULATE(AVERAGE('Bugs'[BusinessImpact]))
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -39260,9 +39560,10 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11">
-        <f>SUM('Bugs'[BusinessImpact])</f>
-        <v/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>=SUM('Bugs'[BusinessImpact])</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -39284,12 +39585,13 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12">
-        <f>AVERAGEX(
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         VALUES('Bugs'[ModuleName]),
         CALCULATE(SUM('Bugs'[BusinessImpact]))
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -39311,12 +39613,13 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13">
-        <f>CALCULATE(
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
         raw_data!D:D IN {"Critical", "High"}
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -39338,12 +39641,13 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14">
-        <f>CALCULATE(
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
         'Bugs'[Tags] CONTAINS "Production"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -39365,12 +39669,13 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15">
-        <f>CALCULATE(
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
         raw_data!I:I = TRUE
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -39392,11 +39697,12 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16">
-        <f>([B15_Total_Business_Impact] * 0.4) +
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>=([B15_Total_Business_Impact] * 0.4) +
     ([B19_Escaped_Bug_Impact] * 0.35) +
-    ([B17_High_Severity_Impact] * 0.25)</f>
-        <v/>
+    ([B17_High_Severity_Impact] * 0.25)</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -39418,9 +39724,10 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17">
-        <f>AVERAGE('Bugs'[TotalEffortHrs]) * 100</f>
-        <v/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[TotalEffortHrs]) * 100</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -39442,12 +39749,13 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18">
-        <f>CALCULATE(
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
         'Bugs'[Category] = "Security"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -39469,12 +39777,13 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19">
-        <f>CALCULATE(
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
         'Bugs'[Category] = "Performance"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -39496,12 +39805,13 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20">
-        <f>CALCULATE(
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[TotalEffortHrs]),
         'Bugs'[Category] = "Compliance"
-    ) * 100</f>
-        <v/>
+    ) * 100</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -39523,12 +39833,13 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21">
-        <f>CALCULATE(
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
         ALLEXCEPT('Bugs', raw_data!E:E)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -39550,9 +39861,10 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22">
-        <f>[V22_Customer_Reported_Bugs]</f>
-        <v/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>=[V22_Customer_Reported_Bugs]</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -39574,9 +39886,10 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23">
-        <f>DIVIDE([C01_Customer_Reported_Bugs], [V01_Total_Bugs], 0)</f>
-        <v/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>=DIVIDE([C01_Customer_Reported_Bugs], [V01_Total_Bugs], 0)</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -39598,12 +39911,13 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24">
-        <f>AVERAGEX(
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE),
         'Bugs'[ResponseTimeHrs]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -39625,12 +39939,13 @@
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25">
-        <f>AVERAGEX(
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE),
         'Bugs'[LeadTimeHrs]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -39652,13 +39967,14 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26">
-        <f>CALCULATE(
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         raw_data!I:I = TRUE,
         raw_data!D:D = "Critical"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -39680,13 +39996,14 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27">
-        <f>CALCULATE(
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         raw_data!I:I = TRUE,
         raw_data!D:D = "High"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -39708,9 +40025,10 @@
       <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D28">
-        <f>1 - ([C02_Customer_Bug_Rate] * 0.4 + [Q01_Escape_Rate] * 0.6)</f>
-        <v/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>=1 - ([C02_Customer_Bug_Rate] * 0.4 + [Q01_Escape_Rate] * 0.6)</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -39732,11 +40050,12 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29">
-        <f>([C05_Customer_Critical_Bugs] * 10) +
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>=([C05_Customer_Critical_Bugs] * 10) +
     ([C06_Customer_High_Bugs] * 5) +
-    ([C01_Customer_Reported_Bugs] * 1)</f>
-        <v/>
+    ([C01_Customer_Reported_Bugs] * 1)</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -39758,9 +40077,10 @@
       <c r="C30" t="n">
         <v>0</v>
       </c>
-      <c r="D30">
-        <f>Complex formula (see DAX reference)</f>
-        <v/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>=Complex formula (see DAX reference)</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -39782,13 +40102,14 @@
       <c r="C31" t="n">
         <v>0</v>
       </c>
-      <c r="D31">
-        <f>DIVIDE(
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!AM:AM &gt; 0, raw_data!I:I = TRUE),
         [C01_Customer_Reported_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -39810,12 +40131,13 @@
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32">
-        <f>AVERAGEX(
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE),
         'Bugs'[TotalEffortHrs]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -39837,13 +40159,14 @@
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33">
-        <f>DIVIDE(
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!E:E = "P0", raw_data!I:I = TRUE),
         [C01_Customer_Reported_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -39865,11 +40188,12 @@
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34">
-        <f>([C07_Customer_Satisfaction_Index] * 0.4) +
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>=([C07_Customer_Satisfaction_Index] * 0.4) +
     ((1 - [C10_Customer_Reopen_Rate]) * 0.3) +
-    ([C09_SLA_Compliance_Rate] * 0.3)</f>
-        <v/>
+    ([C09_SLA_Compliance_Rate] * 0.3)</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -39891,13 +40215,14 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35">
-        <f>DIVIDE(
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}, raw_data!I:I = TRUE),
         [C01_Customer_Reported_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -39919,13 +40244,14 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36">
-        <f>CALCULATE(
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         raw_data!F:F NOT IN {"Resolved", "Done", "Closed"},
         raw_data!I:I = TRUE
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -39947,12 +40273,13 @@
       <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="D37">
-        <f>AVERAGEX(
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE),
         'Bugs'[WaitTimeHrs]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -39974,9 +40301,10 @@
       <c r="C38" t="n">
         <v>0</v>
       </c>
-      <c r="D38">
-        <f>Complex formula (see DAX reference)</f>
-        <v/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>=Complex formula (see DAX reference)</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -39998,12 +40326,13 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39">
-        <f>AVERAGEX(
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE &amp;&amp; raw_data!E:E = "P0"),
         'Bugs'[ResponseTimeHrs]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -40025,9 +40354,10 @@
       <c r="C40" t="n">
         <v>1</v>
       </c>
-      <c r="D40">
-        <f>COUNTIF(raw_data!BR:BR,"By Design")</f>
-        <v/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"By Design")</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -40049,9 +40379,10 @@
       <c r="C41" t="n">
         <v>4</v>
       </c>
-      <c r="D41">
-        <f>COUNTIF(raw_data!BR:BR,"Cannot Reproduce")</f>
-        <v/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Cannot Reproduce")</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -40073,9 +40404,10 @@
       <c r="C42" t="n">
         <v>21</v>
       </c>
-      <c r="D42">
-        <f>COUNTIF(raw_data!BR:BR,"Completed")</f>
-        <v/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Completed")</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -40097,9 +40429,10 @@
       <c r="C43" t="n">
         <v>4</v>
       </c>
-      <c r="D43">
-        <f>COUNTIF(raw_data!BR:BR,"Duplicate")</f>
-        <v/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Duplicate")</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -40121,9 +40454,10 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44">
-        <f>COUNTIF(raw_data!BR:BR,"Invalid")</f>
-        <v/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Invalid")</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -40145,9 +40479,10 @@
       <c r="C45" t="n">
         <v>1</v>
       </c>
-      <c r="D45">
-        <f>COUNTIF(raw_data!BR:BR,"Obsolete")</f>
-        <v/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Obsolete")</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -40169,9 +40504,10 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="D46">
-        <f>COUNTIF(raw_data!BR:BR,"Won't Fix")</f>
-        <v/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Won't Fix")</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -40193,13 +40529,14 @@
       <c r="C47" t="n">
         <v>0</v>
       </c>
-      <c r="D47">
-        <f>DIVIDE(
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         COUNTA(raw_data!A:A)-1,
         CALCULATE(COUNTA(raw_data!A:A)-1, ALL('Bugs'[CloseReason])),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -40221,9 +40558,10 @@
       <c r="C48" t="n">
         <v>12.90322580645161</v>
       </c>
-      <c r="D48">
-        <f>CR02_Cannot_Reproduce_Count/V09_Closed_Bugs*100</f>
-        <v/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>=CR02_Cannot_Reproduce_Count/V09_Closed_Bugs*100</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -40245,9 +40583,10 @@
       <c r="C49" t="n">
         <v>12.90322580645161</v>
       </c>
-      <c r="D49">
-        <f>CR04_Duplicate_Count/V09_Closed_Bugs*100</f>
-        <v/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>=CR04_Duplicate_Count/V09_Closed_Bugs*100</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -40269,13 +40608,14 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50">
-        <f>DIVIDE(
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [CR05_Invalid_Count],
         [V09_Closed_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -40297,9 +40637,10 @@
       <c r="C51" t="n">
         <v>67.74193548387096</v>
       </c>
-      <c r="D51">
-        <f>CR03_Completed_Count/V09_Closed_Bugs*100</f>
-        <v/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>=CR03_Completed_Count/V09_Closed_Bugs*100</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -40321,13 +40662,14 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52">
-        <f>DIVIDE(
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [CR01_By_Design_Count],
         [V09_Closed_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -40349,13 +40691,14 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53">
-        <f>DIVIDE(
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [CR07_Wont_Fix_Count],
         [V09_Closed_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -40377,13 +40720,14 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54">
-        <f>DIVIDE(
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [CR03_Completed_Count],
         [V09_Closed_Bugs] - [CR04_Duplicate_Count] - [CR05_Invalid_Count],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -40405,9 +40749,10 @@
       <c r="C55" t="n">
         <v>4680.708123076106</v>
       </c>
-      <c r="D55">
-        <f>SUM(raw_data!BA:BA)</f>
-        <v/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>=SUM(raw_data!BA:BA)</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -40429,9 +40774,10 @@
       <c r="C56" t="n">
         <v>46.80708123076106</v>
       </c>
-      <c r="D56">
-        <f>AVERAGE(raw_data!BA:BA)</f>
-        <v/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BA:BA)</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -40453,9 +40799,10 @@
       <c r="C57" t="n">
         <v>46.55906400149468</v>
       </c>
-      <c r="D57">
-        <f>MEDIAN(raw_data!BA:BA)</f>
-        <v/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>=MEDIAN(raw_data!BA:BA)</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -40477,9 +40824,10 @@
       <c r="C58" t="n">
         <v>2063.355320835314</v>
       </c>
-      <c r="D58">
-        <f>SUM(raw_data!AX:AX)</f>
-        <v/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>=SUM(raw_data!AX:AX)</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -40501,9 +40849,10 @@
       <c r="C59" t="n">
         <v>943.477047758079</v>
       </c>
-      <c r="D59">
-        <f>SUM(raw_data!AZ:AZ)</f>
-        <v/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>=SUM(raw_data!AZ:AZ)</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -40525,9 +40874,10 @@
       <c r="C60" t="n">
         <v>424.2621741689522</v>
       </c>
-      <c r="D60">
-        <f>SUM(raw_data!AW:AW)</f>
-        <v/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>=SUM(raw_data!AW:AW)</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -40549,9 +40899,10 @@
       <c r="C61" t="n">
         <v>1045.48169488181</v>
       </c>
-      <c r="D61">
-        <f>SUM(raw_data!AY:AY)</f>
-        <v/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>=SUM(raw_data!AY:AY)</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -40573,9 +40924,10 @@
       <c r="C62" t="n">
         <v>0</v>
       </c>
-      <c r="D62">
-        <f>SUM('Bugs'[ReopenEffortHrs])</f>
-        <v/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>=SUM('Bugs'[ReopenEffortHrs])</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -40597,9 +40949,10 @@
       <c r="C63" t="n">
         <v>20.63355320835315</v>
       </c>
-      <c r="D63">
-        <f>AVERAGE(raw_data!AX:AX)</f>
-        <v/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AX:AX)</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -40621,9 +40974,10 @@
       <c r="C64" t="n">
         <v>9.434770477580791</v>
       </c>
-      <c r="D64">
-        <f>AVERAGE(raw_data!AZ:AZ)</f>
-        <v/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AZ:AZ)</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -40645,9 +40999,10 @@
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65">
-        <f>AVERAGE('Bugs'[AnalysisEffortHrs])</f>
-        <v/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[AnalysisEffortHrs])</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -40669,9 +41024,10 @@
       <c r="C66" t="n">
         <v>0</v>
       </c>
-      <c r="D66">
-        <f>AVERAGE('Bugs'[FixEffortHrs])</f>
-        <v/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[FixEffortHrs])</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -40693,9 +41049,10 @@
       <c r="C67" t="n">
         <v>44.08211891407793</v>
       </c>
-      <c r="D67">
-        <f>E04_Total_Dev_Effort/E01_Total_Effort*100</f>
-        <v/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>=E04_Total_Dev_Effort/E01_Total_Effort*100</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -40717,9 +41074,10 @@
       <c r="C68" t="n">
         <v>20.15671609829064</v>
       </c>
-      <c r="D68">
-        <f>E05_Total_Test_Effort/E01_Total_Effort*100</f>
-        <v/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>=E05_Total_Test_Effort/E01_Total_Effort*100</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -40741,9 +41099,10 @@
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69">
-        <f>DIVIDE([E06_Total_Analysis_Effort], [E01_Total_Effort], 0)</f>
-        <v/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>=DIVIDE([E06_Total_Analysis_Effort], [E01_Total_Effort], 0)</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -40765,9 +41124,10 @@
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70">
-        <f>DIVIDE([E07_Total_Fix_Effort], [E01_Total_Effort], 0)</f>
-        <v/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>=DIVIDE([E07_Total_Fix_Effort], [E01_Total_Effort], 0)</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -40789,9 +41149,10 @@
       <c r="C71" t="n">
         <v>0</v>
       </c>
-      <c r="D71">
-        <f>DIVIDE([E08_Total_Reopen_Effort], [E01_Total_Effort], 0)</f>
-        <v/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>=DIVIDE([E08_Total_Reopen_Effort], [E01_Total_Effort], 0)</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -40813,12 +41174,13 @@
       <c r="C72" t="n">
         <v>0</v>
       </c>
-      <c r="D72">
-        <f>CALCULATE(
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[TotalEffortHrs]),
         raw_data!D:D = "Critical"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -40840,12 +41202,13 @@
       <c r="C73" t="n">
         <v>0</v>
       </c>
-      <c r="D73">
-        <f>CALCULATE(
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[TotalEffortHrs]),
         raw_data!D:D = "High"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -40867,12 +41230,13 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
-      <c r="D74">
-        <f>CALCULATE(
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[TotalEffortHrs]),
         raw_data!I:I = TRUE
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -40894,12 +41258,13 @@
       <c r="C75" t="n">
         <v>0</v>
       </c>
-      <c r="D75">
-        <f>AVERAGEX(
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         'Bugs',
         'Bugs'[TotalEffortHrs] - 'Bugs'[EstimatedEffortHrs]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -40921,13 +41286,14 @@
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76">
-        <f>DIVIDE(
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [E21_Effort_Variance],
         AVERAGE('Bugs'[EstimatedEffortHrs]),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -40949,9 +41315,10 @@
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77">
-        <f>1 - ABS([E22_Effort_Variance_Pct])</f>
-        <v/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>=1 - ABS([E22_Effort_Variance_Pct])</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -40973,13 +41340,14 @@
       <c r="C78" t="n">
         <v>0</v>
       </c>
-      <c r="D78">
-        <f>DIVIDE(
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [E18_Critical_Bugs_Effort],
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!D:D = "Critical"),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -41001,13 +41369,14 @@
       <c r="C79" t="n">
         <v>0</v>
       </c>
-      <c r="D79">
-        <f>DIVIDE(
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [E19_High_Bugs_Effort],
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!D:D = "High"),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -41029,9 +41398,10 @@
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80">
-        <f>[E08_Total_Reopen_Effort]</f>
-        <v/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>=[E08_Total_Reopen_Effort]</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -41053,9 +41423,10 @@
       <c r="C81" t="n">
         <v>100</v>
       </c>
-      <c r="D81">
-        <f>V01_Total_Bugs</f>
-        <v/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>=V01_Total_Bugs</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -41077,9 +41448,10 @@
       <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D82">
-        <f>[Q14_Bug_Density]</f>
-        <v/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>=[Q14_Bug_Density]</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -41101,9 +41473,10 @@
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83">
-        <f>[J02_Project_Bug_Density]</f>
-        <v/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>=[J02_Project_Bug_Density]</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -41125,9 +41498,10 @@
       <c r="C84" t="n">
         <v>0</v>
       </c>
-      <c r="D84">
-        <f>[Q15_Critical_Bug_Density]</f>
-        <v/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>=[Q15_Critical_Bug_Density]</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -41149,9 +41523,10 @@
       <c r="C85" t="n">
         <v>0</v>
       </c>
-      <c r="D85">
-        <f>Q01_Escape_Rate</f>
-        <v/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>=Q01_Escape_Rate</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -41173,9 +41548,10 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86">
-        <f>[Q03_Reopen_Rate]</f>
-        <v/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>=[Q03_Reopen_Rate]</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -41197,9 +41573,10 @@
       <c r="C87" t="n">
         <v>0</v>
       </c>
-      <c r="D87">
-        <f>Q13_Quality_Index</f>
-        <v/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>=Q13_Quality_Index</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -41221,9 +41598,10 @@
       <c r="C88" t="n">
         <v>209.4193548387097</v>
       </c>
-      <c r="D88">
-        <f>T01_Avg_Lead_Time</f>
-        <v/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>=T01_Avg_Lead_Time</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -41245,9 +41623,10 @@
       <c r="C89" t="n">
         <v>0</v>
       </c>
-      <c r="D89">
-        <f>[T03_Avg_Cycle_Time]</f>
-        <v/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>=[T03_Avg_Cycle_Time]</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -41269,9 +41648,10 @@
       <c r="C90" t="n">
         <v>0</v>
       </c>
-      <c r="D90">
-        <f>[E01_Total_Effort]</f>
-        <v/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>=[E01_Total_Effort]</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -41293,12 +41673,13 @@
       <c r="C91" t="n">
         <v>0</v>
       </c>
-      <c r="D91">
-        <f>AVERAGEX(
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         'Bugs',
         DATEDIFF('Bugs'[DueDate], 'Bugs'[ClosedDate], DAY)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -41320,9 +41701,10 @@
       <c r="C92" t="n">
         <v>0</v>
       </c>
-      <c r="D92">
-        <f>[E21_Effort_Variance]</f>
-        <v/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>=[E21_Effort_Variance]</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -41344,9 +41726,10 @@
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93">
-        <f>Complex formula (see DAX reference)</f>
-        <v/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>=Complex formula (see DAX reference)</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -41368,9 +41751,10 @@
       <c r="C94" t="n">
         <v>0</v>
       </c>
-      <c r="D94">
-        <f>[V12_Escaped_Bugs]</f>
-        <v/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>=[V12_Escaped_Bugs]</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -41392,9 +41776,10 @@
       <c r="C95" t="n">
         <v>0</v>
       </c>
-      <c r="D95">
-        <f>[V13_Regression_Bugs]</f>
-        <v/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>=[V13_Regression_Bugs]</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -41416,11 +41801,12 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96">
-        <f>([J07_Project_Quality_Index] * 0.4) +
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>=([J07_Project_Quality_Index] * 0.4) +
     ([J13_Project_On_Time_Delivery_Rate] * 0.3) +
-    ((1 - [J05_Project_Escape_Rate]) * 0.3)</f>
-        <v/>
+    ((1 - [J05_Project_Escape_Rate]) * 0.3)</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -41442,13 +41828,14 @@
       <c r="C97" t="n">
         <v>0</v>
       </c>
-      <c r="D97">
-        <f>DIVIDE(
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [S02_Sprint_Completed_Bugs],
         [J10_Project_Total_Effort],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -41470,9 +41857,10 @@
       <c r="C98" t="n">
         <v>0</v>
       </c>
-      <c r="D98">
-        <f>[E08_Total_Reopen_Effort] + [E20_Escaped_Bugs_Effort]</f>
-        <v/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>=[E08_Total_Reopen_Effort] + [E20_Escaped_Bugs_Effort]</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -41494,9 +41882,10 @@
       <c r="C99" t="n">
         <v>0</v>
       </c>
-      <c r="D99">
-        <f>DIVIDE([E08_Total_Reopen_Effort], [E01_Total_Effort], 0)</f>
-        <v/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>=DIVIDE([E08_Total_Reopen_Effort], [E01_Total_Effort], 0)</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -41518,9 +41907,10 @@
       <c r="C100" t="n">
         <v>0</v>
       </c>
-      <c r="D100">
-        <f>1 - [J19_Project_Rework_Rate]</f>
-        <v/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>=1 - [J19_Project_Rework_Rate]</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -41542,9 +41932,10 @@
       <c r="C101" t="n">
         <v>12.5</v>
       </c>
-      <c r="D101">
-        <f>V01_Total_Bugs/COUNTA(UNIQUE(raw_data!W:W))</f>
-        <v/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>=V01_Total_Bugs/COUNTA(UNIQUE(raw_data!W:W))</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -41566,13 +41957,14 @@
       <c r="C102" t="n">
         <v>0</v>
       </c>
-      <c r="D102">
-        <f>DIVIDE(
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}),
         DISTINCTCOUNT('Bugs'[AssigneeName]),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -41594,13 +41986,14 @@
       <c r="C103" t="n">
         <v>0</v>
       </c>
-      <c r="D103">
-        <f>DIVIDE(
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!AM:AM &gt; 0),
         COUNTA(raw_data!A:A)-1,
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -41622,9 +42015,10 @@
       <c r="C104" t="n">
         <v>0</v>
       </c>
-      <c r="D104">
-        <f>AVERAGE('Bugs'[FixEffortHrs])</f>
-        <v/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[FixEffortHrs])</t>
+        </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -41646,9 +42040,10 @@
       <c r="C105" t="n">
         <v>0</v>
       </c>
-      <c r="D105">
-        <f>SUM('Bugs'[TotalEffortHrs])</f>
-        <v/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>=SUM('Bugs'[TotalEffortHrs])</t>
+        </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -41670,13 +42065,14 @@
       <c r="C106" t="n">
         <v>0</v>
       </c>
-      <c r="D106">
-        <f>DIVIDE(
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}),
         [P05_Developer_Workload_Hours],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -41698,11 +42094,12 @@
       <c r="C107" t="n">
         <v>0</v>
       </c>
-      <c r="D107">
-        <f>([P06_Developer_Efficiency] * 0.4) +
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>=([P06_Developer_Efficiency] * 0.4) +
     ((1 - [P03_Reopen_Rate_by_Developer]) * 0.3) +
-    ([P02_Avg_Resolution_Rate] * 0.3)</f>
-        <v/>
+    ([P02_Avg_Resolution_Rate] * 0.3)</t>
+        </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -41724,13 +42121,14 @@
       <c r="C108" t="n">
         <v>0</v>
       </c>
-      <c r="D108">
-        <f>DIVIDE(
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsDuplicate] = FALSE &amp;&amp; 'Bugs'[CloseReason] != "Invalid"),
         COUNTA(raw_data!A:A)-1,
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -41752,13 +42150,14 @@
       <c r="C109" t="n">
         <v>0</v>
       </c>
-      <c r="D109">
-        <f>DIVIDE(
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RetestFailCount] &gt; 0),
         CALCULATE(COUNTA(raw_data!A:A)-1, NOT(ISBLANK('Bugs'[VerifierName]))),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -41780,9 +42179,10 @@
       <c r="C110" t="n">
         <v>25</v>
       </c>
-      <c r="D110">
-        <f>V01_Total_Bugs/COUNTA(UNIQUE(raw_data!L:L))</f>
-        <v/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>=V01_Total_Bugs/COUNTA(UNIQUE(raw_data!L:L))</t>
+        </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -41804,9 +42204,10 @@
       <c r="C111" t="n">
         <v>0</v>
       </c>
-      <c r="D111">
-        <f>[T01_Avg_Lead_Time]</f>
-        <v/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>=[T01_Avg_Lead_Time]</t>
+        </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -41828,11 +42229,12 @@
       <c r="C112" t="n">
         <v>0</v>
       </c>
-      <c r="D112">
-        <f>([Q05_Fix_Success_Rate] * 0.35) +
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>=([Q05_Fix_Success_Rate] * 0.35) +
     ((1 - [Q01_Escape_Rate]) * 0.35) +
-    ([Q12_Testing_Effectiveness] * 0.30)</f>
-        <v/>
+    ([Q12_Testing_Effectiveness] * 0.30)</t>
+        </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -41854,9 +42256,10 @@
       <c r="C113" t="n">
         <v>17</v>
       </c>
-      <c r="D113">
-        <f>V12_Escaped_Bugs/V01_Total_Bugs*100</f>
-        <v/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>=V12_Escaped_Bugs/V01_Total_Bugs*100</t>
+        </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -41878,9 +42281,10 @@
       <c r="C114" t="n">
         <v>25</v>
       </c>
-      <c r="D114">
-        <f>V13_Regression_Bugs/V01_Total_Bugs*100</f>
-        <v/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>=V13_Regression_Bugs/V01_Total_Bugs*100</t>
+        </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -41902,9 +42306,10 @@
       <c r="C115" t="n">
         <v>77.41935483870968</v>
       </c>
-      <c r="D115">
-        <f>V10_Reopened_Bugs/V09_Closed_Bugs*100</f>
-        <v/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>=V10_Reopened_Bugs/V09_Closed_Bugs*100</t>
+        </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -41926,9 +42331,10 @@
       <c r="C116" t="n">
         <v>0</v>
       </c>
-      <c r="D116">
-        <f>DIVIDE([V11_Multi_Reopened_Bugs], [V09_Closed_Bugs], 0)</f>
-        <v/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>=DIVIDE([V11_Multi_Reopened_Bugs], [V09_Closed_Bugs], 0)</t>
+        </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -41950,9 +42356,10 @@
       <c r="C117" t="n">
         <v>22.58064516129032</v>
       </c>
-      <c r="D117">
-        <f>(1-Q03_Reopen_Rate/100)*100</f>
-        <v/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>=(1-Q03_Reopen_Rate/100)*100</t>
+        </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -41974,13 +42381,14 @@
       <c r="C118" t="n">
         <v>0</v>
       </c>
-      <c r="D118">
-        <f>DIVIDE(
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[FixAttempts] = 1),
         CALCULATE(COUNTA(raw_data!A:A)-1, NOT(ISBLANK('Bugs'[FixAttempts]))),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -42002,9 +42410,10 @@
       <c r="C119" t="n">
         <v>7.000000000000001</v>
       </c>
-      <c r="D119">
-        <f>V35_Duplicate_Bugs/V01_Total_Bugs*100</f>
-        <v/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>=V35_Duplicate_Bugs/V01_Total_Bugs*100</t>
+        </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -42026,9 +42435,10 @@
       <c r="C120" t="n">
         <v>13</v>
       </c>
-      <c r="D120">
-        <f>V14_Critical_Bugs/V01_Total_Bugs*100</f>
-        <v/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>=V14_Critical_Bugs/V01_Total_Bugs*100</t>
+        </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -42050,9 +42460,10 @@
       <c r="C121" t="n">
         <v>0</v>
       </c>
-      <c r="D121">
-        <f>DIVIDE([V15_High_Severity_Bugs], [V01_Total_Bugs], 0)</f>
-        <v/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>=DIVIDE([V15_High_Severity_Bugs], [V01_Total_Bugs], 0)</t>
+        </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -42074,9 +42485,10 @@
       <c r="C122" t="n">
         <v>83</v>
       </c>
-      <c r="D122">
-        <f>(V01_Total_Bugs-V12_Escaped_Bugs)/V01_Total_Bugs*100</f>
-        <v/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>=(V01_Total_Bugs-V12_Escaped_Bugs)/V01_Total_Bugs*100</t>
+        </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -42098,9 +42510,10 @@
       <c r="C123" t="n">
         <v>0</v>
       </c>
-      <c r="D123">
-        <f>[Q10_Defect_Detection_Effectiveness_DDE]</f>
-        <v/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>=[Q10_Defect_Detection_Effectiveness_DDE]</t>
+        </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -42122,13 +42535,14 @@
       <c r="C124" t="n">
         <v>0</v>
       </c>
-      <c r="D124">
-        <f>DIVIDE(
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}),
         [V01_Total_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -42150,9 +42564,10 @@
       <c r="C125" t="n">
         <v>0</v>
       </c>
-      <c r="D125">
-        <f>(Q05_Fix_Success_Rate*0.4+Q10_Defect_Detection_Effectiveness_DDE*0.3+(100-Q01_Escape_Rate)*0.3)</f>
-        <v/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>=(Q05_Fix_Success_Rate*0.4+Q10_Defect_Detection_Effectiveness_DDE*0.3+(100-Q01_Escape_Rate)*0.3)</t>
+        </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -42174,13 +42589,14 @@
       <c r="C126" t="n">
         <v>0</v>
       </c>
-      <c r="D126">
-        <f>DIVIDE(
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [V01_Total_Bugs],
         1000,
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -42202,13 +42618,14 @@
       <c r="C127" t="n">
         <v>0</v>
       </c>
-      <c r="D127">
-        <f>DIVIDE(
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [V14_Critical_Bugs],
         1000,
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -42230,9 +42647,10 @@
       <c r="C128" t="n">
         <v>0</v>
       </c>
-      <c r="D128">
-        <f>DIVIDE([V23_Security_Bugs], [V01_Total_Bugs], 0)</f>
-        <v/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>=DIVIDE([V23_Security_Bugs], [V01_Total_Bugs], 0)</t>
+        </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -42254,9 +42672,10 @@
       <c r="C129" t="n">
         <v>0</v>
       </c>
-      <c r="D129">
-        <f>DIVIDE([V24_Performance_Bugs], [V01_Total_Bugs], 0)</f>
-        <v/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>=DIVIDE([V24_Performance_Bugs], [V01_Total_Bugs], 0)</t>
+        </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -42278,13 +42697,14 @@
       <c r="C130" t="n">
         <v>0</v>
       </c>
-      <c r="D130">
-        <f>DIVIDE(
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [V13_Regression_Bugs],
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -42306,13 +42726,14 @@
       <c r="C131" t="n">
         <v>0</v>
       </c>
-      <c r="D131">
-        <f>DIVIDE(
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, NOT(ISBLANK('Bugs'[RootCause]))),
         [V01_Total_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -42334,13 +42755,14 @@
       <c r="C132" t="n">
         <v>0</v>
       </c>
-      <c r="D132">
-        <f>DIVIDE(
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [V12_Escaped_Bugs],
         [V01_Total_Bugs] - [V12_Escaped_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -42362,13 +42784,14 @@
       <c r="C133" t="n">
         <v>0</v>
       </c>
-      <c r="D133">
-        <f>DIVIDE(
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, NOT(ISBLANK('Bugs'[TestCaseID]))),
         [V01_Total_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -42390,9 +42813,10 @@
       <c r="C134" t="n">
         <v>0</v>
       </c>
-      <c r="D134">
-        <f>AVERAGE(raw_data!AM:AM)</f>
-        <v/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AM:AM)</t>
+        </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -42414,9 +42838,10 @@
       <c r="C135" t="n">
         <v>0</v>
       </c>
-      <c r="D135">
-        <f>AVERAGE('Bugs'[RiskScore])</f>
-        <v/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[RiskScore])</t>
+        </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -42438,9 +42863,10 @@
       <c r="C136" t="n">
         <v>0</v>
       </c>
-      <c r="D136">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &gt; 7)</f>
-        <v/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &gt; 7)</t>
+        </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -42462,9 +42888,10 @@
       <c r="C137" t="n">
         <v>0</v>
       </c>
-      <c r="D137">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &gt;= 4 &amp;&amp; 'Bugs'[RiskScore] &lt;= 7)</f>
-        <v/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &gt;= 4 &amp;&amp; 'Bugs'[RiskScore] &lt;= 7)</t>
+        </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -42486,9 +42913,10 @@
       <c r="C138" t="n">
         <v>0</v>
       </c>
-      <c r="D138">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &lt; 4)</f>
-        <v/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &lt; 4)</t>
+        </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -42510,13 +42938,14 @@
       <c r="C139" t="n">
         <v>0</v>
       </c>
-      <c r="D139">
-        <f>DIVIDE(
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         COUNTA(raw_data!A:A)-1,
         CALCULATE(COUNTA(raw_data!A:A)-1, ALL('Bugs'[RiskScore])),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -42538,13 +42967,14 @@
       <c r="C140" t="n">
         <v>0</v>
       </c>
-      <c r="D140">
-        <f>CALCULATE(
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         'Bugs'[RiskScore] &gt; 8,
         raw_data!D:D = "Critical"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -42566,12 +42996,13 @@
       <c r="C141" t="n">
         <v>0</v>
       </c>
-      <c r="D141">
-        <f>CALCULATE(
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         'Bugs'[EscapeProbability] &gt; 0.7
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -42593,12 +43024,13 @@
       <c r="C142" t="n">
         <v>0</v>
       </c>
-      <c r="D142">
-        <f>CALCULATE(
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         'Bugs'[RecurrenceProbability] &gt; 0.5
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -42620,12 +43052,13 @@
       <c r="C143" t="n">
         <v>0</v>
       </c>
-      <c r="D143">
-        <f>SUMX(
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>=SUMX(
         FILTER('Bugs', raw_data!F:F = "Open"),
         'Bugs'[RiskScore]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -42647,11 +43080,12 @@
       <c r="C144" t="n">
         <v>0</v>
       </c>
-      <c r="D144">
-        <f>VAR ActualEscapes = [V12_Escaped_Bugs]
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>=VAR ActualEscapes = [V12_Escaped_Bugs]
     VAR PredictedEscapes = [R07_Predicted_Escapes]
-    RETURN DIVIDE(ABS(ActualEscapes - PredictedEscapes), ActualEscapes, 0)</f>
-        <v/>
+    RETURN DIVIDE(ABS(ActualEscapes - PredictedEscapes), ActualEscapes, 0)</t>
+        </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -42673,12 +43107,13 @@
       <c r="C145" t="n">
         <v>0</v>
       </c>
-      <c r="D145">
-        <f>AVERAGEX(
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         VALUES('Bugs'[ModuleName]),
         CALCULATE(AVERAGE('Bugs'[RiskScore]))
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -42700,12 +43135,13 @@
       <c r="C146" t="n">
         <v>0</v>
       </c>
-      <c r="D146">
-        <f>AVERAGEX(
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         VALUES('Bugs'[TeamName]),
         CALCULATE(AVERAGE('Bugs'[RiskScore]))
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -42727,11 +43163,12 @@
       <c r="C147" t="n">
         <v>0</v>
       </c>
-      <c r="D147">
-        <f>VAR CurrentRisk = [R01_Overall_Risk_Score]
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>=VAR CurrentRisk = [R01_Overall_Risk_Score]
     VAR PreviousRisk = CALCULATE([R01_Overall_Risk_Score], DATEADD('Date'[Date], -1, MONTH))
-    RETURN CurrentRisk - PreviousRisk</f>
-        <v/>
+    RETURN CurrentRisk - PreviousRisk</t>
+        </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -42753,13 +43190,14 @@
       <c r="C148" t="n">
         <v>0</v>
       </c>
-      <c r="D148">
-        <f>CALCULATE(
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         'Bugs'[RiskScore] &gt; 7,
         raw_data!D:D = "Critical"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -42781,13 +43219,14 @@
       <c r="C149" t="n">
         <v>0</v>
       </c>
-      <c r="D149">
-        <f>DIVIDE(
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [R16_High_Risk_Critical_Bugs],
         [V01_Total_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -42809,9 +43248,10 @@
       <c r="C150" t="n">
         <v>0</v>
       </c>
-      <c r="D150">
-        <f>Complex formula (see DAX reference)</f>
-        <v/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>=Complex formula (see DAX reference)</t>
+        </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -42833,9 +43273,10 @@
       <c r="C151" t="n">
         <v>0</v>
       </c>
-      <c r="D151">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsAnomaly] = TRUE)</f>
-        <v/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsAnomaly] = TRUE)</t>
+        </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -42857,12 +43298,13 @@
       <c r="C152" t="n">
         <v>0</v>
       </c>
-      <c r="D152">
-        <f>([R01_Overall_Risk_Score] * 0.3) +
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>=([R01_Overall_Risk_Score] * 0.3) +
     ([V14_Critical_Bugs] * 0.25) +
     ([V12_Escaped_Bugs] * 0.25) +
-    ([T18_Avg_Age_Days] * 0.20)</f>
-        <v/>
+    ([T18_Avg_Age_Days] * 0.20)</t>
+        </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -42884,12 +43326,13 @@
       <c r="C153" t="n">
         <v>0</v>
       </c>
-      <c r="D153">
-        <f>AVERAGEX(
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', 'Bugs'[RiskScore] &gt; 7),
         'Bugs'[AgeDays]
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -42911,11 +43354,12 @@
       <c r="C154" t="n">
         <v>0</v>
       </c>
-      <c r="D154">
-        <f>VAR CurrentVelocity = [S01_Sprint_Velocity]
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>=VAR CurrentVelocity = [S01_Sprint_Velocity]
     VAR RiskFactor = [R01_Overall_Risk_Score] / 10
-    RETURN CurrentVelocity * (1 - RiskFactor)</f>
-        <v/>
+    RETURN CurrentVelocity * (1 - RiskFactor)</t>
+        </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -42937,11 +43381,12 @@
       <c r="C155" t="n">
         <v>0</v>
       </c>
-      <c r="D155">
-        <f>VAR AvgBugsPerSprint = AVERAGEX(VALUES('Sprint'[SprintID]), [S09_Sprint_Inflow])
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>=VAR AvgBugsPerSprint = AVERAGEX(VALUES('Sprint'[SprintID]), [S09_Sprint_Inflow])
     VAR Trend = [TR04_Bug_Trend_7Days]
-    RETURN AvgBugsPerSprint * (1 + Trend)</f>
-        <v/>
+    RETURN AvgBugsPerSprint * (1 + Trend)</t>
+        </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -42963,13 +43408,14 @@
       <c r="C156" t="n">
         <v>0</v>
       </c>
-      <c r="D156">
-        <f>DIVIDE(
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [R02_High_Risk_Bugs],
         CALCULATE([R02_High_Risk_Bugs], DATEADD('Date'[Date], -7, DAY)),
         0
-    ) - 1</f>
-        <v/>
+    ) - 1</t>
+        </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -42991,12 +43437,13 @@
       <c r="C157" t="n">
         <v>0</v>
       </c>
-      <c r="D157">
-        <f>CALCULATE(
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         SUM('Bugs'[RiskScore]),
         'Bugs'[IsBlocking] = TRUE
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -43018,9 +43465,10 @@
       <c r="C158" t="n">
         <v>20</v>
       </c>
-      <c r="D158">
-        <f>V01_Total_Bugs/COUNTA(UNIQUE(raw_data!P:P))</f>
-        <v/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>=V01_Total_Bugs/COUNTA(UNIQUE(raw_data!P:P))</t>
+        </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -43042,9 +43490,10 @@
       <c r="C159" t="n">
         <v>51</v>
       </c>
-      <c r="D159">
-        <f>COUNTIFS(raw_data!F:F,"Done")+COUNTIFS(raw_data!F:F,"Closed")</f>
-        <v/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>=COUNTIFS(raw_data!F:F,"Done")+COUNTIFS(raw_data!F:F,"Closed")</t>
+        </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -43066,12 +43515,13 @@
       <c r="C160" t="n">
         <v>0</v>
       </c>
-      <c r="D160">
-        <f>CALCULATE(
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         raw_data!F:F NOT IN {"Resolved", "Done", "Closed"}
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -43093,9 +43543,10 @@
       <c r="C161" t="n">
         <v>0</v>
       </c>
-      <c r="D161">
-        <f>DIVIDE([S03_Sprint_Carryover], [S01_Sprint_Velocity], 0)</f>
-        <v/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>=DIVIDE([S03_Sprint_Carryover], [S01_Sprint_Velocity], 0)</t>
+        </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -43117,9 +43568,10 @@
       <c r="C162" t="n">
         <v>51</v>
       </c>
-      <c r="D162">
-        <f>S02_Sprint_Completed_Bugs/V01_Total_Bugs*100</f>
-        <v/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>=S02_Sprint_Completed_Bugs/V01_Total_Bugs*100</t>
+        </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -43141,9 +43593,10 @@
       <c r="C163" t="n">
         <v>0</v>
       </c>
-      <c r="D163">
-        <f>[T03_Avg_Cycle_Time]</f>
-        <v/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>=[T03_Avg_Cycle_Time]</t>
+        </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -43165,13 +43618,14 @@
       <c r="C164" t="n">
         <v>0</v>
       </c>
-      <c r="D164">
-        <f>CALCULATE(
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         'Bugs'[CreatedDate] &gt;= EARLIER('Sprint'[StartDate]) &amp;&amp;
         'Bugs'[CreatedDate] &lt;= EARLIER('Sprint'[EndDate])
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -43193,9 +43647,10 @@
       <c r="C165" t="n">
         <v>0</v>
       </c>
-      <c r="D165">
-        <f>[S02_Sprint_Completed_Bugs]</f>
-        <v/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>=[S02_Sprint_Completed_Bugs]</t>
+        </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -43217,9 +43672,10 @@
       <c r="C166" t="n">
         <v>0</v>
       </c>
-      <c r="D166">
-        <f>[S03_Sprint_Carryover]</f>
-        <v/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>=[S03_Sprint_Carryover]</t>
+        </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -43241,9 +43697,10 @@
       <c r="C167" t="n">
         <v>0</v>
       </c>
-      <c r="D167">
-        <f>ABS([S09_Sprint_Inflow] - [S01_Sprint_Velocity])</f>
-        <v/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>=ABS([S09_Sprint_Inflow] - [S01_Sprint_Velocity])</t>
+        </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -43265,13 +43722,14 @@
       <c r="C168" t="n">
         <v>0</v>
       </c>
-      <c r="D168">
-        <f>DIVIDE(
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [S01_Sprint_Velocity] - [S12_Sprint_Scope_Change],
         [S01_Sprint_Velocity],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -43293,9 +43751,10 @@
       <c r="C169" t="n">
         <v>0</v>
       </c>
-      <c r="D169">
-        <f>[S02_Sprint_Completed_Bugs]</f>
-        <v/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>=[S02_Sprint_Completed_Bugs]</t>
+        </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -43317,9 +43776,10 @@
       <c r="C170" t="n">
         <v>0</v>
       </c>
-      <c r="D170">
-        <f>[T01_Avg_Lead_Time]</f>
-        <v/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>=[T01_Avg_Lead_Time]</t>
+        </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -43341,9 +43801,10 @@
       <c r="C171" t="n">
         <v>0</v>
       </c>
-      <c r="D171">
-        <f>[S05_Sprint_Completion_Rate]</f>
-        <v/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>=[S05_Sprint_Completion_Rate]</t>
+        </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -43365,9 +43826,10 @@
       <c r="C172" t="n">
         <v>0</v>
       </c>
-      <c r="D172">
-        <f>[Q13_Quality_Index]</f>
-        <v/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>=[Q13_Quality_Index]</t>
+        </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -43389,9 +43851,10 @@
       <c r="C173" t="n">
         <v>0</v>
       </c>
-      <c r="D173">
-        <f>[Q14_Bug_Density]</f>
-        <v/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>=[Q14_Bug_Density]</t>
+        </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -43413,9 +43876,10 @@
       <c r="C174" t="n">
         <v>12.27906976744186</v>
       </c>
-      <c r="D174">
-        <f>AVERAGE(raw_data!AQ:AQ)</f>
-        <v/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AQ:AQ)</t>
+        </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -43437,9 +43901,10 @@
       <c r="C175" t="n">
         <v>10</v>
       </c>
-      <c r="D175">
-        <f>MEDIAN(raw_data!AQ:AQ)</f>
-        <v/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>=MEDIAN(raw_data!AQ:AQ)</t>
+        </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -43461,9 +43926,10 @@
       <c r="C176" t="n">
         <v>24</v>
       </c>
-      <c r="D176">
-        <f>MAX(raw_data!AQ:AQ)</f>
-        <v/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>=MAX(raw_data!AQ:AQ)</t>
+        </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -43485,9 +43951,10 @@
       <c r="C177" t="n">
         <v>0</v>
       </c>
-      <c r="D177">
-        <f>COUNTIFS(raw_data!F:F,"Triage",raw_data!AQ:AQ,"&gt;24")</f>
-        <v/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>=COUNTIFS(raw_data!F:F,"Triage",raw_data!AQ:AQ,"&gt;24")</t>
+        </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -43509,9 +43976,10 @@
       <c r="C178" t="n">
         <v>38.3974358974359</v>
       </c>
-      <c r="D178">
-        <f>AVERAGE(raw_data!AR:AR)</f>
-        <v/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AR:AR)</t>
+        </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -43533,9 +44001,10 @@
       <c r="C179" t="n">
         <v>66.3015873015873</v>
       </c>
-      <c r="D179">
-        <f>AVERAGE(raw_data!AS:AS)</f>
-        <v/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AS:AS)</t>
+        </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -43557,9 +44026,10 @@
       <c r="C180" t="n">
         <v>67</v>
       </c>
-      <c r="D180">
-        <f>MEDIAN(raw_data!AS:AS)</f>
-        <v/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>=MEDIAN(raw_data!AS:AS)</t>
+        </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -43581,9 +44051,10 @@
       <c r="C181" t="n">
         <v>29.9</v>
       </c>
-      <c r="D181">
-        <f>AVERAGE(raw_data!AT:AT)</f>
-        <v/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AT:AT)</t>
+        </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -43605,9 +44076,10 @@
       <c r="C182" t="n">
         <v>33.5</v>
       </c>
-      <c r="D182">
-        <f>MEDIAN(raw_data!AT:AT)</f>
-        <v/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>=MEDIAN(raw_data!AT:AT)</t>
+        </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -43629,9 +44101,10 @@
       <c r="C183" t="n">
         <v>0</v>
       </c>
-      <c r="D183">
-        <f>COUNTIFS(raw_data!F:F,"Ready for Retest",raw_data!AT:AT,"&gt;48")</f>
-        <v/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>=COUNTIFS(raw_data!F:F,"Ready for Retest",raw_data!AT:AT,"&gt;48")</t>
+        </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -43653,9 +44126,10 @@
       <c r="C184" t="n">
         <v>6.27</v>
       </c>
-      <c r="D184">
-        <f>AVERAGE(raw_data!AP:AP)</f>
-        <v/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!AP:AP)</t>
+        </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -43677,9 +44151,10 @@
       <c r="C185" t="n">
         <v>23</v>
       </c>
-      <c r="D185">
-        <f>COUNTIF(raw_data!AP:AP,"&gt;8")</f>
-        <v/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!AP:AP,"&gt;8")</t>
+        </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -43701,9 +44176,10 @@
       <c r="C186" t="n">
         <v>26</v>
       </c>
-      <c r="D186">
-        <f>COUNTIF(raw_data!AP:AP,"&lt;=4")</f>
-        <v/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!AP:AP,"&lt;=4")</t>
+        </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -43725,9 +44201,10 @@
       <c r="C187" t="n">
         <v>12.79069767441861</v>
       </c>
-      <c r="D187">
-        <f>COUNTIFS(raw_data!AQ:AQ,"&lt;=4")/COUNTA(raw_data!AQ:AQ)*100</f>
-        <v/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>=COUNTIFS(raw_data!AQ:AQ,"&lt;=4")/COUNTA(raw_data!AQ:AQ)*100</t>
+        </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -43749,9 +44226,10 @@
       <c r="C188" t="n">
         <v>209.6774193548387</v>
       </c>
-      <c r="D188">
-        <f>COUNTIF(raw_data!BW:BW,0)/V09_Closed_Bugs*100</f>
-        <v/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BW:BW,0)/V09_Closed_Bugs*100</t>
+        </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -43773,13 +44251,14 @@
       <c r="C189" t="n">
         <v>0</v>
       </c>
-      <c r="D189">
-        <f>DIVIDE(
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [V45_Completed_Bugs],
         [V45_Completed_Bugs] + CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RetestFailCount] &gt; 0),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -43801,13 +44280,14 @@
       <c r="C190" t="n">
         <v>0</v>
       </c>
-      <c r="D190">
-        <f>DIVIDE(
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[PreviousState] &gt; raw_data!F:F),
         COUNTA(raw_data!A:A)-1,
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -43829,12 +44309,13 @@
       <c r="C191" t="n">
         <v>0</v>
       </c>
-      <c r="D191">
-        <f>AVERAGEX(
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[TriageDate]))),
         DATEDIFF('Bugs'[CreatedDate], 'Bugs'[TriageDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -43856,12 +44337,13 @@
       <c r="C192" t="n">
         <v>0</v>
       </c>
-      <c r="D192">
-        <f>AVERAGEX(
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[TriageDate])) &amp;&amp; raw_data!F:F != "Triage"),
         DATEDIFF('Bugs'[TriageDate], 'Bugs'[AssignedDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -43883,12 +44365,13 @@
       <c r="C193" t="n">
         <v>0</v>
       </c>
-      <c r="D193">
-        <f>AVERAGEX(
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[InProgressDate]))),
         DATEDIFF('Bugs'[AssignedDate], 'Bugs'[InProgressDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -43910,12 +44393,13 @@
       <c r="C194" t="n">
         <v>0</v>
       </c>
-      <c r="D194">
-        <f>AVERAGEX(
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[ReadyForRetestDate]))),
         DATEDIFF('Bugs'[InProgressDate], 'Bugs'[ReadyForRetestDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -43937,12 +44421,13 @@
       <c r="C195" t="n">
         <v>0</v>
       </c>
-      <c r="D195">
-        <f>AVERAGEX(
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[DoneDate]))),
         DATEDIFF('Bugs'[ReadyForRetestDate], 'Bugs'[DoneDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -43964,12 +44449,13 @@
       <c r="C196" t="n">
         <v>0</v>
       </c>
-      <c r="D196">
-        <f>AVERAGEX(
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[ClosedDate])) &amp;&amp; NOT(ISBLANK('Bugs'[DoneDate]))),
         DATEDIFF('Bugs'[DoneDate], 'Bugs'[ClosedDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -43991,9 +44477,10 @@
       <c r="C197" t="n">
         <v>0</v>
       </c>
-      <c r="D197">
-        <f>Complex formula (see DAX reference)</f>
-        <v/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>=Complex formula (see DAX reference)</t>
+        </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -44015,13 +44502,14 @@
       <c r="C198" t="n">
         <v>0</v>
       </c>
-      <c r="D198">
-        <f>DIVIDE(
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [SF06_Avg_InProgress_Duration],
         [SF05_Avg_Active_Duration] + [SF06_Avg_InProgress_Duration] + [SF08_Avg_ReadyForRetest_Duration],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -44043,13 +44531,14 @@
       <c r="C199" t="n">
         <v>0</v>
       </c>
-      <c r="D199">
-        <f>DIVIDE(
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         SUM('Bugs'[StateTransitionCount]),
         DISTINCTCOUNT('Bugs'[BugID]),
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -44071,12 +44560,13 @@
       <c r="C200" t="n">
         <v>0</v>
       </c>
-      <c r="D200">
-        <f>CALCULATE(
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         ALLEXCEPT('Bugs', raw_data!F:F)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -44098,13 +44588,14 @@
       <c r="C201" t="n">
         <v>0</v>
       </c>
-      <c r="D201">
-        <f>DIVIDE(
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>=DIVIDE(
         [SF27_Bugs_by_Current_State],
         [V01_Total_Bugs],
         0
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -44126,13 +44617,14 @@
       <c r="C202" t="n">
         <v>0</v>
       </c>
-      <c r="D202">
-        <f>CALCULATE(
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
         raw_data!F:F = "Triage",
         raw_data!D:D = "Critical"
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -44154,12 +44646,13 @@
       <c r="C203" t="n">
         <v>0</v>
       </c>
-      <c r="D203">
-        <f>AVERAGEX(
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[InProgressDate]))),
         DATEDIFF('Bugs'[CreatedDate], 'Bugs'[InProgressDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -44181,9 +44674,10 @@
       <c r="C204" t="n">
         <v>209.4193548387097</v>
       </c>
-      <c r="D204">
-        <f>AVERAGE(raw_data!BD:BD)</f>
-        <v/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BD:BD)</t>
+        </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -44205,9 +44699,10 @@
       <c r="C205" t="n">
         <v>200</v>
       </c>
-      <c r="D205">
-        <f>MEDIAN(raw_data!BD:BD)</f>
-        <v/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>=MEDIAN(raw_data!BD:BD)</t>
+        </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -44229,9 +44724,10 @@
       <c r="C206" t="n">
         <v>134.741935483871</v>
       </c>
-      <c r="D206">
-        <f>AVERAGE(raw_data!BE:BE)</f>
-        <v/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BE:BE)</t>
+        </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -44253,9 +44749,10 @@
       <c r="C207" t="n">
         <v>133</v>
       </c>
-      <c r="D207">
-        <f>MEDIAN(raw_data!BE:BE)</f>
-        <v/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>=MEDIAN(raw_data!BE:BE)</t>
+        </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -44277,9 +44774,10 @@
       <c r="C208" t="n">
         <v>155.5</v>
       </c>
-      <c r="D208">
-        <f>PERCENTILE(raw_data!BE:BE,0.75)</f>
-        <v/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>=PERCENTILE(raw_data!BE:BE,0.75)</t>
+        </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -44301,9 +44799,10 @@
       <c r="C209" t="n">
         <v>0</v>
       </c>
-      <c r="D209">
-        <f>PERCENTILEX.INC('Bugs', 'Bugs'[CycleTimeHrs], 0.90)</f>
-        <v/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>=PERCENTILEX.INC('Bugs', 'Bugs'[CycleTimeHrs], 0.90)</t>
+        </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -44325,9 +44824,10 @@
       <c r="C210" t="n">
         <v>0</v>
       </c>
-      <c r="D210">
-        <f>PERCENTILEX.INC('Bugs', 'Bugs'[LeadTimeHrs], 0.95)</f>
-        <v/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>=PERCENTILEX.INC('Bugs', 'Bugs'[LeadTimeHrs], 0.95)</t>
+        </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -44349,9 +44849,10 @@
       <c r="C211" t="n">
         <v>315</v>
       </c>
-      <c r="D211">
-        <f>MAX(raw_data!BD:BD)</f>
-        <v/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>=MAX(raw_data!BD:BD)</t>
+        </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -44373,9 +44874,10 @@
       <c r="C212" t="n">
         <v>0</v>
       </c>
-      <c r="D212">
-        <f>MAX('Bugs'[CycleTimeHrs])</f>
-        <v/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>=MAX('Bugs'[CycleTimeHrs])</t>
+        </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -44397,9 +44899,10 @@
       <c r="C213" t="n">
         <v>104</v>
       </c>
-      <c r="D213">
-        <f>MIN(raw_data!BD:BD)</f>
-        <v/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>=MIN(raw_data!BD:BD)</t>
+        </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -44421,12 +44924,13 @@
       <c r="C214" t="n">
         <v>0</v>
       </c>
-      <c r="D214">
-        <f>AVERAGEX(
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[ResolvedDate]))),
         DATEDIFF('Bugs'[CreatedDate], 'Bugs'[ResolvedDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -44448,12 +44952,13 @@
       <c r="C215" t="n">
         <v>0</v>
       </c>
-      <c r="D215">
-        <f>AVERAGEX(
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[ClosedDate]))),
         DATEDIFF('Bugs'[CreatedDate], 'Bugs'[ClosedDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -44475,9 +44980,10 @@
       <c r="C216" t="n">
         <v>35.01162790697674</v>
       </c>
-      <c r="D216">
-        <f>AVERAGE(raw_data!BF:BF)</f>
-        <v/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BF:BF)</t>
+        </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -44499,9 +45005,10 @@
       <c r="C217" t="n">
         <v>0</v>
       </c>
-      <c r="D217">
-        <f>AVERAGE('Bugs'[FixEffortHrs])</f>
-        <v/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>=AVERAGE('Bugs'[FixEffortHrs])</t>
+        </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -44523,12 +45030,13 @@
       <c r="C218" t="n">
         <v>0</v>
       </c>
-      <c r="D218">
-        <f>AVERAGEX(
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[VerifiedDate])) &amp;&amp; NOT(ISBLANK('Bugs'[ResolvedDate]))),
         DATEDIFF('Bugs'[ResolvedDate], 'Bugs'[VerifiedDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -44550,9 +45058,10 @@
       <c r="C219" t="n">
         <v>58.45</v>
       </c>
-      <c r="D219">
-        <f>AVERAGE(raw_data!BG:BG)</f>
-        <v/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BG:BG)</t>
+        </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -44574,9 +45083,10 @@
       <c r="C220" t="n">
         <v>41.77</v>
       </c>
-      <c r="D220">
-        <f>AVERAGE(raw_data!BH:BH)</f>
-        <v/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BH:BH)</t>
+        </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -44598,9 +45108,10 @@
       <c r="C221" t="n">
         <v>636.6807912721745</v>
       </c>
-      <c r="D221">
-        <f>AVERAGE(raw_data!BI:BI)</f>
-        <v/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>=AVERAGE(raw_data!BI:BI)</t>
+        </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -44622,9 +45133,10 @@
       <c r="C222" t="n">
         <v>100</v>
       </c>
-      <c r="D222">
-        <f>COUNTIF(raw_data!BI:BI,"&gt;7")</f>
-        <v/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BI:BI,"&gt;7")</t>
+        </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -44646,9 +45158,10 @@
       <c r="C223" t="n">
         <v>100</v>
       </c>
-      <c r="D223">
-        <f>COUNTIF(raw_data!BI:BI,"&gt;14")</f>
-        <v/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BI:BI,"&gt;14")</t>
+        </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -44670,9 +45183,10 @@
       <c r="C224" t="n">
         <v>100</v>
       </c>
-      <c r="D224">
-        <f>COUNTIF(raw_data!BI:BI,"&gt;30")</f>
-        <v/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BI:BI,"&gt;30")</t>
+        </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -44694,9 +45208,10 @@
       <c r="C225" t="n">
         <v>100</v>
       </c>
-      <c r="D225">
-        <f>COUNTIF(raw_data!BI:BI,"&gt;60")</f>
-        <v/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BI:BI,"&gt;60")</t>
+        </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -44718,9 +45233,10 @@
       <c r="C226" t="n">
         <v>0</v>
       </c>
-      <c r="D226">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[AgeDays] &gt; 90)</f>
-        <v/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[AgeDays] &gt; 90)</t>
+        </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -44742,12 +45258,13 @@
       <c r="C227" t="n">
         <v>0</v>
       </c>
-      <c r="D227">
-        <f>AVERAGEX(
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!AM:AM &gt; 0),
         DATEDIFF('Bugs'[ClosedDate], 'Bugs'[FirstReopenDate], HOUR)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -44769,12 +45286,13 @@
       <c r="C228" t="n">
         <v>0</v>
       </c>
-      <c r="D228">
-        <f>AVERAGEX(
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         FILTER('Bugs', raw_data!F:F = "Open"),
         DATEDIFF('Bugs'[CreatedDate], TODAY(), DAY)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -44796,9 +45314,10 @@
       <c r="C229" t="n">
         <v>19.94562538508934</v>
       </c>
-      <c r="D229">
-        <f>T17_Avg_Active_Work_Time/T01_Avg_Lead_Time*100</f>
-        <v/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>=T17_Avg_Active_Work_Time/T01_Avg_Lead_Time*100</t>
+        </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -44820,12 +45339,13 @@
       <c r="C230" t="n">
         <v>0</v>
       </c>
-      <c r="D230">
-        <f>AVERAGEX(
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         'Bugs',
         DATEDIFF('Bugs'[LastModifiedDate], TODAY(), DAY)
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -44847,9 +45367,10 @@
       <c r="C231" t="n">
         <v>0</v>
       </c>
-      <c r="D231">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, DATEDIFF('Bugs'[LastModifiedDate], TODAY(), DAY) &gt; 30)</f>
-        <v/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, DATEDIFF('Bugs'[LastModifiedDate], TODAY(), DAY) &gt; 30)</t>
+        </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -44871,9 +45392,10 @@
       <c r="C232" t="n">
         <v>0</v>
       </c>
-      <c r="D232">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, DATEDIFF('Bugs'[LastModifiedDate], TODAY(), DAY) &lt;= 7)</f>
-        <v/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, DATEDIFF('Bugs'[LastModifiedDate], TODAY(), DAY) &lt;= 7)</t>
+        </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -44895,9 +45417,10 @@
       <c r="C233" t="n">
         <v>0</v>
       </c>
-      <c r="D233">
-        <f>0</f>
-        <v/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>=0</t>
+        </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -44919,9 +45442,10 @@
       <c r="C234" t="n">
         <v>0</v>
       </c>
-      <c r="D234">
-        <f>0</f>
-        <v/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>=0</t>
+        </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -44943,11 +45467,12 @@
       <c r="C235" t="n">
         <v>0</v>
       </c>
-      <c r="D235">
-        <f>VAR Current = [Q01_Escape_Rate]
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>=VAR Current = [Q01_Escape_Rate]
     VAR Previous = CALCULATE([Q01_Escape_Rate], DATEADD('Date'[Date], -1, MONTH))
-    RETURN Current - Previous</f>
-        <v/>
+    RETURN Current - Previous</t>
+        </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -44969,9 +45494,10 @@
       <c r="C236" t="n">
         <v>0</v>
       </c>
-      <c r="D236">
-        <f>0</f>
-        <v/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>=0</t>
+        </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -44993,14 +45519,15 @@
       <c r="C237" t="n">
         <v>0</v>
       </c>
-      <c r="D237">
-        <f>CALCULATE(
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         AVERAGEX(
             DATESINPERIOD('Date'[Date], MAX('Date'[Date]), -7, DAY),
             [V01_Total_Bugs]
         )
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -45022,14 +45549,15 @@
       <c r="C238" t="n">
         <v>0</v>
       </c>
-      <c r="D238">
-        <f>CALCULATE(
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>=CALCULATE(
         AVERAGEX(
             DATESINPERIOD('Date'[Date], MAX('Date'[Date]), -30, DAY),
             [V01_Total_Bugs]
         )
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -45051,11 +45579,12 @@
       <c r="C239" t="n">
         <v>0</v>
       </c>
-      <c r="D239">
-        <f>VAR Current = [V14_Critical_Bugs]
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>=VAR Current = [V14_Critical_Bugs]
     VAR Previous = CALCULATE([V14_Critical_Bugs], DATEADD('Date'[Date], -1, MONTH))
-    RETURN DIVIDE(Current - Previous, Previous, 0)</f>
-        <v/>
+    RETURN DIVIDE(Current - Previous, Previous, 0)</t>
+        </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -45077,11 +45606,12 @@
       <c r="C240" t="n">
         <v>0</v>
       </c>
-      <c r="D240">
-        <f>VAR Current = [Q03_Reopen_Rate]
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>=VAR Current = [Q03_Reopen_Rate]
     VAR Previous = CALCULATE([Q03_Reopen_Rate], DATEADD('Date'[Date], -1, MONTH))
-    RETURN Current - Previous</f>
-        <v/>
+    RETURN Current - Previous</t>
+        </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -45103,11 +45633,12 @@
       <c r="C241" t="n">
         <v>0</v>
       </c>
-      <c r="D241">
-        <f>VAR Current = [T01_Avg_Lead_Time]
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>=VAR Current = [T01_Avg_Lead_Time]
     VAR Previous = CALCULATE([T01_Avg_Lead_Time], DATEADD('Date'[Date], -1, MONTH))
-    RETURN DIVIDE(Current - Previous, Previous, 0)</f>
-        <v/>
+    RETURN DIVIDE(Current - Previous, Previous, 0)</t>
+        </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -45129,11 +45660,12 @@
       <c r="C242" t="n">
         <v>0</v>
       </c>
-      <c r="D242">
-        <f>VAR Current = [S01_Sprint_Velocity]
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>=VAR Current = [S01_Sprint_Velocity]
     VAR Previous = CALCULATE([S01_Sprint_Velocity], DATEADD('Date'[Date], -1, MONTH))
-    RETURN DIVIDE(Current - Previous, Previous, 0)</f>
-        <v/>
+    RETURN DIVIDE(Current - Previous, Previous, 0)</t>
+        </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -45155,11 +45687,12 @@
       <c r="C243" t="n">
         <v>0</v>
       </c>
-      <c r="D243">
-        <f>VAR Current = [E01_Total_Effort]
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>=VAR Current = [E01_Total_Effort]
     VAR Previous = CALCULATE([E01_Total_Effort], DATEADD('Date'[Date], -1, MONTH))
-    RETURN DIVIDE(Current - Previous, Previous, 0)</f>
-        <v/>
+    RETURN DIVIDE(Current - Previous, Previous, 0)</t>
+        </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -45181,12 +45714,13 @@
       <c r="C244" t="n">
         <v>0</v>
       </c>
-      <c r="D244">
-        <f>AVERAGEX(
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         VALUES('Bugs'[ModuleName]),
         CALCULATE([V01_Total_Bugs])
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -45208,12 +45742,13 @@
       <c r="C245" t="n">
         <v>0</v>
       </c>
-      <c r="D245">
-        <f>AVERAGEX(
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>=AVERAGEX(
         VALUES('Bugs'[TeamName]),
         CALCULATE([V01_Total_Bugs])
-    )</f>
-        <v/>
+    )</t>
+        </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -45235,9 +45770,10 @@
       <c r="C246" t="n">
         <v>0</v>
       </c>
-      <c r="D246">
-        <f>Complex formula (see DAX reference)</f>
-        <v/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>=Complex formula (see DAX reference)</t>
+        </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -45259,11 +45795,12 @@
       <c r="C247" t="n">
         <v>0</v>
       </c>
-      <c r="D247">
-        <f>VAR CurrentQuarter = [V01_Total_Bugs]
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>=VAR CurrentQuarter = [V01_Total_Bugs]
     VAR PreviousQuarter = CALCULATE([V01_Total_Bugs], DATEADD('Date'[Date], -1, QUARTER))
-    RETURN DIVIDE(CurrentQuarter - PreviousQuarter, PreviousQuarter, 0)</f>
-        <v/>
+    RETURN DIVIDE(CurrentQuarter - PreviousQuarter, PreviousQuarter, 0)</t>
+        </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -45285,9 +45822,10 @@
       <c r="C248" t="n">
         <v>100</v>
       </c>
-      <c r="D248">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -45309,9 +45847,10 @@
       <c r="C249" t="n">
         <v>40</v>
       </c>
-      <c r="D249">
-        <f>COUNTIFS(raw_data!F:F,"Open",raw_data!F:F,"Triage",raw_data!F:F,"Active",raw_data!F:F,"In Progress",raw_data!F:F,"Ready for Retest")</f>
-        <v/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>=COUNTIFS(raw_data!F:F,"Open",raw_data!F:F,"Triage",raw_data!F:F,"Active",raw_data!F:F,"In Progress",raw_data!F:F,"Ready for Retest")</t>
+        </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -45333,9 +45872,10 @@
       <c r="C250" t="n">
         <v>7</v>
       </c>
-      <c r="D250">
-        <f>COUNTIF(raw_data!F:F,"Triage")</f>
-        <v/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"Triage")</t>
+        </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -45357,9 +45897,10 @@
       <c r="C251" t="n">
         <v>8</v>
       </c>
-      <c r="D251">
-        <f>COUNTIF(raw_data!F:F,"Active")</f>
-        <v/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"Active")</t>
+        </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -45381,9 +45922,10 @@
       <c r="C252" t="n">
         <v>15</v>
       </c>
-      <c r="D252">
-        <f>COUNTIF(raw_data!F:F,"In Progress")</f>
-        <v/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"In Progress")</t>
+        </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -45405,9 +45947,10 @@
       <c r="C253" t="n">
         <v>3</v>
       </c>
-      <c r="D253">
-        <f>COUNTIF(raw_data!F:F,"Ready for Retest")</f>
-        <v/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"Ready for Retest")</t>
+        </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -45429,9 +45972,10 @@
       <c r="C254" t="n">
         <v>9</v>
       </c>
-      <c r="D254">
-        <f>COUNTIF(raw_data!F:F,"Resolved")</f>
-        <v/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"Resolved")</t>
+        </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -45453,9 +45997,10 @@
       <c r="C255" t="n">
         <v>20</v>
       </c>
-      <c r="D255">
-        <f>COUNTIF(raw_data!F:F,"Done")</f>
-        <v/>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"Done")</t>
+        </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -45477,9 +46022,10 @@
       <c r="C256" t="n">
         <v>31</v>
       </c>
-      <c r="D256">
-        <f>COUNTIF(raw_data!F:F,"Closed")</f>
-        <v/>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!F:F,"Closed")</t>
+        </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -45501,9 +46047,10 @@
       <c r="C257" t="n">
         <v>24</v>
       </c>
-      <c r="D257">
-        <f>COUNTIF(raw_data!AM:AM,"&gt;0")</f>
-        <v/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!AM:AM,"&gt;0")</t>
+        </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -45525,9 +46072,10 @@
       <c r="C258" t="n">
         <v>14</v>
       </c>
-      <c r="D258">
-        <f>COUNTIF(raw_data!AM:AM,"&gt;1")</f>
-        <v/>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!AM:AM,"&gt;1")</t>
+        </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -45549,9 +46097,10 @@
       <c r="C259" t="n">
         <v>17</v>
       </c>
-      <c r="D259">
-        <f>COUNTIF(raw_data!I:I,TRUE)</f>
-        <v/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!I:I,TRUE)</t>
+        </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -45573,9 +46122,10 @@
       <c r="C260" t="n">
         <v>25</v>
       </c>
-      <c r="D260">
-        <f>COUNTIF(raw_data!H:H,TRUE)</f>
-        <v/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!H:H,TRUE)</t>
+        </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -45597,9 +46147,10 @@
       <c r="C261" t="n">
         <v>13</v>
       </c>
-      <c r="D261">
-        <f>COUNTIF(raw_data!D:D,"Critical")</f>
-        <v/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!D:D,"Critical")</t>
+        </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -45621,9 +46172,10 @@
       <c r="C262" t="n">
         <v>28</v>
       </c>
-      <c r="D262">
-        <f>COUNTIF(raw_data!D:D,"High")</f>
-        <v/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!D:D,"High")</t>
+        </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -45645,9 +46197,10 @@
       <c r="C263" t="n">
         <v>35</v>
       </c>
-      <c r="D263">
-        <f>COUNTIF(raw_data!D:D,"Medium")</f>
-        <v/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!D:D,"Medium")</t>
+        </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -45669,9 +46222,10 @@
       <c r="C264" t="n">
         <v>24</v>
       </c>
-      <c r="D264">
-        <f>COUNTIF(raw_data!D:D,"Low")</f>
-        <v/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!D:D,"Low")</t>
+        </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -45693,9 +46247,10 @@
       <c r="C265" t="n">
         <v>5</v>
       </c>
-      <c r="D265">
-        <f>COUNTIF(raw_data!E:E,"P0")</f>
-        <v/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!E:E,"P0")</t>
+        </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -45717,9 +46272,10 @@
       <c r="C266" t="n">
         <v>22</v>
       </c>
-      <c r="D266">
-        <f>COUNTIF(raw_data!E:E,"P1")</f>
-        <v/>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!E:E,"P1")</t>
+        </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -45741,9 +46297,10 @@
       <c r="C267" t="n">
         <v>43</v>
       </c>
-      <c r="D267">
-        <f>COUNTIF(raw_data!E:E,"P2")</f>
-        <v/>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!E:E,"P2")</t>
+        </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -45765,9 +46322,10 @@
       <c r="C268" t="n">
         <v>0</v>
       </c>
-      <c r="D268">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsBlocking] = TRUE)</f>
-        <v/>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsBlocking] = TRUE)</t>
+        </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -45789,9 +46347,10 @@
       <c r="C269" t="n">
         <v>17</v>
       </c>
-      <c r="D269">
-        <f>V12_Escaped_Bugs</f>
-        <v/>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>=V12_Escaped_Bugs</t>
+        </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -45813,9 +46372,10 @@
       <c r="C270" t="n">
         <v>18</v>
       </c>
-      <c r="D270">
-        <f>COUNTIF(raw_data!G:G,"Security")</f>
-        <v/>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!G:G,"Security")</t>
+        </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -45837,9 +46397,10 @@
       <c r="C271" t="n">
         <v>12</v>
       </c>
-      <c r="D271">
-        <f>COUNTIF(raw_data!G:G,"Performance")</f>
-        <v/>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!G:G,"Performance")</t>
+        </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -45861,9 +46422,10 @@
       <c r="C272" t="n">
         <v>15</v>
       </c>
-      <c r="D272">
-        <f>COUNTIF(raw_data!G:G,"UI")</f>
-        <v/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!G:G,"UI")</t>
+        </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -45885,9 +46447,10 @@
       <c r="C273" t="n">
         <v>0</v>
       </c>
-      <c r="D273">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Functional")</f>
-        <v/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Functional")</t>
+        </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -45909,9 +46472,10 @@
       <c r="C274" t="n">
         <v>0</v>
       </c>
-      <c r="D274">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Data")</f>
-        <v/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Data")</t>
+        </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -45933,9 +46497,10 @@
       <c r="C275" t="n">
         <v>0</v>
       </c>
-      <c r="D275">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -45957,9 +46522,10 @@
       <c r="C276" t="n">
         <v>0</v>
       </c>
-      <c r="D276">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -45981,9 +46547,10 @@
       <c r="C277" t="n">
         <v>0</v>
       </c>
-      <c r="D277">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -46005,9 +46572,10 @@
       <c r="C278" t="n">
         <v>0</v>
       </c>
-      <c r="D278">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -46029,9 +46597,10 @@
       <c r="C279" t="n">
         <v>0</v>
       </c>
-      <c r="D279">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -46053,9 +46622,10 @@
       <c r="C280" t="n">
         <v>0</v>
       </c>
-      <c r="D280">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -46077,9 +46647,10 @@
       <c r="C281" t="n">
         <v>0</v>
       </c>
-      <c r="D281">
-        <f>COUNTA(raw_data!A:A)-1</f>
-        <v/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>=COUNTA(raw_data!A:A)-1</t>
+        </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -46101,9 +46672,10 @@
       <c r="C282" t="n">
         <v>7</v>
       </c>
-      <c r="D282">
-        <f>COUNTIF(raw_data!BT:BT,TRUE)</f>
-        <v/>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BT:BT,TRUE)</t>
+        </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -46125,9 +46697,10 @@
       <c r="C283" t="n">
         <v>0</v>
       </c>
-      <c r="D283">
-        <f>COUNTIF(raw_data!BR:BR,"Won't Fix")</f>
-        <v/>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Won't Fix")</t>
+        </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -46149,9 +46722,10 @@
       <c r="C284" t="n">
         <v>4</v>
       </c>
-      <c r="D284">
-        <f>COUNTIF(raw_data!BR:BR,"Cannot Reproduce")</f>
-        <v/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Cannot Reproduce")</t>
+        </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -46173,9 +46747,10 @@
       <c r="C285" t="n">
         <v>44</v>
       </c>
-      <c r="D285">
-        <f>COUNTIF(raw_data!BQ:BQ,"Fixed")</f>
-        <v/>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BQ:BQ,"Fixed")</t>
+        </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -46197,9 +46772,10 @@
       <c r="C286" t="n">
         <v>0</v>
       </c>
-      <c r="D286">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Tags] CONTAINS "Production")</f>
-        <v/>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Tags] CONTAINS "Production")</t>
+        </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -46221,9 +46797,10 @@
       <c r="C287" t="n">
         <v>0</v>
       </c>
-      <c r="D287">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Tags] CONTAINS "QA")</f>
-        <v/>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Tags] CONTAINS "QA")</t>
+        </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -46245,9 +46822,10 @@
       <c r="C288" t="n">
         <v>0</v>
       </c>
-      <c r="D288">
-        <f>CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F = "Open")</f>
-        <v/>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>=CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F = "Open")</t>
+        </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -46269,9 +46847,10 @@
       <c r="C289" t="n">
         <v>0</v>
       </c>
-      <c r="D289">
-        <f>[V41_Backlog_Bugs]</f>
-        <v/>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>=[V41_Backlog_Bugs]</t>
+        </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -46293,9 +46872,10 @@
       <c r="C290" t="n">
         <v>0</v>
       </c>
-      <c r="D290">
-        <f>COUNTIF(raw_data!BR:BR,"Invalid")</f>
-        <v/>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Invalid")</t>
+        </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -46317,9 +46897,10 @@
       <c r="C291" t="n">
         <v>1</v>
       </c>
-      <c r="D291">
-        <f>COUNTIF(raw_data!BR:BR,"Obsolete")</f>
-        <v/>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Obsolete")</t>
+        </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -46341,9 +46922,10 @@
       <c r="C292" t="n">
         <v>21</v>
       </c>
-      <c r="D292">
-        <f>COUNTIF(raw_data!BR:BR,"Completed")</f>
-        <v/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>=COUNTIF(raw_data!BR:BR,"Completed")</t>
+        </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>

--- a/BugTracking_Complete.xlsx
+++ b/BugTracking_Complete.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PowerBI_Simulation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PowerBI_Dashboard" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="KPIs_Detail" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="raw_data" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="metrics" sheetId="4" state="visible" r:id="rId4"/>
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,37 +34,31 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="16"/>
+      <sz val="18"/>
     </font>
     <font>
+      <i val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
+      <color rgb="001F4E78"/>
       <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
-      <color rgb="004472C4"/>
+      <color rgb="00FFFFFF"/>
       <sz val="9"/>
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
     <font>
-      <color rgb="00808080"/>
-      <sz val="8"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="0070AD47"/>
-      <sz val="8"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00C00000"/>
+      <i val="1"/>
+      <color rgb="00FFFFFF"/>
       <sz val="8"/>
     </font>
     <font>
@@ -84,14 +78,9 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -100,14 +89,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="001F4E78"/>
+        <bgColor rgb="001F4E78"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9E1F2"/>
-        <bgColor rgb="00D9E1F2"/>
+        <fgColor rgb="00E7E6E6"/>
+        <bgColor rgb="00E7E6E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -118,8 +107,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0070AD47"/>
-        <bgColor rgb="0070AD47"/>
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
     <fill>
@@ -134,6 +123,18 @@
         <bgColor rgb="00C00000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070AD47"/>
+        <bgColor rgb="0070AD47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC000"/>
+        <bgColor rgb="00FFC000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -144,16 +145,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="medium">
+        <color rgb="001F4E78"/>
+      </left>
+      <right style="medium">
+        <color rgb="001F4E78"/>
+      </right>
+      <top style="medium">
+        <color rgb="001F4E78"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="001F4E78"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -161,21 +170,65 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -254,6 +307,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -278,7 +332,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PowerBI_Simulation'!B27</f>
+              <f>'PowerBI_Dashboard'!B24</f>
             </strRef>
           </tx>
           <spPr>
@@ -288,12 +342,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PowerBI_Simulation'!$A$28:$A$31</f>
+              <f>'PowerBI_Dashboard'!$A$25:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PowerBI_Simulation'!$B$28:$B$31</f>
+              <f>'PowerBI_Dashboard'!$B$25:$B$29</f>
             </numRef>
           </val>
         </ser>
@@ -311,6 +365,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
   <chart>
     <title>
       <tx>
@@ -321,7 +376,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Bugs by Severity</a:t>
+              <a:t>Bugs by Severity Level</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -335,7 +390,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PowerBI_Simulation'!F27</f>
+              <f>'PowerBI_Dashboard'!E24</f>
             </strRef>
           </tx>
           <spPr>
@@ -345,12 +400,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PowerBI_Simulation'!$E$28:$E$30</f>
+              <f>'PowerBI_Dashboard'!$D$25:$D$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PowerBI_Simulation'!$F$28:$F$30</f>
+              <f>'PowerBI_Dashboard'!$E$25:$E$28</f>
             </numRef>
           </val>
         </ser>
@@ -368,6 +423,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -378,7 +434,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Bug Trend Over Time</a:t>
+              <a:t>Bug Trend - Opened vs Closed</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -392,7 +448,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PowerBI_Simulation'!J27</f>
+              <f>'PowerBI_Dashboard'!H24</f>
             </strRef>
           </tx>
           <spPr>
@@ -410,12 +466,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PowerBI_Simulation'!$I$28:$I$31</f>
+              <f>'PowerBI_Dashboard'!$G$25:$G$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PowerBI_Simulation'!$J$28:$J$31</f>
+              <f>'PowerBI_Dashboard'!$H$25:$H$30</f>
             </numRef>
           </val>
         </ser>
@@ -424,7 +480,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PowerBI_Simulation'!K27</f>
+              <f>'PowerBI_Dashboard'!I24</f>
             </strRef>
           </tx>
           <spPr>
@@ -442,18 +498,322 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PowerBI_Simulation'!$I$28:$I$31</f>
+              <f>'PowerBI_Dashboard'!$G$25:$G$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PowerBI_Simulation'!$K$28:$K$31</f>
+              <f>'PowerBI_Dashboard'!$I$25:$I$30</f>
             </numRef>
           </val>
         </ser>
         <axId val="10"/>
         <axId val="100"/>
       </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bug Count</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Bugs by Priority</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PowerBI_Dashboard'!L24</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PowerBI_Dashboard'!$K$25:$K$28</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PowerBI_Dashboard'!$L$25:$L$28</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="14"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Bugs by Category</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PowerBI_Dashboard'!B34</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PowerBI_Dashboard'!$A$35:$A$40</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PowerBI_Dashboard'!$B$35:$B$40</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="15"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Team Performance (Open vs Resolved)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="stacked"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PowerBI_Dashboard'!E34</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PowerBI_Dashboard'!$D$35:$D$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PowerBI_Dashboard'!$E$35:$E$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PowerBI_Dashboard'!F34</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PowerBI_Dashboard'!$D$35:$D$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PowerBI_Dashboard'!$F$35:$F$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <overlap val="100"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
       <catAx>
         <axId val="10"/>
         <scaling>
@@ -492,10 +852,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>34</row>
+      <row>31</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5040000" cy="3960000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -512,12 +872,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>4</col>
+      <col>5</col>
       <colOff>0</colOff>
-      <row>34</row>
+      <row>31</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5040000" cy="3960000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -534,12 +894,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>10</col>
       <colOff>0</colOff>
-      <row>34</row>
+      <row>31</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5040000" cy="3960000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -549,6 +909,72 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -846,37 +1272,46 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
+    <row r="1" ht="35" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bug Tracking &amp; Quality Assurance Dashboard</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+          <t>BUG TRACKING &amp; QUALITY ASSURANCE DASHBOARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Data last updated on 12/25/2025</t>
+          <t>Executive Summary | Last Updated: December 25, 2025 at 21:46</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Start date</t>
+          <t>Start Date</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>End date</t>
+          <t>End Date</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -899,16 +1334,21 @@
           <t>Severity</t>
         </is>
       </c>
-    </row>
-    <row r="5">
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>1/1/2023</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>12/30/2023</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -931,555 +1371,461 @@
           <t>All</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Open Bugs (count)</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>New Bugs (count)</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Active Bugs (count)</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Resolved Bugs (count)</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Verified Bugs (count)</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>Closed Bugs (count)</t>
-        </is>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
-        <is>
-          <t>Reopened Bugs (count)</t>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>All</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>8.4K</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Total Bugs</t>
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>2.1K</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>3.5K</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>4.8K</t>
-        </is>
-      </c>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t>4.2K</t>
-        </is>
-      </c>
-      <c r="K8" s="6" t="inlineStr">
-        <is>
-          <t>3.9K</t>
-        </is>
-      </c>
-      <c r="M8" s="6" t="inlineStr">
-        <is>
-          <t>0.6K</t>
+          <t>Open Bugs</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>Critical Bugs</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>Resolved Bugs</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>Quality Index</t>
+        </is>
+      </c>
+      <c r="K8" s="8" t="inlineStr">
+        <is>
+          <t>Avg Lead Time</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 7.2K</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>+16.67%</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 2.8K</t>
-        </is>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>-25%</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 3.2K</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>+9.37%</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 3.9K</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>+23%</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 3.5K</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>+20%</t>
-        </is>
-      </c>
-      <c r="K9" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 3.1K</t>
-        </is>
-      </c>
-      <c r="L9" s="8" t="inlineStr">
-        <is>
-          <t>+26%</t>
-        </is>
-      </c>
-      <c r="M9" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 0.8K</t>
-        </is>
-      </c>
-      <c r="N9" s="9" t="inlineStr">
-        <is>
-          <t>-25%</t>
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>8,431</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>2,145</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="G9" s="12" t="inlineStr">
+        <is>
+          <t>4,782</t>
+        </is>
+      </c>
+      <c r="I9" s="12" t="inlineStr">
+        <is>
+          <t>85.4%</t>
+        </is>
+      </c>
+      <c r="K9" s="12" t="inlineStr">
+        <is>
+          <t>48.5h</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="inlineStr">
+        <is>
+          <t>vs 7,215</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>vs 2,876</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>vs 1,123</t>
+        </is>
+      </c>
+      <c r="G10" s="16" t="inlineStr">
+        <is>
+          <t>vs 3,912</t>
+        </is>
+      </c>
+      <c r="I10" s="16" t="inlineStr">
+        <is>
+          <t>vs 78.2%</t>
+        </is>
+      </c>
+      <c r="K10" s="16" t="inlineStr">
+        <is>
+          <t>vs 56.3h</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Multi-Reopened Bugs (count)</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>Escaped Bugs (count)</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>Regression Bugs (count)</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>Critical Bugs (count)</t>
-        </is>
-      </c>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>High Severity Bugs (count)</t>
-        </is>
-      </c>
-      <c r="K11" s="5" t="inlineStr">
-        <is>
-          <t>Medium Severity Bugs (count)</t>
-        </is>
-      </c>
-      <c r="M11" s="5" t="inlineStr">
-        <is>
-          <t>Low Severity Bugs (count)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>0.2K</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>0.4K</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>0.8K</t>
-        </is>
-      </c>
-      <c r="I12" s="6" t="inlineStr">
-        <is>
-          <t>1.9K</t>
-        </is>
-      </c>
-      <c r="K12" s="6" t="inlineStr">
-        <is>
-          <t>3.2K</t>
-        </is>
-      </c>
-      <c r="M12" s="6" t="inlineStr">
-        <is>
-          <t>2.5K</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 0.3K</t>
-        </is>
-      </c>
-      <c r="B13" s="9" t="inlineStr">
-        <is>
-          <t>-33%</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 0.6K</t>
-        </is>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>-33%</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 0.4K</t>
-        </is>
-      </c>
-      <c r="F13" s="9" t="inlineStr">
-        <is>
-          <t>-25%</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 1.1K</t>
-        </is>
-      </c>
-      <c r="H13" s="9" t="inlineStr">
-        <is>
-          <t>-27%</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 1.6K</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>+19%</t>
-        </is>
-      </c>
-      <c r="K13" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 2.8K</t>
-        </is>
-      </c>
-      <c r="L13" s="8" t="inlineStr">
-        <is>
-          <t>+14%</t>
-        </is>
-      </c>
-      <c r="M13" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 1.7K</t>
-        </is>
-      </c>
-      <c r="N13" s="8" t="inlineStr">
-        <is>
-          <t>+47%</t>
+          <t>+16.8%</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>-25.4%</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>-25.0%</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>+22.2%</t>
+        </is>
+      </c>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>+9.2%</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>-13.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>High Severity</t>
+        </is>
+      </c>
+      <c r="C14" s="17" t="inlineStr">
+        <is>
+          <t>Medium Severity</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Low Severity</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr">
+        <is>
+          <t>Reopened Bugs</t>
+        </is>
+      </c>
+      <c r="I14" s="7" t="inlineStr">
+        <is>
+          <t>Escaped Bugs</t>
+        </is>
+      </c>
+      <c r="K14" s="7" t="inlineStr">
+        <is>
+          <t>P0 Bugs</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>P0 Bugs (count)</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>P1 Bugs (count)</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>P2 Bugs (count)</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>Blocking Bugs (count)</t>
-        </is>
-      </c>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>Customer Reported Bugs (count)</t>
-        </is>
-      </c>
-      <c r="K15" s="5" t="inlineStr">
-        <is>
-          <t>Security Bugs (count)</t>
-        </is>
-      </c>
-      <c r="M15" s="5" t="inlineStr">
-        <is>
-          <t>Performance Bugs (count)</t>
+      <c r="A15" s="10" t="inlineStr">
+        <is>
+          <t>1,928</t>
+        </is>
+      </c>
+      <c r="C15" s="18" t="inlineStr">
+        <is>
+          <t>3,201</t>
+        </is>
+      </c>
+      <c r="E15" s="12" t="inlineStr">
+        <is>
+          <t>2,518</t>
+        </is>
+      </c>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K15" s="11" t="inlineStr">
+        <is>
+          <t>512</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>0.5K</t>
-        </is>
-      </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>1.3K</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>2.8K</t>
-        </is>
-      </c>
-      <c r="G16" s="6" t="inlineStr">
-        <is>
-          <t>0.7K</t>
-        </is>
-      </c>
-      <c r="I16" s="6" t="inlineStr">
-        <is>
-          <t>1.1K</t>
-        </is>
-      </c>
-      <c r="K16" s="6" t="inlineStr">
-        <is>
-          <t>0.3K</t>
-        </is>
-      </c>
-      <c r="M16" s="6" t="inlineStr">
-        <is>
-          <t>0.5K</t>
+      <c r="A16" s="14" t="inlineStr">
+        <is>
+          <t>vs 1,645</t>
+        </is>
+      </c>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>vs 2,834</t>
+        </is>
+      </c>
+      <c r="E16" s="16" t="inlineStr">
+        <is>
+          <t>vs 1,713</t>
+        </is>
+      </c>
+      <c r="G16" s="15" t="inlineStr">
+        <is>
+          <t>vs 834</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>vs 623</t>
+        </is>
+      </c>
+      <c r="K16" s="15" t="inlineStr">
+        <is>
+          <t>vs 734</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 0.7K</t>
-        </is>
-      </c>
-      <c r="B17" s="9" t="inlineStr">
-        <is>
-          <t>-29%</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 1.1K</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>+18%</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 2.4K</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr">
-        <is>
-          <t>+17%</t>
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>+17.2%</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t>+13.0%</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>+47.1%</t>
         </is>
       </c>
       <c r="G17" s="7" t="inlineStr">
         <is>
-          <t>vs prev: 0.9K</t>
-        </is>
-      </c>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>-22%</t>
+          <t>-25.5%</t>
         </is>
       </c>
       <c r="I17" s="7" t="inlineStr">
         <is>
-          <t>vs prev: 1.4K</t>
-        </is>
-      </c>
-      <c r="J17" s="9" t="inlineStr">
-        <is>
-          <t>-21%</t>
+          <t>-33.9%</t>
         </is>
       </c>
       <c r="K17" s="7" t="inlineStr">
         <is>
-          <t>vs prev: 0.2K</t>
-        </is>
-      </c>
-      <c r="L17" s="8" t="inlineStr">
-        <is>
-          <t>+50%</t>
-        </is>
-      </c>
-      <c r="M17" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 0.4K</t>
-        </is>
-      </c>
-      <c r="N17" s="8" t="inlineStr">
-        <is>
-          <t>+25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>User Interface Bugs (count)</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>Data Integrity Bugs (count)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>1.8K</t>
-        </is>
-      </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>0.4K</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 1.5K</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>+20%</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>vs prev: 0.3K</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>+33%</t>
-        </is>
+          <t>-30.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Opened</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2145</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>842</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3501</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1928</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2300</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1950</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Severity</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Metric 1</t>
-        </is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1523</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3201</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2150</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2100</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Metric 2</t>
-        </is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>2876</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>Resolved</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>980</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3200</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>W1</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>100</v>
-      </c>
-      <c r="K28" t="n">
-        <v>95</v>
+        <v>4782</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2518</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>3709</v>
       </c>
     </row>
     <row r="29">
@@ -1489,83 +1835,186 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>650</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>800</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>110</v>
-      </c>
-      <c r="K29" t="n">
-        <v>102</v>
+        <v>3945</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2350</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>360</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1900</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>105</v>
-      </c>
-      <c r="K30" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Open Bugs</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>Resolved</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>180</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>120</v>
-      </c>
-      <c r="K31" t="n">
-        <v>110</v>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UI/UX</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1845</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>523</v>
+      </c>
+      <c r="F35" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>512</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>634</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>318</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Team C</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>445</v>
+      </c>
+      <c r="F37" t="n">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Data Integrity</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>445</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Team D</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>543</v>
+      </c>
+      <c r="F38" t="n">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Database</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
   </mergeCells>
+  <dataValidations count="5">
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Entry" error="Invalid selection. Please choose from the list." promptTitle="Select Project" prompt="Please select Project" type="list">
+      <formula1>"All,Project Alpha,Project Beta,Project Gamma"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Entry" error="Invalid selection. Please choose from the list." promptTitle="Select Team" prompt="Please select Team" type="list">
+      <formula1>"All,Team A,Team B,Team C,Team D"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Entry" error="Invalid selection. Please choose from the list." promptTitle="Select Sprint" prompt="Please select Sprint" type="list">
+      <formula1>"All,Sprint 1,Sprint 2,Sprint 3,Sprint 4,Sprint 5"</formula1>
+    </dataValidation>
+    <dataValidation sqref="K5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Entry" error="Invalid selection. Please choose from the list." promptTitle="Select Severity" prompt="Please select Severity" type="list">
+      <formula1>"All,Critical,High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation sqref="M5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Entry" error="Invalid selection. Please choose from the list." promptTitle="Select State" prompt="Please select State" type="list">
+      <formula1>"All,Open,Active,In Progress,Resolved,Closed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
@@ -1593,27 +2042,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Code</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>Metric Name</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>Formula (as Text)</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="20" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
@@ -1633,7 +2082,7 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D2" s="21" t="inlineStr">
         <is>
           <t>=SUM('Bugs'[BusinessImpact])</t>
         </is>
@@ -1658,7 +2107,7 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="inlineStr">
+      <c r="D3" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE('Bugs'[BusinessImpact])</t>
         </is>
@@ -1683,7 +2132,7 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="11" t="inlineStr">
+      <c r="D4" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[BusinessImpact] &gt; 10000)</t>
         </is>
@@ -1708,7 +2157,7 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="11" t="inlineStr">
+      <c r="D5" s="21" t="inlineStr">
         <is>
           <t>=SWITCH(TRUE(),
         [V23_Security_Bugs] &gt; 10, "High",
@@ -1737,7 +2186,7 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D6" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Compliance")</t>
         </is>
@@ -1762,7 +2211,7 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="D7" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Data Loss")</t>
         </is>
@@ -1787,7 +2236,7 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="11" t="inlineStr">
+      <c r="D8" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
@@ -1816,7 +2265,7 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="11" t="inlineStr">
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>=[J18_Project_Cost_of_Quality]</t>
         </is>
@@ -1841,7 +2290,7 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="11" t="inlineStr">
+      <c r="D10" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         VALUES(raw_data!D:D),
@@ -1869,7 +2318,7 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>=SUM('Bugs'[BusinessImpact])</t>
         </is>
@@ -1894,7 +2343,7 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="11" t="inlineStr">
+      <c r="D12" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         VALUES('Bugs'[ModuleName]),
@@ -1922,7 +2371,7 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="11" t="inlineStr">
+      <c r="D13" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
@@ -1950,7 +2399,7 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="11" t="inlineStr">
+      <c r="D14" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
@@ -1978,7 +2427,7 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="11" t="inlineStr">
+      <c r="D15" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
@@ -2006,7 +2455,7 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="11" t="inlineStr">
+      <c r="D16" s="21" t="inlineStr">
         <is>
           <t>=([B15_Total_Business_Impact] * 0.4) +
     ([B19_Escaped_Bug_Impact] * 0.35) +
@@ -2033,7 +2482,7 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="11" t="inlineStr">
+      <c r="D17" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE('Bugs'[TotalEffortHrs]) * 100</t>
         </is>
@@ -2058,7 +2507,7 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="11" t="inlineStr">
+      <c r="D18" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
@@ -2086,7 +2535,7 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="11" t="inlineStr">
+      <c r="D19" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
@@ -2114,7 +2563,7 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="11" t="inlineStr">
+      <c r="D20" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         SUM('Bugs'[TotalEffortHrs]),
@@ -2142,7 +2591,7 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="11" t="inlineStr">
+      <c r="D21" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         SUM('Bugs'[BusinessImpact]),
@@ -2170,7 +2619,7 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="11" t="inlineStr">
+      <c r="D22" s="21" t="inlineStr">
         <is>
           <t>=[V22_Customer_Reported_Bugs]</t>
         </is>
@@ -2195,7 +2644,7 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="11" t="inlineStr">
+      <c r="D23" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE([C01_Customer_Reported_Bugs], [V01_Total_Bugs], 0)</t>
         </is>
@@ -2220,7 +2669,7 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="11" t="inlineStr">
+      <c r="D24" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE),
@@ -2248,7 +2697,7 @@
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="11" t="inlineStr">
+      <c r="D25" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE),
@@ -2276,7 +2725,7 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="11" t="inlineStr">
+      <c r="D26" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
@@ -2305,7 +2754,7 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" s="11" t="inlineStr">
+      <c r="D27" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
@@ -2334,7 +2783,7 @@
       <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="11" t="inlineStr">
+      <c r="D28" s="21" t="inlineStr">
         <is>
           <t>=1 - ([C02_Customer_Bug_Rate] * 0.4 + [Q01_Escape_Rate] * 0.6)</t>
         </is>
@@ -2359,7 +2808,7 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="11" t="inlineStr">
+      <c r="D29" s="21" t="inlineStr">
         <is>
           <t>=([C05_Customer_Critical_Bugs] * 10) +
     ([C06_Customer_High_Bugs] * 5) +
@@ -2386,7 +2835,7 @@
       <c r="C30" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="11" t="inlineStr">
+      <c r="D30" s="21" t="inlineStr">
         <is>
           <t>=Complex formula (see DAX reference)</t>
         </is>
@@ -2411,7 +2860,7 @@
       <c r="C31" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="11" t="inlineStr">
+      <c r="D31" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!AM:AM &gt; 0, raw_data!I:I = TRUE),
@@ -2440,7 +2889,7 @@
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="11" t="inlineStr">
+      <c r="D32" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE),
@@ -2468,7 +2917,7 @@
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33" s="11" t="inlineStr">
+      <c r="D33" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!E:E = "P0", raw_data!I:I = TRUE),
@@ -2497,7 +2946,7 @@
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="11" t="inlineStr">
+      <c r="D34" s="21" t="inlineStr">
         <is>
           <t>=([C07_Customer_Satisfaction_Index] * 0.4) +
     ((1 - [C10_Customer_Reopen_Rate]) * 0.3) +
@@ -2524,7 +2973,7 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" s="11" t="inlineStr">
+      <c r="D35" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}, raw_data!I:I = TRUE),
@@ -2553,7 +3002,7 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" s="11" t="inlineStr">
+      <c r="D36" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
@@ -2582,7 +3031,7 @@
       <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="D37" s="11" t="inlineStr">
+      <c r="D37" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE),
@@ -2610,7 +3059,7 @@
       <c r="C38" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="11" t="inlineStr">
+      <c r="D38" s="21" t="inlineStr">
         <is>
           <t>=Complex formula (see DAX reference)</t>
         </is>
@@ -2635,7 +3084,7 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" s="11" t="inlineStr">
+      <c r="D39" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', raw_data!I:I = TRUE &amp;&amp; raw_data!E:E = "P0"),
@@ -2663,7 +3112,7 @@
       <c r="C40" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="11" t="inlineStr">
+      <c r="D40" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BR:BR,"By Design")</t>
         </is>
@@ -2688,7 +3137,7 @@
       <c r="C41" t="n">
         <v>4</v>
       </c>
-      <c r="D41" s="11" t="inlineStr">
+      <c r="D41" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BR:BR,"Cannot Reproduce")</t>
         </is>
@@ -2713,7 +3162,7 @@
       <c r="C42" t="n">
         <v>21</v>
       </c>
-      <c r="D42" s="11" t="inlineStr">
+      <c r="D42" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BR:BR,"Completed")</t>
         </is>
@@ -2738,7 +3187,7 @@
       <c r="C43" t="n">
         <v>4</v>
       </c>
-      <c r="D43" s="11" t="inlineStr">
+      <c r="D43" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BR:BR,"Duplicate")</t>
         </is>
@@ -2763,7 +3212,7 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="11" t="inlineStr">
+      <c r="D44" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BR:BR,"Invalid")</t>
         </is>
@@ -2788,7 +3237,7 @@
       <c r="C45" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="11" t="inlineStr">
+      <c r="D45" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BR:BR,"Obsolete")</t>
         </is>
@@ -2813,7 +3262,7 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="11" t="inlineStr">
+      <c r="D46" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BR:BR,"Won't Fix")</t>
         </is>
@@ -2838,7 +3287,7 @@
       <c r="C47" t="n">
         <v>0</v>
       </c>
-      <c r="D47" s="11" t="inlineStr">
+      <c r="D47" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         COUNTA(raw_data!A:A)-1,
@@ -2867,7 +3316,7 @@
       <c r="C48" t="n">
         <v>12.90322580645161</v>
       </c>
-      <c r="D48" s="11" t="inlineStr">
+      <c r="D48" s="21" t="inlineStr">
         <is>
           <t>=CR02_Cannot_Reproduce_Count/V09_Closed_Bugs*100</t>
         </is>
@@ -2892,7 +3341,7 @@
       <c r="C49" t="n">
         <v>12.90322580645161</v>
       </c>
-      <c r="D49" s="11" t="inlineStr">
+      <c r="D49" s="21" t="inlineStr">
         <is>
           <t>=CR04_Duplicate_Count/V09_Closed_Bugs*100</t>
         </is>
@@ -2917,7 +3366,7 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="11" t="inlineStr">
+      <c r="D50" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [CR05_Invalid_Count],
@@ -2946,7 +3395,7 @@
       <c r="C51" t="n">
         <v>67.74193548387096</v>
       </c>
-      <c r="D51" s="11" t="inlineStr">
+      <c r="D51" s="21" t="inlineStr">
         <is>
           <t>=CR03_Completed_Count/V09_Closed_Bugs*100</t>
         </is>
@@ -2971,7 +3420,7 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" s="11" t="inlineStr">
+      <c r="D52" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [CR01_By_Design_Count],
@@ -3000,7 +3449,7 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" s="11" t="inlineStr">
+      <c r="D53" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [CR07_Wont_Fix_Count],
@@ -3029,7 +3478,7 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" s="11" t="inlineStr">
+      <c r="D54" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [CR03_Completed_Count],
@@ -3058,7 +3507,7 @@
       <c r="C55" t="n">
         <v>4680.708123076106</v>
       </c>
-      <c r="D55" s="11" t="inlineStr">
+      <c r="D55" s="21" t="inlineStr">
         <is>
           <t>=SUM(raw_data!BA:BA)</t>
         </is>
@@ -3083,7 +3532,7 @@
       <c r="C56" t="n">
         <v>46.80708123076106</v>
       </c>
-      <c r="D56" s="11" t="inlineStr">
+      <c r="D56" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!BA:BA)</t>
         </is>
@@ -3108,7 +3557,7 @@
       <c r="C57" t="n">
         <v>46.55906400149468</v>
       </c>
-      <c r="D57" s="11" t="inlineStr">
+      <c r="D57" s="21" t="inlineStr">
         <is>
           <t>=MEDIAN(raw_data!BA:BA)</t>
         </is>
@@ -3133,7 +3582,7 @@
       <c r="C58" t="n">
         <v>2063.355320835314</v>
       </c>
-      <c r="D58" s="11" t="inlineStr">
+      <c r="D58" s="21" t="inlineStr">
         <is>
           <t>=SUM(raw_data!AX:AX)</t>
         </is>
@@ -3158,7 +3607,7 @@
       <c r="C59" t="n">
         <v>943.477047758079</v>
       </c>
-      <c r="D59" s="11" t="inlineStr">
+      <c r="D59" s="21" t="inlineStr">
         <is>
           <t>=SUM(raw_data!AZ:AZ)</t>
         </is>
@@ -3183,7 +3632,7 @@
       <c r="C60" t="n">
         <v>424.2621741689522</v>
       </c>
-      <c r="D60" s="11" t="inlineStr">
+      <c r="D60" s="21" t="inlineStr">
         <is>
           <t>=SUM(raw_data!AW:AW)</t>
         </is>
@@ -3208,7 +3657,7 @@
       <c r="C61" t="n">
         <v>1045.48169488181</v>
       </c>
-      <c r="D61" s="11" t="inlineStr">
+      <c r="D61" s="21" t="inlineStr">
         <is>
           <t>=SUM(raw_data!AY:AY)</t>
         </is>
@@ -3233,7 +3682,7 @@
       <c r="C62" t="n">
         <v>0</v>
       </c>
-      <c r="D62" s="11" t="inlineStr">
+      <c r="D62" s="21" t="inlineStr">
         <is>
           <t>=SUM('Bugs'[ReopenEffortHrs])</t>
         </is>
@@ -3258,7 +3707,7 @@
       <c r="C63" t="n">
         <v>20.63355320835315</v>
       </c>
-      <c r="D63" s="11" t="inlineStr">
+      <c r="D63" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!AX:AX)</t>
         </is>
@@ -3283,7 +3732,7 @@
       <c r="C64" t="n">
         <v>9.434770477580791</v>
       </c>
-      <c r="D64" s="11" t="inlineStr">
+      <c r="D64" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!AZ:AZ)</t>
         </is>
@@ -3308,7 +3757,7 @@
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" s="11" t="inlineStr">
+      <c r="D65" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE('Bugs'[AnalysisEffortHrs])</t>
         </is>
@@ -3333,7 +3782,7 @@
       <c r="C66" t="n">
         <v>0</v>
       </c>
-      <c r="D66" s="11" t="inlineStr">
+      <c r="D66" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE('Bugs'[FixEffortHrs])</t>
         </is>
@@ -3358,7 +3807,7 @@
       <c r="C67" t="n">
         <v>44.08211891407793</v>
       </c>
-      <c r="D67" s="11" t="inlineStr">
+      <c r="D67" s="21" t="inlineStr">
         <is>
           <t>=E04_Total_Dev_Effort/E01_Total_Effort*100</t>
         </is>
@@ -3383,7 +3832,7 @@
       <c r="C68" t="n">
         <v>20.15671609829064</v>
       </c>
-      <c r="D68" s="11" t="inlineStr">
+      <c r="D68" s="21" t="inlineStr">
         <is>
           <t>=E05_Total_Test_Effort/E01_Total_Effort*100</t>
         </is>
@@ -3408,7 +3857,7 @@
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" s="11" t="inlineStr">
+      <c r="D69" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE([E06_Total_Analysis_Effort], [E01_Total_Effort], 0)</t>
         </is>
@@ -3433,7 +3882,7 @@
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70" s="11" t="inlineStr">
+      <c r="D70" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE([E07_Total_Fix_Effort], [E01_Total_Effort], 0)</t>
         </is>
@@ -3458,7 +3907,7 @@
       <c r="C71" t="n">
         <v>0</v>
       </c>
-      <c r="D71" s="11" t="inlineStr">
+      <c r="D71" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE([E08_Total_Reopen_Effort], [E01_Total_Effort], 0)</t>
         </is>
@@ -3483,7 +3932,7 @@
       <c r="C72" t="n">
         <v>0</v>
       </c>
-      <c r="D72" s="11" t="inlineStr">
+      <c r="D72" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         SUM('Bugs'[TotalEffortHrs]),
@@ -3511,7 +3960,7 @@
       <c r="C73" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="11" t="inlineStr">
+      <c r="D73" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         SUM('Bugs'[TotalEffortHrs]),
@@ -3539,7 +3988,7 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
-      <c r="D74" s="11" t="inlineStr">
+      <c r="D74" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         SUM('Bugs'[TotalEffortHrs]),
@@ -3567,7 +4016,7 @@
       <c r="C75" t="n">
         <v>0</v>
       </c>
-      <c r="D75" s="11" t="inlineStr">
+      <c r="D75" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         'Bugs',
@@ -3595,7 +4044,7 @@
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76" s="11" t="inlineStr">
+      <c r="D76" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [E21_Effort_Variance],
@@ -3624,7 +4073,7 @@
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77" s="11" t="inlineStr">
+      <c r="D77" s="21" t="inlineStr">
         <is>
           <t>=1 - ABS([E22_Effort_Variance_Pct])</t>
         </is>
@@ -3649,7 +4098,7 @@
       <c r="C78" t="n">
         <v>0</v>
       </c>
-      <c r="D78" s="11" t="inlineStr">
+      <c r="D78" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [E18_Critical_Bugs_Effort],
@@ -3678,7 +4127,7 @@
       <c r="C79" t="n">
         <v>0</v>
       </c>
-      <c r="D79" s="11" t="inlineStr">
+      <c r="D79" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [E19_High_Bugs_Effort],
@@ -3707,7 +4156,7 @@
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" s="11" t="inlineStr">
+      <c r="D80" s="21" t="inlineStr">
         <is>
           <t>=[E08_Total_Reopen_Effort]</t>
         </is>
@@ -3732,7 +4181,7 @@
       <c r="C81" t="n">
         <v>100</v>
       </c>
-      <c r="D81" s="11" t="inlineStr">
+      <c r="D81" s="21" t="inlineStr">
         <is>
           <t>=V01_Total_Bugs</t>
         </is>
@@ -3757,7 +4206,7 @@
       <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D82" s="11" t="inlineStr">
+      <c r="D82" s="21" t="inlineStr">
         <is>
           <t>=[Q14_Bug_Density]</t>
         </is>
@@ -3782,7 +4231,7 @@
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83" s="11" t="inlineStr">
+      <c r="D83" s="21" t="inlineStr">
         <is>
           <t>=[J02_Project_Bug_Density]</t>
         </is>
@@ -3807,7 +4256,7 @@
       <c r="C84" t="n">
         <v>0</v>
       </c>
-      <c r="D84" s="11" t="inlineStr">
+      <c r="D84" s="21" t="inlineStr">
         <is>
           <t>=[Q15_Critical_Bug_Density]</t>
         </is>
@@ -3832,7 +4281,7 @@
       <c r="C85" t="n">
         <v>0</v>
       </c>
-      <c r="D85" s="11" t="inlineStr">
+      <c r="D85" s="21" t="inlineStr">
         <is>
           <t>=Q01_Escape_Rate</t>
         </is>
@@ -3857,7 +4306,7 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" s="11" t="inlineStr">
+      <c r="D86" s="21" t="inlineStr">
         <is>
           <t>=[Q03_Reopen_Rate]</t>
         </is>
@@ -3882,7 +4331,7 @@
       <c r="C87" t="n">
         <v>0</v>
       </c>
-      <c r="D87" s="11" t="inlineStr">
+      <c r="D87" s="21" t="inlineStr">
         <is>
           <t>=Q13_Quality_Index</t>
         </is>
@@ -3907,7 +4356,7 @@
       <c r="C88" t="n">
         <v>209.4193548387097</v>
       </c>
-      <c r="D88" s="11" t="inlineStr">
+      <c r="D88" s="21" t="inlineStr">
         <is>
           <t>=T01_Avg_Lead_Time</t>
         </is>
@@ -3932,7 +4381,7 @@
       <c r="C89" t="n">
         <v>0</v>
       </c>
-      <c r="D89" s="11" t="inlineStr">
+      <c r="D89" s="21" t="inlineStr">
         <is>
           <t>=[T03_Avg_Cycle_Time]</t>
         </is>
@@ -3957,7 +4406,7 @@
       <c r="C90" t="n">
         <v>0</v>
       </c>
-      <c r="D90" s="11" t="inlineStr">
+      <c r="D90" s="21" t="inlineStr">
         <is>
           <t>=[E01_Total_Effort]</t>
         </is>
@@ -3982,7 +4431,7 @@
       <c r="C91" t="n">
         <v>0</v>
       </c>
-      <c r="D91" s="11" t="inlineStr">
+      <c r="D91" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         'Bugs',
@@ -4010,7 +4459,7 @@
       <c r="C92" t="n">
         <v>0</v>
       </c>
-      <c r="D92" s="11" t="inlineStr">
+      <c r="D92" s="21" t="inlineStr">
         <is>
           <t>=[E21_Effort_Variance]</t>
         </is>
@@ -4035,7 +4484,7 @@
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93" s="11" t="inlineStr">
+      <c r="D93" s="21" t="inlineStr">
         <is>
           <t>=Complex formula (see DAX reference)</t>
         </is>
@@ -4060,7 +4509,7 @@
       <c r="C94" t="n">
         <v>0</v>
       </c>
-      <c r="D94" s="11" t="inlineStr">
+      <c r="D94" s="21" t="inlineStr">
         <is>
           <t>=[V12_Escaped_Bugs]</t>
         </is>
@@ -4085,7 +4534,7 @@
       <c r="C95" t="n">
         <v>0</v>
       </c>
-      <c r="D95" s="11" t="inlineStr">
+      <c r="D95" s="21" t="inlineStr">
         <is>
           <t>=[V13_Regression_Bugs]</t>
         </is>
@@ -4110,7 +4559,7 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96" s="11" t="inlineStr">
+      <c r="D96" s="21" t="inlineStr">
         <is>
           <t>=([J07_Project_Quality_Index] * 0.4) +
     ([J13_Project_On_Time_Delivery_Rate] * 0.3) +
@@ -4137,7 +4586,7 @@
       <c r="C97" t="n">
         <v>0</v>
       </c>
-      <c r="D97" s="11" t="inlineStr">
+      <c r="D97" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [S02_Sprint_Completed_Bugs],
@@ -4166,7 +4615,7 @@
       <c r="C98" t="n">
         <v>0</v>
       </c>
-      <c r="D98" s="11" t="inlineStr">
+      <c r="D98" s="21" t="inlineStr">
         <is>
           <t>=[E08_Total_Reopen_Effort] + [E20_Escaped_Bugs_Effort]</t>
         </is>
@@ -4191,7 +4640,7 @@
       <c r="C99" t="n">
         <v>0</v>
       </c>
-      <c r="D99" s="11" t="inlineStr">
+      <c r="D99" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE([E08_Total_Reopen_Effort], [E01_Total_Effort], 0)</t>
         </is>
@@ -4216,7 +4665,7 @@
       <c r="C100" t="n">
         <v>0</v>
       </c>
-      <c r="D100" s="11" t="inlineStr">
+      <c r="D100" s="21" t="inlineStr">
         <is>
           <t>=1 - [J19_Project_Rework_Rate]</t>
         </is>
@@ -4241,7 +4690,7 @@
       <c r="C101" t="n">
         <v>12.5</v>
       </c>
-      <c r="D101" s="11" t="inlineStr">
+      <c r="D101" s="21" t="inlineStr">
         <is>
           <t>=V01_Total_Bugs/COUNTA(UNIQUE(raw_data!W:W))</t>
         </is>
@@ -4266,7 +4715,7 @@
       <c r="C102" t="n">
         <v>0</v>
       </c>
-      <c r="D102" s="11" t="inlineStr">
+      <c r="D102" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}),
@@ -4295,7 +4744,7 @@
       <c r="C103" t="n">
         <v>0</v>
       </c>
-      <c r="D103" s="11" t="inlineStr">
+      <c r="D103" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!AM:AM &gt; 0),
@@ -4324,7 +4773,7 @@
       <c r="C104" t="n">
         <v>0</v>
       </c>
-      <c r="D104" s="11" t="inlineStr">
+      <c r="D104" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE('Bugs'[FixEffortHrs])</t>
         </is>
@@ -4349,7 +4798,7 @@
       <c r="C105" t="n">
         <v>0</v>
       </c>
-      <c r="D105" s="11" t="inlineStr">
+      <c r="D105" s="21" t="inlineStr">
         <is>
           <t>=SUM('Bugs'[TotalEffortHrs])</t>
         </is>
@@ -4374,7 +4823,7 @@
       <c r="C106" t="n">
         <v>0</v>
       </c>
-      <c r="D106" s="11" t="inlineStr">
+      <c r="D106" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}),
@@ -4403,7 +4852,7 @@
       <c r="C107" t="n">
         <v>0</v>
       </c>
-      <c r="D107" s="11" t="inlineStr">
+      <c r="D107" s="21" t="inlineStr">
         <is>
           <t>=([P06_Developer_Efficiency] * 0.4) +
     ((1 - [P03_Reopen_Rate_by_Developer]) * 0.3) +
@@ -4430,7 +4879,7 @@
       <c r="C108" t="n">
         <v>0</v>
       </c>
-      <c r="D108" s="11" t="inlineStr">
+      <c r="D108" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsDuplicate] = FALSE &amp;&amp; 'Bugs'[CloseReason] != "Invalid"),
@@ -4459,7 +4908,7 @@
       <c r="C109" t="n">
         <v>0</v>
       </c>
-      <c r="D109" s="11" t="inlineStr">
+      <c r="D109" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RetestFailCount] &gt; 0),
@@ -4488,7 +4937,7 @@
       <c r="C110" t="n">
         <v>25</v>
       </c>
-      <c r="D110" s="11" t="inlineStr">
+      <c r="D110" s="21" t="inlineStr">
         <is>
           <t>=V01_Total_Bugs/COUNTA(UNIQUE(raw_data!L:L))</t>
         </is>
@@ -4513,7 +4962,7 @@
       <c r="C111" t="n">
         <v>0</v>
       </c>
-      <c r="D111" s="11" t="inlineStr">
+      <c r="D111" s="21" t="inlineStr">
         <is>
           <t>=[T01_Avg_Lead_Time]</t>
         </is>
@@ -4538,7 +4987,7 @@
       <c r="C112" t="n">
         <v>0</v>
       </c>
-      <c r="D112" s="11" t="inlineStr">
+      <c r="D112" s="21" t="inlineStr">
         <is>
           <t>=([Q05_Fix_Success_Rate] * 0.35) +
     ((1 - [Q01_Escape_Rate]) * 0.35) +
@@ -4565,7 +5014,7 @@
       <c r="C113" t="n">
         <v>17</v>
       </c>
-      <c r="D113" s="11" t="inlineStr">
+      <c r="D113" s="21" t="inlineStr">
         <is>
           <t>=V12_Escaped_Bugs/V01_Total_Bugs*100</t>
         </is>
@@ -4590,7 +5039,7 @@
       <c r="C114" t="n">
         <v>25</v>
       </c>
-      <c r="D114" s="11" t="inlineStr">
+      <c r="D114" s="21" t="inlineStr">
         <is>
           <t>=V13_Regression_Bugs/V01_Total_Bugs*100</t>
         </is>
@@ -4615,7 +5064,7 @@
       <c r="C115" t="n">
         <v>77.41935483870968</v>
       </c>
-      <c r="D115" s="11" t="inlineStr">
+      <c r="D115" s="21" t="inlineStr">
         <is>
           <t>=V10_Reopened_Bugs/V09_Closed_Bugs*100</t>
         </is>
@@ -4640,7 +5089,7 @@
       <c r="C116" t="n">
         <v>0</v>
       </c>
-      <c r="D116" s="11" t="inlineStr">
+      <c r="D116" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE([V11_Multi_Reopened_Bugs], [V09_Closed_Bugs], 0)</t>
         </is>
@@ -4665,7 +5114,7 @@
       <c r="C117" t="n">
         <v>22.58064516129032</v>
       </c>
-      <c r="D117" s="11" t="inlineStr">
+      <c r="D117" s="21" t="inlineStr">
         <is>
           <t>=(1-Q03_Reopen_Rate/100)*100</t>
         </is>
@@ -4690,7 +5139,7 @@
       <c r="C118" t="n">
         <v>0</v>
       </c>
-      <c r="D118" s="11" t="inlineStr">
+      <c r="D118" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[FixAttempts] = 1),
@@ -4719,7 +5168,7 @@
       <c r="C119" t="n">
         <v>7.000000000000001</v>
       </c>
-      <c r="D119" s="11" t="inlineStr">
+      <c r="D119" s="21" t="inlineStr">
         <is>
           <t>=V35_Duplicate_Bugs/V01_Total_Bugs*100</t>
         </is>
@@ -4744,7 +5193,7 @@
       <c r="C120" t="n">
         <v>13</v>
       </c>
-      <c r="D120" s="11" t="inlineStr">
+      <c r="D120" s="21" t="inlineStr">
         <is>
           <t>=V14_Critical_Bugs/V01_Total_Bugs*100</t>
         </is>
@@ -4769,7 +5218,7 @@
       <c r="C121" t="n">
         <v>0</v>
       </c>
-      <c r="D121" s="11" t="inlineStr">
+      <c r="D121" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE([V15_High_Severity_Bugs], [V01_Total_Bugs], 0)</t>
         </is>
@@ -4794,7 +5243,7 @@
       <c r="C122" t="n">
         <v>83</v>
       </c>
-      <c r="D122" s="11" t="inlineStr">
+      <c r="D122" s="21" t="inlineStr">
         <is>
           <t>=(V01_Total_Bugs-V12_Escaped_Bugs)/V01_Total_Bugs*100</t>
         </is>
@@ -4819,7 +5268,7 @@
       <c r="C123" t="n">
         <v>0</v>
       </c>
-      <c r="D123" s="11" t="inlineStr">
+      <c r="D123" s="21" t="inlineStr">
         <is>
           <t>=[Q10_Defect_Detection_Effectiveness_DDE]</t>
         </is>
@@ -4844,7 +5293,7 @@
       <c r="C124" t="n">
         <v>0</v>
       </c>
-      <c r="D124" s="11" t="inlineStr">
+      <c r="D124" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F IN {"Resolved", "Done", "Closed"}),
@@ -4873,7 +5322,7 @@
       <c r="C125" t="n">
         <v>0</v>
       </c>
-      <c r="D125" s="11" t="inlineStr">
+      <c r="D125" s="21" t="inlineStr">
         <is>
           <t>=(Q05_Fix_Success_Rate*0.4+Q10_Defect_Detection_Effectiveness_DDE*0.3+(100-Q01_Escape_Rate)*0.3)</t>
         </is>
@@ -4898,7 +5347,7 @@
       <c r="C126" t="n">
         <v>0</v>
       </c>
-      <c r="D126" s="11" t="inlineStr">
+      <c r="D126" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [V01_Total_Bugs],
@@ -4927,7 +5376,7 @@
       <c r="C127" t="n">
         <v>0</v>
       </c>
-      <c r="D127" s="11" t="inlineStr">
+      <c r="D127" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [V14_Critical_Bugs],
@@ -4956,7 +5405,7 @@
       <c r="C128" t="n">
         <v>0</v>
       </c>
-      <c r="D128" s="11" t="inlineStr">
+      <c r="D128" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE([V23_Security_Bugs], [V01_Total_Bugs], 0)</t>
         </is>
@@ -4981,7 +5430,7 @@
       <c r="C129" t="n">
         <v>0</v>
       </c>
-      <c r="D129" s="11" t="inlineStr">
+      <c r="D129" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE([V24_Performance_Bugs], [V01_Total_Bugs], 0)</t>
         </is>
@@ -5006,7 +5455,7 @@
       <c r="C130" t="n">
         <v>0</v>
       </c>
-      <c r="D130" s="11" t="inlineStr">
+      <c r="D130" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [V13_Regression_Bugs],
@@ -5035,7 +5484,7 @@
       <c r="C131" t="n">
         <v>0</v>
       </c>
-      <c r="D131" s="11" t="inlineStr">
+      <c r="D131" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, NOT(ISBLANK('Bugs'[RootCause]))),
@@ -5064,7 +5513,7 @@
       <c r="C132" t="n">
         <v>0</v>
       </c>
-      <c r="D132" s="11" t="inlineStr">
+      <c r="D132" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [V12_Escaped_Bugs],
@@ -5093,7 +5542,7 @@
       <c r="C133" t="n">
         <v>0</v>
       </c>
-      <c r="D133" s="11" t="inlineStr">
+      <c r="D133" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, NOT(ISBLANK('Bugs'[TestCaseID]))),
@@ -5122,7 +5571,7 @@
       <c r="C134" t="n">
         <v>0</v>
       </c>
-      <c r="D134" s="11" t="inlineStr">
+      <c r="D134" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!AM:AM)</t>
         </is>
@@ -5147,7 +5596,7 @@
       <c r="C135" t="n">
         <v>0</v>
       </c>
-      <c r="D135" s="11" t="inlineStr">
+      <c r="D135" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE('Bugs'[RiskScore])</t>
         </is>
@@ -5172,7 +5621,7 @@
       <c r="C136" t="n">
         <v>0</v>
       </c>
-      <c r="D136" s="11" t="inlineStr">
+      <c r="D136" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &gt; 7)</t>
         </is>
@@ -5197,7 +5646,7 @@
       <c r="C137" t="n">
         <v>0</v>
       </c>
-      <c r="D137" s="11" t="inlineStr">
+      <c r="D137" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &gt;= 4 &amp;&amp; 'Bugs'[RiskScore] &lt;= 7)</t>
         </is>
@@ -5222,7 +5671,7 @@
       <c r="C138" t="n">
         <v>0</v>
       </c>
-      <c r="D138" s="11" t="inlineStr">
+      <c r="D138" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[RiskScore] &lt; 4)</t>
         </is>
@@ -5247,7 +5696,7 @@
       <c r="C139" t="n">
         <v>0</v>
       </c>
-      <c r="D139" s="11" t="inlineStr">
+      <c r="D139" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         COUNTA(raw_data!A:A)-1,
@@ -5276,7 +5725,7 @@
       <c r="C140" t="n">
         <v>0</v>
       </c>
-      <c r="D140" s="11" t="inlineStr">
+      <c r="D140" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
@@ -5305,7 +5754,7 @@
       <c r="C141" t="n">
         <v>0</v>
       </c>
-      <c r="D141" s="11" t="inlineStr">
+      <c r="D141" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
@@ -5333,7 +5782,7 @@
       <c r="C142" t="n">
         <v>0</v>
       </c>
-      <c r="D142" s="11" t="inlineStr">
+      <c r="D142" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
@@ -5361,7 +5810,7 @@
       <c r="C143" t="n">
         <v>0</v>
       </c>
-      <c r="D143" s="11" t="inlineStr">
+      <c r="D143" s="21" t="inlineStr">
         <is>
           <t>=SUMX(
         FILTER('Bugs', raw_data!F:F = "Open"),
@@ -5389,7 +5838,7 @@
       <c r="C144" t="n">
         <v>0</v>
       </c>
-      <c r="D144" s="11" t="inlineStr">
+      <c r="D144" s="21" t="inlineStr">
         <is>
           <t>=VAR ActualEscapes = [V12_Escaped_Bugs]
     VAR PredictedEscapes = [R07_Predicted_Escapes]
@@ -5416,7 +5865,7 @@
       <c r="C145" t="n">
         <v>0</v>
       </c>
-      <c r="D145" s="11" t="inlineStr">
+      <c r="D145" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         VALUES('Bugs'[ModuleName]),
@@ -5444,7 +5893,7 @@
       <c r="C146" t="n">
         <v>0</v>
       </c>
-      <c r="D146" s="11" t="inlineStr">
+      <c r="D146" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         VALUES('Bugs'[TeamName]),
@@ -5472,7 +5921,7 @@
       <c r="C147" t="n">
         <v>0</v>
       </c>
-      <c r="D147" s="11" t="inlineStr">
+      <c r="D147" s="21" t="inlineStr">
         <is>
           <t>=VAR CurrentRisk = [R01_Overall_Risk_Score]
     VAR PreviousRisk = CALCULATE([R01_Overall_Risk_Score], DATEADD('Date'[Date], -1, MONTH))
@@ -5499,7 +5948,7 @@
       <c r="C148" t="n">
         <v>0</v>
       </c>
-      <c r="D148" s="11" t="inlineStr">
+      <c r="D148" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
@@ -5528,7 +5977,7 @@
       <c r="C149" t="n">
         <v>0</v>
       </c>
-      <c r="D149" s="11" t="inlineStr">
+      <c r="D149" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [R16_High_Risk_Critical_Bugs],
@@ -5557,7 +6006,7 @@
       <c r="C150" t="n">
         <v>0</v>
       </c>
-      <c r="D150" s="11" t="inlineStr">
+      <c r="D150" s="21" t="inlineStr">
         <is>
           <t>=Complex formula (see DAX reference)</t>
         </is>
@@ -5582,7 +6031,7 @@
       <c r="C151" t="n">
         <v>0</v>
       </c>
-      <c r="D151" s="11" t="inlineStr">
+      <c r="D151" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsAnomaly] = TRUE)</t>
         </is>
@@ -5607,7 +6056,7 @@
       <c r="C152" t="n">
         <v>0</v>
       </c>
-      <c r="D152" s="11" t="inlineStr">
+      <c r="D152" s="21" t="inlineStr">
         <is>
           <t>=([R01_Overall_Risk_Score] * 0.3) +
     ([V14_Critical_Bugs] * 0.25) +
@@ -5635,7 +6084,7 @@
       <c r="C153" t="n">
         <v>0</v>
       </c>
-      <c r="D153" s="11" t="inlineStr">
+      <c r="D153" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', 'Bugs'[RiskScore] &gt; 7),
@@ -5663,7 +6112,7 @@
       <c r="C154" t="n">
         <v>0</v>
       </c>
-      <c r="D154" s="11" t="inlineStr">
+      <c r="D154" s="21" t="inlineStr">
         <is>
           <t>=VAR CurrentVelocity = [S01_Sprint_Velocity]
     VAR RiskFactor = [R01_Overall_Risk_Score] / 10
@@ -5690,7 +6139,7 @@
       <c r="C155" t="n">
         <v>0</v>
       </c>
-      <c r="D155" s="11" t="inlineStr">
+      <c r="D155" s="21" t="inlineStr">
         <is>
           <t>=VAR AvgBugsPerSprint = AVERAGEX(VALUES('Sprint'[SprintID]), [S09_Sprint_Inflow])
     VAR Trend = [TR04_Bug_Trend_7Days]
@@ -5717,7 +6166,7 @@
       <c r="C156" t="n">
         <v>0</v>
       </c>
-      <c r="D156" s="11" t="inlineStr">
+      <c r="D156" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [R02_High_Risk_Bugs],
@@ -5746,7 +6195,7 @@
       <c r="C157" t="n">
         <v>0</v>
       </c>
-      <c r="D157" s="11" t="inlineStr">
+      <c r="D157" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         SUM('Bugs'[RiskScore]),
@@ -5774,7 +6223,7 @@
       <c r="C158" t="n">
         <v>20</v>
       </c>
-      <c r="D158" s="11" t="inlineStr">
+      <c r="D158" s="21" t="inlineStr">
         <is>
           <t>=V01_Total_Bugs/COUNTA(UNIQUE(raw_data!P:P))</t>
         </is>
@@ -5799,7 +6248,7 @@
       <c r="C159" t="n">
         <v>51</v>
       </c>
-      <c r="D159" s="11" t="inlineStr">
+      <c r="D159" s="21" t="inlineStr">
         <is>
           <t>=COUNTIFS(raw_data!F:F,"Done")+COUNTIFS(raw_data!F:F,"Closed")</t>
         </is>
@@ -5824,7 +6273,7 @@
       <c r="C160" t="n">
         <v>0</v>
       </c>
-      <c r="D160" s="11" t="inlineStr">
+      <c r="D160" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
@@ -5852,7 +6301,7 @@
       <c r="C161" t="n">
         <v>0</v>
       </c>
-      <c r="D161" s="11" t="inlineStr">
+      <c r="D161" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE([S03_Sprint_Carryover], [S01_Sprint_Velocity], 0)</t>
         </is>
@@ -5877,7 +6326,7 @@
       <c r="C162" t="n">
         <v>51</v>
       </c>
-      <c r="D162" s="11" t="inlineStr">
+      <c r="D162" s="21" t="inlineStr">
         <is>
           <t>=S02_Sprint_Completed_Bugs/V01_Total_Bugs*100</t>
         </is>
@@ -5902,7 +6351,7 @@
       <c r="C163" t="n">
         <v>0</v>
       </c>
-      <c r="D163" s="11" t="inlineStr">
+      <c r="D163" s="21" t="inlineStr">
         <is>
           <t>=[T03_Avg_Cycle_Time]</t>
         </is>
@@ -5927,7 +6376,7 @@
       <c r="C164" t="n">
         <v>0</v>
       </c>
-      <c r="D164" s="11" t="inlineStr">
+      <c r="D164" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
@@ -5956,7 +6405,7 @@
       <c r="C165" t="n">
         <v>0</v>
       </c>
-      <c r="D165" s="11" t="inlineStr">
+      <c r="D165" s="21" t="inlineStr">
         <is>
           <t>=[S02_Sprint_Completed_Bugs]</t>
         </is>
@@ -5981,7 +6430,7 @@
       <c r="C166" t="n">
         <v>0</v>
       </c>
-      <c r="D166" s="11" t="inlineStr">
+      <c r="D166" s="21" t="inlineStr">
         <is>
           <t>=[S03_Sprint_Carryover]</t>
         </is>
@@ -6006,7 +6455,7 @@
       <c r="C167" t="n">
         <v>0</v>
       </c>
-      <c r="D167" s="11" t="inlineStr">
+      <c r="D167" s="21" t="inlineStr">
         <is>
           <t>=ABS([S09_Sprint_Inflow] - [S01_Sprint_Velocity])</t>
         </is>
@@ -6031,7 +6480,7 @@
       <c r="C168" t="n">
         <v>0</v>
       </c>
-      <c r="D168" s="11" t="inlineStr">
+      <c r="D168" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [S01_Sprint_Velocity] - [S12_Sprint_Scope_Change],
@@ -6060,7 +6509,7 @@
       <c r="C169" t="n">
         <v>0</v>
       </c>
-      <c r="D169" s="11" t="inlineStr">
+      <c r="D169" s="21" t="inlineStr">
         <is>
           <t>=[S02_Sprint_Completed_Bugs]</t>
         </is>
@@ -6085,7 +6534,7 @@
       <c r="C170" t="n">
         <v>0</v>
       </c>
-      <c r="D170" s="11" t="inlineStr">
+      <c r="D170" s="21" t="inlineStr">
         <is>
           <t>=[T01_Avg_Lead_Time]</t>
         </is>
@@ -6110,7 +6559,7 @@
       <c r="C171" t="n">
         <v>0</v>
       </c>
-      <c r="D171" s="11" t="inlineStr">
+      <c r="D171" s="21" t="inlineStr">
         <is>
           <t>=[S05_Sprint_Completion_Rate]</t>
         </is>
@@ -6135,7 +6584,7 @@
       <c r="C172" t="n">
         <v>0</v>
       </c>
-      <c r="D172" s="11" t="inlineStr">
+      <c r="D172" s="21" t="inlineStr">
         <is>
           <t>=[Q13_Quality_Index]</t>
         </is>
@@ -6160,7 +6609,7 @@
       <c r="C173" t="n">
         <v>0</v>
       </c>
-      <c r="D173" s="11" t="inlineStr">
+      <c r="D173" s="21" t="inlineStr">
         <is>
           <t>=[Q14_Bug_Density]</t>
         </is>
@@ -6185,7 +6634,7 @@
       <c r="C174" t="n">
         <v>12.27906976744186</v>
       </c>
-      <c r="D174" s="11" t="inlineStr">
+      <c r="D174" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!AQ:AQ)</t>
         </is>
@@ -6210,7 +6659,7 @@
       <c r="C175" t="n">
         <v>10</v>
       </c>
-      <c r="D175" s="11" t="inlineStr">
+      <c r="D175" s="21" t="inlineStr">
         <is>
           <t>=MEDIAN(raw_data!AQ:AQ)</t>
         </is>
@@ -6235,7 +6684,7 @@
       <c r="C176" t="n">
         <v>24</v>
       </c>
-      <c r="D176" s="11" t="inlineStr">
+      <c r="D176" s="21" t="inlineStr">
         <is>
           <t>=MAX(raw_data!AQ:AQ)</t>
         </is>
@@ -6260,7 +6709,7 @@
       <c r="C177" t="n">
         <v>0</v>
       </c>
-      <c r="D177" s="11" t="inlineStr">
+      <c r="D177" s="21" t="inlineStr">
         <is>
           <t>=COUNTIFS(raw_data!F:F,"Triage",raw_data!AQ:AQ,"&gt;24")</t>
         </is>
@@ -6285,7 +6734,7 @@
       <c r="C178" t="n">
         <v>38.3974358974359</v>
       </c>
-      <c r="D178" s="11" t="inlineStr">
+      <c r="D178" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!AR:AR)</t>
         </is>
@@ -6310,7 +6759,7 @@
       <c r="C179" t="n">
         <v>66.3015873015873</v>
       </c>
-      <c r="D179" s="11" t="inlineStr">
+      <c r="D179" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!AS:AS)</t>
         </is>
@@ -6335,7 +6784,7 @@
       <c r="C180" t="n">
         <v>67</v>
       </c>
-      <c r="D180" s="11" t="inlineStr">
+      <c r="D180" s="21" t="inlineStr">
         <is>
           <t>=MEDIAN(raw_data!AS:AS)</t>
         </is>
@@ -6360,7 +6809,7 @@
       <c r="C181" t="n">
         <v>29.9</v>
       </c>
-      <c r="D181" s="11" t="inlineStr">
+      <c r="D181" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!AT:AT)</t>
         </is>
@@ -6385,7 +6834,7 @@
       <c r="C182" t="n">
         <v>33.5</v>
       </c>
-      <c r="D182" s="11" t="inlineStr">
+      <c r="D182" s="21" t="inlineStr">
         <is>
           <t>=MEDIAN(raw_data!AT:AT)</t>
         </is>
@@ -6410,7 +6859,7 @@
       <c r="C183" t="n">
         <v>0</v>
       </c>
-      <c r="D183" s="11" t="inlineStr">
+      <c r="D183" s="21" t="inlineStr">
         <is>
           <t>=COUNTIFS(raw_data!F:F,"Ready for Retest",raw_data!AT:AT,"&gt;48")</t>
         </is>
@@ -6435,7 +6884,7 @@
       <c r="C184" t="n">
         <v>6.27</v>
       </c>
-      <c r="D184" s="11" t="inlineStr">
+      <c r="D184" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!AP:AP)</t>
         </is>
@@ -6460,7 +6909,7 @@
       <c r="C185" t="n">
         <v>23</v>
       </c>
-      <c r="D185" s="11" t="inlineStr">
+      <c r="D185" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!AP:AP,"&gt;8")</t>
         </is>
@@ -6485,7 +6934,7 @@
       <c r="C186" t="n">
         <v>26</v>
       </c>
-      <c r="D186" s="11" t="inlineStr">
+      <c r="D186" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!AP:AP,"&lt;=4")</t>
         </is>
@@ -6510,7 +6959,7 @@
       <c r="C187" t="n">
         <v>12.79069767441861</v>
       </c>
-      <c r="D187" s="11" t="inlineStr">
+      <c r="D187" s="21" t="inlineStr">
         <is>
           <t>=COUNTIFS(raw_data!AQ:AQ,"&lt;=4")/COUNTA(raw_data!AQ:AQ)*100</t>
         </is>
@@ -6535,7 +6984,7 @@
       <c r="C188" t="n">
         <v>209.6774193548387</v>
       </c>
-      <c r="D188" s="11" t="inlineStr">
+      <c r="D188" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BW:BW,0)/V09_Closed_Bugs*100</t>
         </is>
@@ -6560,7 +7009,7 @@
       <c r="C189" t="n">
         <v>0</v>
       </c>
-      <c r="D189" s="11" t="inlineStr">
+      <c r="D189" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [V45_Completed_Bugs],
@@ -6589,7 +7038,7 @@
       <c r="C190" t="n">
         <v>0</v>
       </c>
-      <c r="D190" s="11" t="inlineStr">
+      <c r="D190" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[PreviousState] &gt; raw_data!F:F),
@@ -6618,7 +7067,7 @@
       <c r="C191" t="n">
         <v>0</v>
       </c>
-      <c r="D191" s="11" t="inlineStr">
+      <c r="D191" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[TriageDate]))),
@@ -6646,7 +7095,7 @@
       <c r="C192" t="n">
         <v>0</v>
       </c>
-      <c r="D192" s="11" t="inlineStr">
+      <c r="D192" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[TriageDate])) &amp;&amp; raw_data!F:F != "Triage"),
@@ -6674,7 +7123,7 @@
       <c r="C193" t="n">
         <v>0</v>
       </c>
-      <c r="D193" s="11" t="inlineStr">
+      <c r="D193" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[InProgressDate]))),
@@ -6702,7 +7151,7 @@
       <c r="C194" t="n">
         <v>0</v>
       </c>
-      <c r="D194" s="11" t="inlineStr">
+      <c r="D194" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[ReadyForRetestDate]))),
@@ -6730,7 +7179,7 @@
       <c r="C195" t="n">
         <v>0</v>
       </c>
-      <c r="D195" s="11" t="inlineStr">
+      <c r="D195" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[DoneDate]))),
@@ -6758,7 +7207,7 @@
       <c r="C196" t="n">
         <v>0</v>
       </c>
-      <c r="D196" s="11" t="inlineStr">
+      <c r="D196" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[ClosedDate])) &amp;&amp; NOT(ISBLANK('Bugs'[DoneDate]))),
@@ -6786,7 +7235,7 @@
       <c r="C197" t="n">
         <v>0</v>
       </c>
-      <c r="D197" s="11" t="inlineStr">
+      <c r="D197" s="21" t="inlineStr">
         <is>
           <t>=Complex formula (see DAX reference)</t>
         </is>
@@ -6811,7 +7260,7 @@
       <c r="C198" t="n">
         <v>0</v>
       </c>
-      <c r="D198" s="11" t="inlineStr">
+      <c r="D198" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [SF06_Avg_InProgress_Duration],
@@ -6840,7 +7289,7 @@
       <c r="C199" t="n">
         <v>0</v>
       </c>
-      <c r="D199" s="11" t="inlineStr">
+      <c r="D199" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         SUM('Bugs'[StateTransitionCount]),
@@ -6869,7 +7318,7 @@
       <c r="C200" t="n">
         <v>0</v>
       </c>
-      <c r="D200" s="11" t="inlineStr">
+      <c r="D200" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
@@ -6897,7 +7346,7 @@
       <c r="C201" t="n">
         <v>0</v>
       </c>
-      <c r="D201" s="11" t="inlineStr">
+      <c r="D201" s="21" t="inlineStr">
         <is>
           <t>=DIVIDE(
         [SF27_Bugs_by_Current_State],
@@ -6926,7 +7375,7 @@
       <c r="C202" t="n">
         <v>0</v>
       </c>
-      <c r="D202" s="11" t="inlineStr">
+      <c r="D202" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         COUNTA(raw_data!A:A)-1,
@@ -6955,7 +7404,7 @@
       <c r="C203" t="n">
         <v>0</v>
       </c>
-      <c r="D203" s="11" t="inlineStr">
+      <c r="D203" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[InProgressDate]))),
@@ -6983,7 +7432,7 @@
       <c r="C204" t="n">
         <v>209.4193548387097</v>
       </c>
-      <c r="D204" s="11" t="inlineStr">
+      <c r="D204" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!BD:BD)</t>
         </is>
@@ -7008,7 +7457,7 @@
       <c r="C205" t="n">
         <v>200</v>
       </c>
-      <c r="D205" s="11" t="inlineStr">
+      <c r="D205" s="21" t="inlineStr">
         <is>
           <t>=MEDIAN(raw_data!BD:BD)</t>
         </is>
@@ -7033,7 +7482,7 @@
       <c r="C206" t="n">
         <v>134.741935483871</v>
       </c>
-      <c r="D206" s="11" t="inlineStr">
+      <c r="D206" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!BE:BE)</t>
         </is>
@@ -7058,7 +7507,7 @@
       <c r="C207" t="n">
         <v>133</v>
       </c>
-      <c r="D207" s="11" t="inlineStr">
+      <c r="D207" s="21" t="inlineStr">
         <is>
           <t>=MEDIAN(raw_data!BE:BE)</t>
         </is>
@@ -7083,7 +7532,7 @@
       <c r="C208" t="n">
         <v>155.5</v>
       </c>
-      <c r="D208" s="11" t="inlineStr">
+      <c r="D208" s="21" t="inlineStr">
         <is>
           <t>=PERCENTILE(raw_data!BE:BE,0.75)</t>
         </is>
@@ -7108,7 +7557,7 @@
       <c r="C209" t="n">
         <v>0</v>
       </c>
-      <c r="D209" s="11" t="inlineStr">
+      <c r="D209" s="21" t="inlineStr">
         <is>
           <t>=PERCENTILEX.INC('Bugs', 'Bugs'[CycleTimeHrs], 0.90)</t>
         </is>
@@ -7133,7 +7582,7 @@
       <c r="C210" t="n">
         <v>0</v>
       </c>
-      <c r="D210" s="11" t="inlineStr">
+      <c r="D210" s="21" t="inlineStr">
         <is>
           <t>=PERCENTILEX.INC('Bugs', 'Bugs'[LeadTimeHrs], 0.95)</t>
         </is>
@@ -7158,7 +7607,7 @@
       <c r="C211" t="n">
         <v>315</v>
       </c>
-      <c r="D211" s="11" t="inlineStr">
+      <c r="D211" s="21" t="inlineStr">
         <is>
           <t>=MAX(raw_data!BD:BD)</t>
         </is>
@@ -7183,7 +7632,7 @@
       <c r="C212" t="n">
         <v>0</v>
       </c>
-      <c r="D212" s="11" t="inlineStr">
+      <c r="D212" s="21" t="inlineStr">
         <is>
           <t>=MAX('Bugs'[CycleTimeHrs])</t>
         </is>
@@ -7208,7 +7657,7 @@
       <c r="C213" t="n">
         <v>104</v>
       </c>
-      <c r="D213" s="11" t="inlineStr">
+      <c r="D213" s="21" t="inlineStr">
         <is>
           <t>=MIN(raw_data!BD:BD)</t>
         </is>
@@ -7233,7 +7682,7 @@
       <c r="C214" t="n">
         <v>0</v>
       </c>
-      <c r="D214" s="11" t="inlineStr">
+      <c r="D214" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[ResolvedDate]))),
@@ -7261,7 +7710,7 @@
       <c r="C215" t="n">
         <v>0</v>
       </c>
-      <c r="D215" s="11" t="inlineStr">
+      <c r="D215" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[ClosedDate]))),
@@ -7289,7 +7738,7 @@
       <c r="C216" t="n">
         <v>35.01162790697674</v>
       </c>
-      <c r="D216" s="11" t="inlineStr">
+      <c r="D216" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!BF:BF)</t>
         </is>
@@ -7314,7 +7763,7 @@
       <c r="C217" t="n">
         <v>0</v>
       </c>
-      <c r="D217" s="11" t="inlineStr">
+      <c r="D217" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE('Bugs'[FixEffortHrs])</t>
         </is>
@@ -7339,7 +7788,7 @@
       <c r="C218" t="n">
         <v>0</v>
       </c>
-      <c r="D218" s="11" t="inlineStr">
+      <c r="D218" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', NOT(ISBLANK('Bugs'[VerifiedDate])) &amp;&amp; NOT(ISBLANK('Bugs'[ResolvedDate]))),
@@ -7367,7 +7816,7 @@
       <c r="C219" t="n">
         <v>58.45</v>
       </c>
-      <c r="D219" s="11" t="inlineStr">
+      <c r="D219" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!BG:BG)</t>
         </is>
@@ -7392,7 +7841,7 @@
       <c r="C220" t="n">
         <v>41.77</v>
       </c>
-      <c r="D220" s="11" t="inlineStr">
+      <c r="D220" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!BH:BH)</t>
         </is>
@@ -7417,7 +7866,7 @@
       <c r="C221" t="n">
         <v>636.6807912721745</v>
       </c>
-      <c r="D221" s="11" t="inlineStr">
+      <c r="D221" s="21" t="inlineStr">
         <is>
           <t>=AVERAGE(raw_data!BI:BI)</t>
         </is>
@@ -7442,7 +7891,7 @@
       <c r="C222" t="n">
         <v>100</v>
       </c>
-      <c r="D222" s="11" t="inlineStr">
+      <c r="D222" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BI:BI,"&gt;7")</t>
         </is>
@@ -7467,7 +7916,7 @@
       <c r="C223" t="n">
         <v>100</v>
       </c>
-      <c r="D223" s="11" t="inlineStr">
+      <c r="D223" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BI:BI,"&gt;14")</t>
         </is>
@@ -7492,7 +7941,7 @@
       <c r="C224" t="n">
         <v>100</v>
       </c>
-      <c r="D224" s="11" t="inlineStr">
+      <c r="D224" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BI:BI,"&gt;30")</t>
         </is>
@@ -7517,7 +7966,7 @@
       <c r="C225" t="n">
         <v>100</v>
       </c>
-      <c r="D225" s="11" t="inlineStr">
+      <c r="D225" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BI:BI,"&gt;60")</t>
         </is>
@@ -7542,7 +7991,7 @@
       <c r="C226" t="n">
         <v>0</v>
       </c>
-      <c r="D226" s="11" t="inlineStr">
+      <c r="D226" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[AgeDays] &gt; 90)</t>
         </is>
@@ -7567,7 +8016,7 @@
       <c r="C227" t="n">
         <v>0</v>
       </c>
-      <c r="D227" s="11" t="inlineStr">
+      <c r="D227" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', raw_data!AM:AM &gt; 0),
@@ -7595,7 +8044,7 @@
       <c r="C228" t="n">
         <v>0</v>
       </c>
-      <c r="D228" s="11" t="inlineStr">
+      <c r="D228" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         FILTER('Bugs', raw_data!F:F = "Open"),
@@ -7623,7 +8072,7 @@
       <c r="C229" t="n">
         <v>19.94562538508934</v>
       </c>
-      <c r="D229" s="11" t="inlineStr">
+      <c r="D229" s="21" t="inlineStr">
         <is>
           <t>=T17_Avg_Active_Work_Time/T01_Avg_Lead_Time*100</t>
         </is>
@@ -7648,7 +8097,7 @@
       <c r="C230" t="n">
         <v>0</v>
       </c>
-      <c r="D230" s="11" t="inlineStr">
+      <c r="D230" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         'Bugs',
@@ -7676,7 +8125,7 @@
       <c r="C231" t="n">
         <v>0</v>
       </c>
-      <c r="D231" s="11" t="inlineStr">
+      <c r="D231" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, DATEDIFF('Bugs'[LastModifiedDate], TODAY(), DAY) &gt; 30)</t>
         </is>
@@ -7701,7 +8150,7 @@
       <c r="C232" t="n">
         <v>0</v>
       </c>
-      <c r="D232" s="11" t="inlineStr">
+      <c r="D232" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, DATEDIFF('Bugs'[LastModifiedDate], TODAY(), DAY) &lt;= 7)</t>
         </is>
@@ -7726,7 +8175,7 @@
       <c r="C233" t="n">
         <v>0</v>
       </c>
-      <c r="D233" s="11" t="inlineStr">
+      <c r="D233" s="21" t="inlineStr">
         <is>
           <t>=0</t>
         </is>
@@ -7751,7 +8200,7 @@
       <c r="C234" t="n">
         <v>0</v>
       </c>
-      <c r="D234" s="11" t="inlineStr">
+      <c r="D234" s="21" t="inlineStr">
         <is>
           <t>=0</t>
         </is>
@@ -7776,7 +8225,7 @@
       <c r="C235" t="n">
         <v>0</v>
       </c>
-      <c r="D235" s="11" t="inlineStr">
+      <c r="D235" s="21" t="inlineStr">
         <is>
           <t>=VAR Current = [Q01_Escape_Rate]
     VAR Previous = CALCULATE([Q01_Escape_Rate], DATEADD('Date'[Date], -1, MONTH))
@@ -7803,7 +8252,7 @@
       <c r="C236" t="n">
         <v>0</v>
       </c>
-      <c r="D236" s="11" t="inlineStr">
+      <c r="D236" s="21" t="inlineStr">
         <is>
           <t>=0</t>
         </is>
@@ -7828,7 +8277,7 @@
       <c r="C237" t="n">
         <v>0</v>
       </c>
-      <c r="D237" s="11" t="inlineStr">
+      <c r="D237" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         AVERAGEX(
@@ -7858,7 +8307,7 @@
       <c r="C238" t="n">
         <v>0</v>
       </c>
-      <c r="D238" s="11" t="inlineStr">
+      <c r="D238" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(
         AVERAGEX(
@@ -7888,7 +8337,7 @@
       <c r="C239" t="n">
         <v>0</v>
       </c>
-      <c r="D239" s="11" t="inlineStr">
+      <c r="D239" s="21" t="inlineStr">
         <is>
           <t>=VAR Current = [V14_Critical_Bugs]
     VAR Previous = CALCULATE([V14_Critical_Bugs], DATEADD('Date'[Date], -1, MONTH))
@@ -7915,7 +8364,7 @@
       <c r="C240" t="n">
         <v>0</v>
       </c>
-      <c r="D240" s="11" t="inlineStr">
+      <c r="D240" s="21" t="inlineStr">
         <is>
           <t>=VAR Current = [Q03_Reopen_Rate]
     VAR Previous = CALCULATE([Q03_Reopen_Rate], DATEADD('Date'[Date], -1, MONTH))
@@ -7942,7 +8391,7 @@
       <c r="C241" t="n">
         <v>0</v>
       </c>
-      <c r="D241" s="11" t="inlineStr">
+      <c r="D241" s="21" t="inlineStr">
         <is>
           <t>=VAR Current = [T01_Avg_Lead_Time]
     VAR Previous = CALCULATE([T01_Avg_Lead_Time], DATEADD('Date'[Date], -1, MONTH))
@@ -7969,7 +8418,7 @@
       <c r="C242" t="n">
         <v>0</v>
       </c>
-      <c r="D242" s="11" t="inlineStr">
+      <c r="D242" s="21" t="inlineStr">
         <is>
           <t>=VAR Current = [S01_Sprint_Velocity]
     VAR Previous = CALCULATE([S01_Sprint_Velocity], DATEADD('Date'[Date], -1, MONTH))
@@ -7996,7 +8445,7 @@
       <c r="C243" t="n">
         <v>0</v>
       </c>
-      <c r="D243" s="11" t="inlineStr">
+      <c r="D243" s="21" t="inlineStr">
         <is>
           <t>=VAR Current = [E01_Total_Effort]
     VAR Previous = CALCULATE([E01_Total_Effort], DATEADD('Date'[Date], -1, MONTH))
@@ -8023,7 +8472,7 @@
       <c r="C244" t="n">
         <v>0</v>
       </c>
-      <c r="D244" s="11" t="inlineStr">
+      <c r="D244" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         VALUES('Bugs'[ModuleName]),
@@ -8051,7 +8500,7 @@
       <c r="C245" t="n">
         <v>0</v>
       </c>
-      <c r="D245" s="11" t="inlineStr">
+      <c r="D245" s="21" t="inlineStr">
         <is>
           <t>=AVERAGEX(
         VALUES('Bugs'[TeamName]),
@@ -8079,7 +8528,7 @@
       <c r="C246" t="n">
         <v>0</v>
       </c>
-      <c r="D246" s="11" t="inlineStr">
+      <c r="D246" s="21" t="inlineStr">
         <is>
           <t>=Complex formula (see DAX reference)</t>
         </is>
@@ -8104,7 +8553,7 @@
       <c r="C247" t="n">
         <v>0</v>
       </c>
-      <c r="D247" s="11" t="inlineStr">
+      <c r="D247" s="21" t="inlineStr">
         <is>
           <t>=VAR CurrentQuarter = [V01_Total_Bugs]
     VAR PreviousQuarter = CALCULATE([V01_Total_Bugs], DATEADD('Date'[Date], -1, QUARTER))
@@ -8131,7 +8580,7 @@
       <c r="C248" t="n">
         <v>100</v>
       </c>
-      <c r="D248" s="11" t="inlineStr">
+      <c r="D248" s="21" t="inlineStr">
         <is>
           <t>=COUNTA(raw_data!A:A)-1</t>
         </is>
@@ -8156,7 +8605,7 @@
       <c r="C249" t="n">
         <v>40</v>
       </c>
-      <c r="D249" s="11" t="inlineStr">
+      <c r="D249" s="21" t="inlineStr">
         <is>
           <t>=COUNTIFS(raw_data!F:F,"Open",raw_data!F:F,"Triage",raw_data!F:F,"Active",raw_data!F:F,"In Progress",raw_data!F:F,"Ready for Retest")</t>
         </is>
@@ -8181,7 +8630,7 @@
       <c r="C250" t="n">
         <v>7</v>
       </c>
-      <c r="D250" s="11" t="inlineStr">
+      <c r="D250" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!F:F,"Triage")</t>
         </is>
@@ -8206,7 +8655,7 @@
       <c r="C251" t="n">
         <v>8</v>
       </c>
-      <c r="D251" s="11" t="inlineStr">
+      <c r="D251" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!F:F,"Active")</t>
         </is>
@@ -8231,7 +8680,7 @@
       <c r="C252" t="n">
         <v>15</v>
       </c>
-      <c r="D252" s="11" t="inlineStr">
+      <c r="D252" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!F:F,"In Progress")</t>
         </is>
@@ -8256,7 +8705,7 @@
       <c r="C253" t="n">
         <v>3</v>
       </c>
-      <c r="D253" s="11" t="inlineStr">
+      <c r="D253" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!F:F,"Ready for Retest")</t>
         </is>
@@ -8281,7 +8730,7 @@
       <c r="C254" t="n">
         <v>9</v>
       </c>
-      <c r="D254" s="11" t="inlineStr">
+      <c r="D254" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!F:F,"Resolved")</t>
         </is>
@@ -8306,7 +8755,7 @@
       <c r="C255" t="n">
         <v>20</v>
       </c>
-      <c r="D255" s="11" t="inlineStr">
+      <c r="D255" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!F:F,"Done")</t>
         </is>
@@ -8331,7 +8780,7 @@
       <c r="C256" t="n">
         <v>31</v>
       </c>
-      <c r="D256" s="11" t="inlineStr">
+      <c r="D256" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!F:F,"Closed")</t>
         </is>
@@ -8356,7 +8805,7 @@
       <c r="C257" t="n">
         <v>24</v>
       </c>
-      <c r="D257" s="11" t="inlineStr">
+      <c r="D257" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!AM:AM,"&gt;0")</t>
         </is>
@@ -8381,7 +8830,7 @@
       <c r="C258" t="n">
         <v>14</v>
       </c>
-      <c r="D258" s="11" t="inlineStr">
+      <c r="D258" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!AM:AM,"&gt;1")</t>
         </is>
@@ -8406,7 +8855,7 @@
       <c r="C259" t="n">
         <v>17</v>
       </c>
-      <c r="D259" s="11" t="inlineStr">
+      <c r="D259" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!I:I,TRUE)</t>
         </is>
@@ -8431,7 +8880,7 @@
       <c r="C260" t="n">
         <v>25</v>
       </c>
-      <c r="D260" s="11" t="inlineStr">
+      <c r="D260" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!H:H,TRUE)</t>
         </is>
@@ -8456,7 +8905,7 @@
       <c r="C261" t="n">
         <v>13</v>
       </c>
-      <c r="D261" s="11" t="inlineStr">
+      <c r="D261" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!D:D,"Critical")</t>
         </is>
@@ -8481,7 +8930,7 @@
       <c r="C262" t="n">
         <v>28</v>
       </c>
-      <c r="D262" s="11" t="inlineStr">
+      <c r="D262" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!D:D,"High")</t>
         </is>
@@ -8506,7 +8955,7 @@
       <c r="C263" t="n">
         <v>35</v>
       </c>
-      <c r="D263" s="11" t="inlineStr">
+      <c r="D263" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!D:D,"Medium")</t>
         </is>
@@ -8531,7 +8980,7 @@
       <c r="C264" t="n">
         <v>24</v>
       </c>
-      <c r="D264" s="11" t="inlineStr">
+      <c r="D264" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!D:D,"Low")</t>
         </is>
@@ -8556,7 +9005,7 @@
       <c r="C265" t="n">
         <v>5</v>
       </c>
-      <c r="D265" s="11" t="inlineStr">
+      <c r="D265" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!E:E,"P0")</t>
         </is>
@@ -8581,7 +9030,7 @@
       <c r="C266" t="n">
         <v>22</v>
       </c>
-      <c r="D266" s="11" t="inlineStr">
+      <c r="D266" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!E:E,"P1")</t>
         </is>
@@ -8606,7 +9055,7 @@
       <c r="C267" t="n">
         <v>43</v>
       </c>
-      <c r="D267" s="11" t="inlineStr">
+      <c r="D267" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!E:E,"P2")</t>
         </is>
@@ -8631,7 +9080,7 @@
       <c r="C268" t="n">
         <v>0</v>
       </c>
-      <c r="D268" s="11" t="inlineStr">
+      <c r="D268" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[IsBlocking] = TRUE)</t>
         </is>
@@ -8656,7 +9105,7 @@
       <c r="C269" t="n">
         <v>17</v>
       </c>
-      <c r="D269" s="11" t="inlineStr">
+      <c r="D269" s="21" t="inlineStr">
         <is>
           <t>=V12_Escaped_Bugs</t>
         </is>
@@ -8681,7 +9130,7 @@
       <c r="C270" t="n">
         <v>18</v>
       </c>
-      <c r="D270" s="11" t="inlineStr">
+      <c r="D270" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!G:G,"Security")</t>
         </is>
@@ -8706,7 +9155,7 @@
       <c r="C271" t="n">
         <v>12</v>
       </c>
-      <c r="D271" s="11" t="inlineStr">
+      <c r="D271" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!G:G,"Performance")</t>
         </is>
@@ -8731,7 +9180,7 @@
       <c r="C272" t="n">
         <v>15</v>
       </c>
-      <c r="D272" s="11" t="inlineStr">
+      <c r="D272" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!G:G,"UI")</t>
         </is>
@@ -8756,7 +9205,7 @@
       <c r="C273" t="n">
         <v>0</v>
       </c>
-      <c r="D273" s="11" t="inlineStr">
+      <c r="D273" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Functional")</t>
         </is>
@@ -8781,7 +9230,7 @@
       <c r="C274" t="n">
         <v>0</v>
       </c>
-      <c r="D274" s="11" t="inlineStr">
+      <c r="D274" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Category] = "Data")</t>
         </is>
@@ -8806,7 +9255,7 @@
       <c r="C275" t="n">
         <v>0</v>
       </c>
-      <c r="D275" s="11" t="inlineStr">
+      <c r="D275" s="21" t="inlineStr">
         <is>
           <t>=COUNTA(raw_data!A:A)-1</t>
         </is>
@@ -8831,7 +9280,7 @@
       <c r="C276" t="n">
         <v>0</v>
       </c>
-      <c r="D276" s="11" t="inlineStr">
+      <c r="D276" s="21" t="inlineStr">
         <is>
           <t>=COUNTA(raw_data!A:A)-1</t>
         </is>
@@ -8856,7 +9305,7 @@
       <c r="C277" t="n">
         <v>0</v>
       </c>
-      <c r="D277" s="11" t="inlineStr">
+      <c r="D277" s="21" t="inlineStr">
         <is>
           <t>=COUNTA(raw_data!A:A)-1</t>
         </is>
@@ -8881,7 +9330,7 @@
       <c r="C278" t="n">
         <v>0</v>
       </c>
-      <c r="D278" s="11" t="inlineStr">
+      <c r="D278" s="21" t="inlineStr">
         <is>
           <t>=COUNTA(raw_data!A:A)-1</t>
         </is>
@@ -8906,7 +9355,7 @@
       <c r="C279" t="n">
         <v>0</v>
       </c>
-      <c r="D279" s="11" t="inlineStr">
+      <c r="D279" s="21" t="inlineStr">
         <is>
           <t>=COUNTA(raw_data!A:A)-1</t>
         </is>
@@ -8931,7 +9380,7 @@
       <c r="C280" t="n">
         <v>0</v>
       </c>
-      <c r="D280" s="11" t="inlineStr">
+      <c r="D280" s="21" t="inlineStr">
         <is>
           <t>=COUNTA(raw_data!A:A)-1</t>
         </is>
@@ -8956,7 +9405,7 @@
       <c r="C281" t="n">
         <v>0</v>
       </c>
-      <c r="D281" s="11" t="inlineStr">
+      <c r="D281" s="21" t="inlineStr">
         <is>
           <t>=COUNTA(raw_data!A:A)-1</t>
         </is>
@@ -8981,7 +9430,7 @@
       <c r="C282" t="n">
         <v>7</v>
       </c>
-      <c r="D282" s="11" t="inlineStr">
+      <c r="D282" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BT:BT,TRUE)</t>
         </is>
@@ -9006,7 +9455,7 @@
       <c r="C283" t="n">
         <v>0</v>
       </c>
-      <c r="D283" s="11" t="inlineStr">
+      <c r="D283" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BR:BR,"Won't Fix")</t>
         </is>
@@ -9031,7 +9480,7 @@
       <c r="C284" t="n">
         <v>4</v>
       </c>
-      <c r="D284" s="11" t="inlineStr">
+      <c r="D284" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BR:BR,"Cannot Reproduce")</t>
         </is>
@@ -9056,7 +9505,7 @@
       <c r="C285" t="n">
         <v>44</v>
       </c>
-      <c r="D285" s="11" t="inlineStr">
+      <c r="D285" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BQ:BQ,"Fixed")</t>
         </is>
@@ -9081,7 +9530,7 @@
       <c r="C286" t="n">
         <v>0</v>
       </c>
-      <c r="D286" s="11" t="inlineStr">
+      <c r="D286" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Tags] CONTAINS "Production")</t>
         </is>
@@ -9106,7 +9555,7 @@
       <c r="C287" t="n">
         <v>0</v>
       </c>
-      <c r="D287" s="11" t="inlineStr">
+      <c r="D287" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, 'Bugs'[Tags] CONTAINS "QA")</t>
         </is>
@@ -9131,7 +9580,7 @@
       <c r="C288" t="n">
         <v>0</v>
       </c>
-      <c r="D288" s="11" t="inlineStr">
+      <c r="D288" s="21" t="inlineStr">
         <is>
           <t>=CALCULATE(COUNTA(raw_data!A:A)-1, raw_data!F:F = "Open")</t>
         </is>
@@ -9156,7 +9605,7 @@
       <c r="C289" t="n">
         <v>0</v>
       </c>
-      <c r="D289" s="11" t="inlineStr">
+      <c r="D289" s="21" t="inlineStr">
         <is>
           <t>=[V41_Backlog_Bugs]</t>
         </is>
@@ -9181,7 +9630,7 @@
       <c r="C290" t="n">
         <v>0</v>
       </c>
-      <c r="D290" s="11" t="inlineStr">
+      <c r="D290" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BR:BR,"Invalid")</t>
         </is>
@@ -9206,7 +9655,7 @@
       <c r="C291" t="n">
         <v>1</v>
       </c>
-      <c r="D291" s="11" t="inlineStr">
+      <c r="D291" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BR:BR,"Obsolete")</t>
         </is>
@@ -9231,7 +9680,7 @@
       <c r="C292" t="n">
         <v>21</v>
       </c>
-      <c r="D292" s="11" t="inlineStr">
+      <c r="D292" s="21" t="inlineStr">
         <is>
           <t>=COUNTIF(raw_data!BR:BR,"Completed")</t>
         </is>
@@ -9262,372 +9711,372 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>BugID</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Severity</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="22" t="inlineStr">
         <is>
           <t>IsRegression</t>
         </is>
       </c>
-      <c r="I1" s="12" t="inlineStr">
+      <c r="I1" s="22" t="inlineStr">
         <is>
           <t>is_escaped</t>
         </is>
       </c>
-      <c r="J1" s="12" t="inlineStr">
+      <c r="J1" s="22" t="inlineStr">
         <is>
           <t>ProjectID</t>
         </is>
       </c>
-      <c r="K1" s="12" t="inlineStr">
+      <c r="K1" s="22" t="inlineStr">
         <is>
           <t>ProjectName</t>
         </is>
       </c>
-      <c r="L1" s="12" t="inlineStr">
+      <c r="L1" s="22" t="inlineStr">
         <is>
           <t>TeamName</t>
         </is>
       </c>
-      <c r="M1" s="12" t="inlineStr">
+      <c r="M1" s="22" t="inlineStr">
         <is>
           <t>TeamID</t>
         </is>
       </c>
-      <c r="N1" s="12" t="inlineStr">
+      <c r="N1" s="22" t="inlineStr">
         <is>
           <t>ModuleID</t>
         </is>
       </c>
-      <c r="O1" s="12" t="inlineStr">
+      <c r="O1" s="22" t="inlineStr">
         <is>
           <t>ModuleName</t>
         </is>
       </c>
-      <c r="P1" s="12" t="inlineStr">
+      <c r="P1" s="22" t="inlineStr">
         <is>
           <t>SprintName</t>
         </is>
       </c>
-      <c r="Q1" s="12" t="inlineStr">
+      <c r="Q1" s="22" t="inlineStr">
         <is>
           <t>SprintID</t>
         </is>
       </c>
-      <c r="R1" s="12" t="inlineStr">
+      <c r="R1" s="22" t="inlineStr">
         <is>
           <t>Tags</t>
         </is>
       </c>
-      <c r="S1" s="12" t="inlineStr">
+      <c r="S1" s="22" t="inlineStr">
         <is>
           <t>ExternalTicketID</t>
         </is>
       </c>
-      <c r="T1" s="12" t="inlineStr">
+      <c r="T1" s="22" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
       </c>
-      <c r="U1" s="12" t="inlineStr">
+      <c r="U1" s="22" t="inlineStr">
         <is>
           <t>ReporterName</t>
         </is>
       </c>
-      <c r="V1" s="12" t="inlineStr">
+      <c r="V1" s="22" t="inlineStr">
         <is>
           <t>ReporterID</t>
         </is>
       </c>
-      <c r="W1" s="12" t="inlineStr">
+      <c r="W1" s="22" t="inlineStr">
         <is>
           <t>AssigneeName</t>
         </is>
       </c>
-      <c r="X1" s="12" t="inlineStr">
+      <c r="X1" s="22" t="inlineStr">
         <is>
           <t>AssigneeID</t>
         </is>
       </c>
-      <c r="Y1" s="12" t="inlineStr">
+      <c r="Y1" s="22" t="inlineStr">
         <is>
           <t>VerifierName</t>
         </is>
       </c>
-      <c r="Z1" s="12" t="inlineStr">
+      <c r="Z1" s="22" t="inlineStr">
         <is>
           <t>VerifierID</t>
         </is>
       </c>
-      <c r="AA1" s="12" t="inlineStr">
+      <c r="AA1" s="22" t="inlineStr">
         <is>
           <t>ResolverName</t>
         </is>
       </c>
-      <c r="AB1" s="12" t="inlineStr">
+      <c r="AB1" s="22" t="inlineStr">
         <is>
           <t>ResolverID</t>
         </is>
       </c>
-      <c r="AC1" s="12" t="inlineStr">
+      <c r="AC1" s="22" t="inlineStr">
         <is>
           <t>CreatedDate</t>
         </is>
       </c>
-      <c r="AD1" s="12" t="inlineStr">
+      <c r="AD1" s="22" t="inlineStr">
         <is>
           <t>TriageDate</t>
         </is>
       </c>
-      <c r="AE1" s="12" t="inlineStr">
+      <c r="AE1" s="22" t="inlineStr">
         <is>
           <t>AssignedDate</t>
         </is>
       </c>
-      <c r="AF1" s="12" t="inlineStr">
+      <c r="AF1" s="22" t="inlineStr">
         <is>
           <t>StartedDate</t>
         </is>
       </c>
-      <c r="AG1" s="12" t="inlineStr">
+      <c r="AG1" s="22" t="inlineStr">
         <is>
           <t>InProgressDate</t>
         </is>
       </c>
-      <c r="AH1" s="12" t="inlineStr">
+      <c r="AH1" s="22" t="inlineStr">
         <is>
           <t>ReadyForRetestDate</t>
         </is>
       </c>
-      <c r="AI1" s="12" t="inlineStr">
+      <c r="AI1" s="22" t="inlineStr">
         <is>
           <t>ResolvedDate</t>
         </is>
       </c>
-      <c r="AJ1" s="12" t="inlineStr">
+      <c r="AJ1" s="22" t="inlineStr">
         <is>
           <t>VerifiedDate</t>
         </is>
       </c>
-      <c r="AK1" s="12" t="inlineStr">
+      <c r="AK1" s="22" t="inlineStr">
         <is>
           <t>DoneDate</t>
         </is>
       </c>
-      <c r="AL1" s="12" t="inlineStr">
+      <c r="AL1" s="22" t="inlineStr">
         <is>
           <t>ClosedDate</t>
         </is>
       </c>
-      <c r="AM1" s="12" t="inlineStr">
+      <c r="AM1" s="22" t="inlineStr">
         <is>
           <t>LastModifiedDate</t>
         </is>
       </c>
-      <c r="AN1" s="12" t="inlineStr">
+      <c r="AN1" s="22" t="inlineStr">
         <is>
           <t>DueDate</t>
         </is>
       </c>
-      <c r="AO1" s="12" t="inlineStr">
+      <c r="AO1" s="22" t="inlineStr">
         <is>
           <t>ReopenCount</t>
         </is>
       </c>
-      <c r="AP1" s="12" t="inlineStr">
+      <c r="AP1" s="22" t="inlineStr">
         <is>
           <t>FirstReopenDate</t>
         </is>
       </c>
-      <c r="AQ1" s="12" t="inlineStr">
+      <c r="AQ1" s="22" t="inlineStr">
         <is>
           <t>LastReopenDate</t>
         </is>
       </c>
-      <c r="AR1" s="12" t="inlineStr">
+      <c r="AR1" s="22" t="inlineStr">
         <is>
           <t>PreviousState</t>
         </is>
       </c>
-      <c r="AS1" s="12" t="inlineStr">
+      <c r="AS1" s="22" t="inlineStr">
         <is>
           <t>StateTransitionCount</t>
         </is>
       </c>
-      <c r="AT1" s="12" t="inlineStr">
+      <c r="AT1" s="22" t="inlineStr">
         <is>
           <t>TriageDurationHrs</t>
         </is>
       </c>
-      <c r="AU1" s="12" t="inlineStr">
+      <c r="AU1" s="22" t="inlineStr">
         <is>
           <t>ActiveDurationHrs</t>
         </is>
       </c>
-      <c r="AV1" s="12" t="inlineStr">
+      <c r="AV1" s="22" t="inlineStr">
         <is>
           <t>InProgressDurationHrs</t>
         </is>
       </c>
-      <c r="AW1" s="12" t="inlineStr">
+      <c r="AW1" s="22" t="inlineStr">
         <is>
           <t>ReadyForRetestDurationHrs</t>
         </is>
       </c>
-      <c r="AX1" s="12" t="inlineStr">
+      <c r="AX1" s="22" t="inlineStr">
         <is>
           <t>StateHistory</t>
         </is>
       </c>
-      <c r="AY1" s="12" t="inlineStr">
+      <c r="AY1" s="22" t="inlineStr">
         <is>
           <t>AssigneeChangeCount</t>
         </is>
       </c>
-      <c r="AZ1" s="12" t="inlineStr">
+      <c r="AZ1" s="22" t="inlineStr">
         <is>
           <t>StateChangeCount</t>
         </is>
       </c>
-      <c r="BA1" s="12" t="inlineStr">
+      <c r="BA1" s="22" t="inlineStr">
         <is>
           <t>FixAttempts</t>
         </is>
       </c>
-      <c r="BB1" s="12" t="inlineStr">
+      <c r="BB1" s="22" t="inlineStr">
         <is>
           <t>AnalysisEffortHrs</t>
         </is>
       </c>
-      <c r="BC1" s="12" t="inlineStr">
+      <c r="BC1" s="22" t="inlineStr">
         <is>
           <t>DevEffortHrs</t>
         </is>
       </c>
-      <c r="BD1" s="12" t="inlineStr">
+      <c r="BD1" s="22" t="inlineStr">
         <is>
           <t>FixEffortHrs</t>
         </is>
       </c>
-      <c r="BE1" s="12" t="inlineStr">
+      <c r="BE1" s="22" t="inlineStr">
         <is>
           <t>TestEffortHrs</t>
         </is>
       </c>
-      <c r="BF1" s="12" t="inlineStr">
+      <c r="BF1" s="22" t="inlineStr">
         <is>
           <t>ReopenEffortHrs</t>
         </is>
       </c>
-      <c r="BG1" s="12" t="inlineStr">
+      <c r="BG1" s="22" t="inlineStr">
         <is>
           <t>TotalEffortHrs</t>
         </is>
       </c>
-      <c r="BH1" s="12" t="inlineStr">
+      <c r="BH1" s="22" t="inlineStr">
         <is>
           <t>EstimatedEffortHrs</t>
         </is>
       </c>
-      <c r="BI1" s="12" t="inlineStr">
+      <c r="BI1" s="22" t="inlineStr">
         <is>
           <t>LeadTimeHrs</t>
         </is>
       </c>
-      <c r="BJ1" s="12" t="inlineStr">
+      <c r="BJ1" s="22" t="inlineStr">
         <is>
           <t>CycleTimeHrs</t>
         </is>
       </c>
-      <c r="BK1" s="12" t="inlineStr">
+      <c r="BK1" s="22" t="inlineStr">
         <is>
           <t>ResponseTimeHrs</t>
         </is>
       </c>
-      <c r="BL1" s="12" t="inlineStr">
+      <c r="BL1" s="22" t="inlineStr">
         <is>
           <t>WaitTimeHrs</t>
         </is>
       </c>
-      <c r="BM1" s="12" t="inlineStr">
+      <c r="BM1" s="22" t="inlineStr">
         <is>
           <t>ActiveWorkTimeHrs</t>
         </is>
       </c>
-      <c r="BN1" s="12" t="inlineStr">
+      <c r="BN1" s="22" t="inlineStr">
         <is>
           <t>AgeDays</t>
         </is>
       </c>
-      <c r="BO1" s="12" t="inlineStr">
+      <c r="BO1" s="22" t="inlineStr">
         <is>
           <t>RootCause</t>
         </is>
       </c>
-      <c r="BP1" s="12" t="inlineStr">
+      <c r="BP1" s="22" t="inlineStr">
         <is>
           <t>Resolution</t>
         </is>
       </c>
-      <c r="BQ1" s="12" t="inlineStr">
+      <c r="BQ1" s="22" t="inlineStr">
         <is>
           <t>CloseReason</t>
         </is>
       </c>
-      <c r="BR1" s="12" t="inlineStr">
+      <c r="BR1" s="22" t="inlineStr">
         <is>
           <t>TestCaseID</t>
         </is>
       </c>
-      <c r="BS1" s="12" t="inlineStr">
+      <c r="BS1" s="22" t="inlineStr">
         <is>
           <t>IsDuplicate</t>
         </is>
       </c>
-      <c r="BT1" s="12" t="inlineStr">
+      <c r="BT1" s="22" t="inlineStr">
         <is>
           <t>DuplicateOfBugID</t>
         </is>
       </c>
-      <c r="BU1" s="12" t="inlineStr">
+      <c r="BU1" s="22" t="inlineStr">
         <is>
           <t>RetestPassCount</t>
         </is>
       </c>
-      <c r="BV1" s="12" t="inlineStr">
+      <c r="BV1" s="22" t="inlineStr">
         <is>
           <t>RetestFailCount</t>
         </is>
@@ -39284,27 +39733,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="inlineStr">
+      <c r="A1" s="23" t="inlineStr">
         <is>
           <t>Code</t>
         </is>
       </c>
-      <c r="B1" s="13" t="inlineStr">
+      <c r="B1" s="23" t="inlineStr">
         <is>
           <t>Metric_Name</t>
         </is>
       </c>
-      <c r="C1" s="13" t="inlineStr">
+      <c r="C1" s="23" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D1" s="13" t="inlineStr">
+      <c r="D1" s="23" t="inlineStr">
         <is>
           <t>Formula_Text</t>
         </is>
       </c>
-      <c r="E1" s="13" t="inlineStr">
+      <c r="E1" s="23" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
@@ -46953,24 +47402,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>TOP 20 CRITICAL BUGS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>BugID</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C2" s="15" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>Severity</t>
         </is>

--- a/BugTracking_Complete.xlsx
+++ b/BugTracking_Complete.xlsx
@@ -4040,21 +4040,6 @@
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Sprint</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
@@ -4067,21 +4052,6 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Total Bugs</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -4796,10 +4766,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>31</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4816,12 +4786,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
-      <row>31</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -4838,12 +4808,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>16</col>
       <colOff>0</colOff>
-      <row>31</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -4862,10 +4832,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>47</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -4882,12 +4852,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
-      <row>47</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="5" name="Chart 5"/>
@@ -4904,12 +4874,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>16</col>
       <colOff>0</colOff>
-      <row>47</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="6" name="Chart 6"/>
@@ -4936,7 +4906,7 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4953,12 +4923,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -4975,12 +4945,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>16</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -4999,10 +4969,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>39</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -5029,7 +4999,7 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5046,12 +5016,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5068,12 +5038,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>16</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5100,7 +5070,7 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5117,12 +5087,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5139,12 +5109,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>16</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5163,10 +5133,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>39</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -5193,7 +5163,7 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5210,12 +5180,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5239,10 +5209,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5259,12 +5229,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5281,12 +5251,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>16</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5305,10 +5275,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>34</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -5325,12 +5295,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
-      <row>34</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="5" name="Chart 5"/>
@@ -5354,10 +5324,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5374,12 +5344,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5396,12 +5366,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>16</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5425,10 +5395,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="4320000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5452,10 +5422,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5472,12 +5442,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5501,10 +5471,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5521,12 +5491,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5543,12 +5513,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>16</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="3600000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5575,7 +5545,7 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5592,12 +5562,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5614,12 +5584,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>16</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5646,7 +5616,7 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5663,12 +5633,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5685,12 +5655,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>16</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5709,10 +5679,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>39</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -5739,7 +5709,7 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5756,12 +5726,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>8</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5778,12 +5748,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>16</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -50493,9 +50463,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
     <row r="18">
       <c r="D18" t="n">
         <v>165</v>
@@ -50504,16 +50471,6 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
     <row r="29">
       <c r="D29" t="n">
         <v>227</v>
@@ -50522,8 +50479,6 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30"/>
-    <row r="31"/>
     <row r="32">
       <c r="D32" t="n">
         <v>200</v>
@@ -50532,7 +50487,6 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33"/>
     <row r="34">
       <c r="D34" t="n">
         <v>172</v>
@@ -50541,12 +50495,6 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
     <row r="41">
       <c r="D41" t="n">
         <v>198</v>
@@ -50555,7 +50503,6 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42"/>
     <row r="43">
       <c r="D43" t="n">
         <v>245</v>
@@ -50564,7 +50511,6 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44"/>
     <row r="45">
       <c r="D45" t="n">
         <v>232</v>
@@ -50573,10 +50519,6 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
     <row r="50">
       <c r="D50" t="n">
         <v>259</v>
@@ -50585,10 +50527,6 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
     <row r="55">
       <c r="D55" t="n">
         <v>151</v>
@@ -50613,8 +50551,6 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58"/>
-    <row r="59"/>
     <row r="60">
       <c r="D60" t="n">
         <v>315</v>
@@ -50623,7 +50559,6 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61"/>
     <row r="62">
       <c r="D62" t="n">
         <v>176</v>
@@ -51194,9 +51129,6 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v/>
-      </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>

--- a/BugTracking_Complete.xlsx
+++ b/BugTracking_Complete.xlsx
@@ -4766,10 +4766,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4786,12 +4786,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -4808,12 +4808,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>16</col>
+      <col>18</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -4832,10 +4832,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -4852,12 +4852,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="5" name="Chart 5"/>
@@ -4874,12 +4874,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>16</col>
+      <col>18</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="6" name="Chart 6"/>
@@ -4903,10 +4903,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4923,12 +4923,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -4945,12 +4945,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>16</col>
+      <col>18</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -4969,10 +4969,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -4996,10 +4996,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5016,12 +5016,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5038,12 +5038,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>16</col>
+      <col>18</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5067,10 +5067,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5087,12 +5087,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5109,12 +5109,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>16</col>
+      <col>18</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5133,10 +5133,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -5160,10 +5160,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5180,12 +5180,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5209,10 +5209,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5229,12 +5229,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5251,12 +5251,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>16</col>
+      <col>18</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5275,10 +5275,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -5295,12 +5295,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="5" name="Chart 5"/>
@@ -5324,10 +5324,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5344,12 +5344,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5366,12 +5366,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>16</col>
+      <col>18</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5395,10 +5395,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5422,10 +5422,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5442,12 +5442,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5471,10 +5471,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5491,12 +5491,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5513,12 +5513,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>16</col>
+      <col>18</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5542,10 +5542,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5562,12 +5562,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5584,12 +5584,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>16</col>
+      <col>18</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5613,10 +5613,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5633,12 +5633,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5655,12 +5655,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>16</col>
+      <col>18</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5679,10 +5679,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -5706,10 +5706,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5726,12 +5726,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5748,12 +5748,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>16</col>
+      <col>18</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
